--- a/etf_dfs/EWQ.xlsx
+++ b/etf_dfs/EWQ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EWQ</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>35125</v>
       </c>
@@ -462,7 +468,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>35156</v>
       </c>
@@ -479,7 +485,7 @@
         <v>13.375</v>
       </c>
       <c r="F3">
-        <v>6.36738395690918</v>
+        <v>6.367384433746338</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -488,7 +494,7 @@
         <v>0.01421800947867302</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>35186</v>
       </c>
@@ -505,7 +511,7 @@
         <v>13.25</v>
       </c>
       <c r="F4">
-        <v>6.307876110076904</v>
+        <v>6.307874202728271</v>
       </c>
       <c r="G4">
         <v>3000</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>-0.009345794392523366</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.01666212550787279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>35217</v>
       </c>
@@ -531,7 +540,7 @@
         <v>13.625</v>
       </c>
       <c r="F5">
-        <v>6.48640251159668</v>
+        <v>6.486399173736572</v>
       </c>
       <c r="G5">
         <v>200</v>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>0.02830188679245293</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.01902172596302902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>35247</v>
       </c>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>-0.01376146788990829</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.01988012299816078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>35278</v>
       </c>
@@ -583,7 +598,7 @@
         <v>12.6875</v>
       </c>
       <c r="F7">
-        <v>6.185745716094971</v>
+        <v>6.185744285583496</v>
       </c>
       <c r="G7">
         <v>10800</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>-0.05581395348837215</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.03213275841178049</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>35309</v>
       </c>
@@ -609,7 +627,7 @@
         <v>13.375</v>
       </c>
       <c r="F8">
-        <v>6.520933151245117</v>
+        <v>6.520934104919434</v>
       </c>
       <c r="G8">
         <v>9000</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>0.05418719211822665</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.03815389043610971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>35339</v>
       </c>
@@ -635,7 +656,7 @@
         <v>13.6875</v>
       </c>
       <c r="F9">
-        <v>6.673291683197021</v>
+        <v>6.673293590545654</v>
       </c>
       <c r="G9">
         <v>35800</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>0.02336448598130847</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.03567284548335856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>35370</v>
       </c>
@@ -661,7 +685,7 @@
         <v>14.3125</v>
       </c>
       <c r="F10">
-        <v>6.97800874710083</v>
+        <v>6.978009700775146</v>
       </c>
       <c r="G10">
         <v>400</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.04566210045662111</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.03589706692529301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>35400</v>
       </c>
@@ -687,7 +714,7 @@
         <v>14.5625</v>
       </c>
       <c r="F11">
-        <v>7.099896430969238</v>
+        <v>7.099896907806396</v>
       </c>
       <c r="G11">
         <v>7000</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>0.01746724890829698</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.03365096623732813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>35431</v>
       </c>
@@ -713,7 +743,7 @@
         <v>14.75</v>
       </c>
       <c r="F12">
-        <v>7.191310882568359</v>
+        <v>7.191309928894043</v>
       </c>
       <c r="G12">
         <v>58100</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>0.01287553648068673</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.03172905323338734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>35462</v>
       </c>
@@ -739,7 +772,7 @@
         <v>14.875</v>
       </c>
       <c r="F13">
-        <v>7.25225305557251</v>
+        <v>7.252252101898193</v>
       </c>
       <c r="G13">
         <v>2600</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>0.008474576271186418</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.03011668014727351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>35490</v>
       </c>
@@ -765,7 +801,7 @@
         <v>15</v>
       </c>
       <c r="F14">
-        <v>7.313198566436768</v>
+        <v>7.313198089599609</v>
       </c>
       <c r="G14">
         <v>8200</v>
@@ -774,13 +810,16 @@
         <v>0.008403361344537785</v>
       </c>
       <c r="I14">
-        <v>0.1374407582938388</v>
+        <v>0.0287283371914374</v>
       </c>
       <c r="J14">
         <v>0.1374407582938388</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.1374407582938388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>35521</v>
       </c>
@@ -797,7 +836,7 @@
         <v>14.375</v>
       </c>
       <c r="F15">
-        <v>7.008481979370117</v>
+        <v>7.008481025695801</v>
       </c>
       <c r="G15">
         <v>3600</v>
@@ -806,13 +845,16 @@
         <v>-0.04166666666666663</v>
       </c>
       <c r="I15">
-        <v>0.07476635514018692</v>
+        <v>0.03116542111450486</v>
       </c>
       <c r="J15">
         <v>0.07476635514018692</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0.07476635514018692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>35551</v>
       </c>
@@ -829,7 +871,7 @@
         <v>14.5625</v>
       </c>
       <c r="F16">
-        <v>7.099896430969238</v>
+        <v>7.099896907806396</v>
       </c>
       <c r="G16">
         <v>43400</v>
@@ -838,13 +880,16 @@
         <v>0.01304347826086949</v>
       </c>
       <c r="I16">
-        <v>0.09905660377358494</v>
+        <v>0.02998479993315276</v>
       </c>
       <c r="J16">
         <v>0.09905660377358494</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0.09905660377358494</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>35582</v>
       </c>
@@ -861,7 +906,7 @@
         <v>15.6875</v>
       </c>
       <c r="F17">
-        <v>7.648386001586914</v>
+        <v>7.648382186889648</v>
       </c>
       <c r="G17">
         <v>4200</v>
@@ -870,13 +915,16 @@
         <v>0.07725321888412018</v>
       </c>
       <c r="I17">
-        <v>0.1513761467889909</v>
+        <v>0.03404354222723121</v>
       </c>
       <c r="J17">
         <v>0.1513761467889909</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0.1513761467889909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>35612</v>
       </c>
@@ -893,7 +941,7 @@
         <v>16.125</v>
       </c>
       <c r="F18">
-        <v>7.861688613891602</v>
+        <v>7.861685752868652</v>
       </c>
       <c r="G18">
         <v>2400</v>
@@ -902,13 +950,16 @@
         <v>0.02788844621513942</v>
       </c>
       <c r="I18">
-        <v>0.2</v>
+        <v>0.03312288640853359</v>
       </c>
       <c r="J18">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>35643</v>
       </c>
@@ -925,7 +976,7 @@
         <v>14.5</v>
       </c>
       <c r="F19">
-        <v>7.237646102905273</v>
+        <v>7.237646579742432</v>
       </c>
       <c r="G19">
         <v>2800</v>
@@ -934,13 +985,16 @@
         <v>-0.1007751937984496</v>
       </c>
       <c r="I19">
-        <v>0.1428571428571428</v>
+        <v>0.04233379188784423</v>
       </c>
       <c r="J19">
         <v>0.1428571428571428</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>35674</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>16.0625</v>
       </c>
       <c r="F20">
-        <v>8.017565727233887</v>
+        <v>8.017563819885254</v>
       </c>
       <c r="G20">
         <v>900</v>
@@ -966,13 +1020,16 @@
         <v>0.1077586206896552</v>
       </c>
       <c r="I20">
-        <v>0.2009345794392523</v>
+        <v>0.04750617369775096</v>
       </c>
       <c r="J20">
         <v>0.2009345794392523</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.2009345794392523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>35704</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>15.125</v>
       </c>
       <c r="F21">
-        <v>7.549613952636719</v>
+        <v>7.549614906311035</v>
       </c>
       <c r="G21">
         <v>38500</v>
@@ -998,13 +1055,16 @@
         <v>-0.05836575875486383</v>
       </c>
       <c r="I21">
-        <v>0.1050228310502284</v>
+        <v>0.04891508599519098</v>
       </c>
       <c r="J21">
         <v>0.1050228310502284</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0.1050228310502284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>35735</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>15.1875</v>
       </c>
       <c r="F22">
-        <v>7.580811500549316</v>
+        <v>7.580811977386475</v>
       </c>
       <c r="G22">
         <v>5000</v>
@@ -1030,13 +1090,16 @@
         <v>0.004132231404958775</v>
       </c>
       <c r="I22">
-        <v>0.06113537117903922</v>
+        <v>0.04761991032376945</v>
       </c>
       <c r="J22">
         <v>0.06113537117903922</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0.06113537117903922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>35765</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>15.8125</v>
       </c>
       <c r="F23">
-        <v>7.933190822601318</v>
+        <v>7.933188915252686</v>
       </c>
       <c r="G23">
         <v>40000</v>
@@ -1062,13 +1125,16 @@
         <v>0.04115226337448563</v>
       </c>
       <c r="I23">
-        <v>0.08583690987124459</v>
+        <v>0.04696903174101936</v>
       </c>
       <c r="J23">
         <v>0.08583690987124459</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0.08583690987124459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>35796</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>16.125</v>
       </c>
       <c r="F24">
-        <v>8.089971542358398</v>
+        <v>8.089970588684082</v>
       </c>
       <c r="G24">
         <v>14700</v>
@@ -1094,13 +1160,16 @@
         <v>0.01976284584980248</v>
       </c>
       <c r="I24">
-        <v>0.09322033898305082</v>
+        <v>0.04588690475323257</v>
       </c>
       <c r="J24">
         <v>0.09322033898305082</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0.09322033898305082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>35827</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>17.75</v>
       </c>
       <c r="F25">
-        <v>8.905240058898926</v>
+        <v>8.905241966247559</v>
       </c>
       <c r="G25">
         <v>7300</v>
@@ -1126,13 +1195,16 @@
         <v>0.1007751937984496</v>
       </c>
       <c r="I25">
-        <v>0.1932773109243697</v>
+        <v>0.04864826845173785</v>
       </c>
       <c r="J25">
         <v>0.1932773109243697</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0.1932773109243697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>35855</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>19.5625</v>
       </c>
       <c r="F26">
-        <v>9.814577102661133</v>
+        <v>9.814578056335449</v>
       </c>
       <c r="G26">
         <v>23500</v>
@@ -1158,13 +1230,16 @@
         <v>0.102112676056338</v>
       </c>
       <c r="I26">
-        <v>0.3041666666666667</v>
+        <v>0.05085562963830368</v>
       </c>
       <c r="J26">
         <v>0.3041666666666667</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0.3041666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>35886</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>20.25</v>
       </c>
       <c r="F27">
-        <v>10.159499168396</v>
+        <v>10.15949726104736</v>
       </c>
       <c r="G27">
         <v>16300</v>
@@ -1190,13 +1265,16 @@
         <v>0.03514376996805102</v>
       </c>
       <c r="I27">
-        <v>0.4086956521739131</v>
+        <v>0.04990561637066381</v>
       </c>
       <c r="J27">
         <v>0.4086956521739131</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.4086956521739131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>35916</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>21.3125</v>
       </c>
       <c r="F28">
-        <v>10.69256210327148</v>
+        <v>10.69255828857422</v>
       </c>
       <c r="G28">
         <v>7100</v>
@@ -1222,13 +1300,16 @@
         <v>0.05246913580246915</v>
       </c>
       <c r="I28">
-        <v>0.4635193133047211</v>
+        <v>0.04934931496784001</v>
       </c>
       <c r="J28">
         <v>0.4635193133047211</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0.4635193133047211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>35947</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>22.0625</v>
       </c>
       <c r="F29">
-        <v>11.06883716583252</v>
+        <v>11.0688362121582</v>
       </c>
       <c r="G29">
         <v>32600</v>
@@ -1254,13 +1335,16 @@
         <v>0.03519061583577709</v>
       </c>
       <c r="I29">
-        <v>0.406374501992032</v>
+        <v>0.04848158428203736</v>
       </c>
       <c r="J29">
         <v>0.406374501992032</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.406374501992032</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>35977</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>21.875</v>
       </c>
       <c r="F30">
-        <v>10.97476482391357</v>
+        <v>10.97476577758789</v>
       </c>
       <c r="G30">
         <v>43200</v>
@@ -1286,13 +1370,16 @@
         <v>-0.008498583569405138</v>
       </c>
       <c r="I30">
-        <v>0.3565891472868217</v>
+        <v>0.04788703003325575</v>
       </c>
       <c r="J30">
         <v>0.3565891472868217</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0.3565891472868217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>36008</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>18.375</v>
       </c>
       <c r="F31">
-        <v>9.406469345092773</v>
+        <v>9.406472206115723</v>
       </c>
       <c r="G31">
         <v>50000</v>
@@ -1318,13 +1405,16 @@
         <v>-0.16</v>
       </c>
       <c r="I31">
-        <v>0.2672413793103448</v>
+        <v>0.0576218992800287</v>
       </c>
       <c r="J31">
         <v>0.2672413793103448</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0.2672413793103448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>36039</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>17.75</v>
       </c>
       <c r="F32">
-        <v>9.086522102355957</v>
+        <v>9.086523056030273</v>
       </c>
       <c r="G32">
         <v>31200</v>
@@ -1350,13 +1440,16 @@
         <v>-0.03401360544217691</v>
       </c>
       <c r="I32">
-        <v>0.1050583657587549</v>
+        <v>0.05727079582465072</v>
       </c>
       <c r="J32">
         <v>0.1050583657587549</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>0.1050583657587549</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>36069</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>19.9375</v>
       </c>
       <c r="F33">
-        <v>10.20634078979492</v>
+        <v>10.20633888244629</v>
       </c>
       <c r="G33">
         <v>32200</v>
@@ -1382,13 +1475,16 @@
         <v>0.1232394366197183</v>
       </c>
       <c r="I33">
-        <v>0.3181818181818181</v>
+        <v>0.05977291723904225</v>
       </c>
       <c r="J33">
         <v>0.3181818181818181</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0.3181818181818181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>36100</v>
       </c>
@@ -1405,7 +1501,7 @@
         <v>20.625</v>
       </c>
       <c r="F34">
-        <v>10.55828285217285</v>
+        <v>10.5582857131958</v>
       </c>
       <c r="G34">
         <v>19900</v>
@@ -1414,13 +1510,16 @@
         <v>0.03448275862068972</v>
       </c>
       <c r="I34">
-        <v>0.3580246913580247</v>
+        <v>0.05889984259466912</v>
       </c>
       <c r="J34">
         <v>0.3580246913580247</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0.3580246913580247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>36130</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>21.625</v>
       </c>
       <c r="F35">
-        <v>11.27298259735107</v>
+        <v>11.27297687530518</v>
       </c>
       <c r="G35">
         <v>5800</v>
@@ -1446,13 +1545,16 @@
         <v>0.04848484848484858</v>
       </c>
       <c r="I35">
-        <v>0.3675889328063242</v>
+        <v>0.05825102378024741</v>
       </c>
       <c r="J35">
         <v>0.3675889328063242</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0.3675889328063242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>36161</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>22.625</v>
       </c>
       <c r="F36">
-        <v>11.79427337646484</v>
+        <v>11.79427528381348</v>
       </c>
       <c r="G36">
         <v>22700</v>
@@ -1478,13 +1580,16 @@
         <v>0.04624277456647397</v>
       </c>
       <c r="I36">
-        <v>0.4031007751937985</v>
+        <v>0.05758381989212496</v>
       </c>
       <c r="J36">
         <v>0.4031007751937985</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0.4031007751937985</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>36192</v>
       </c>
@@ -1501,7 +1606,7 @@
         <v>20.875</v>
       </c>
       <c r="F37">
-        <v>10.88201236724854</v>
+        <v>10.88200759887695</v>
       </c>
       <c r="G37">
         <v>4500</v>
@@ -1510,13 +1615,16 @@
         <v>-0.07734806629834257</v>
       </c>
       <c r="I37">
-        <v>0.176056338028169</v>
+        <v>0.05895910442812828</v>
       </c>
       <c r="J37">
         <v>0.176056338028169</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>0.176056338028169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>36220</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>21.125</v>
       </c>
       <c r="F38">
-        <v>11.01233005523682</v>
+        <v>11.01233386993408</v>
       </c>
       <c r="G38">
         <v>13300</v>
@@ -1542,13 +1650,16 @@
         <v>0.01197604790419171</v>
       </c>
       <c r="I38">
-        <v>0.07987220447284349</v>
+        <v>0.0581128111481968</v>
       </c>
       <c r="J38">
         <v>0.07987220447284349</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>0.07987220447284349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>36251</v>
       </c>
@@ -1565,7 +1676,7 @@
         <v>21.6875</v>
       </c>
       <c r="F39">
-        <v>11.30556201934814</v>
+        <v>11.30556392669678</v>
       </c>
       <c r="G39">
         <v>6600</v>
@@ -1574,13 +1685,16 @@
         <v>0.02662721893491127</v>
       </c>
       <c r="I39">
-        <v>0.07098765432098775</v>
+        <v>0.05733272608153753</v>
       </c>
       <c r="J39">
         <v>0.07098765432098775</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>0.07098765432098775</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>36281</v>
       </c>
@@ -1606,13 +1720,16 @@
         <v>-0.01440922190201732</v>
       </c>
       <c r="I40">
-        <v>0.002932551319648091</v>
+        <v>0.05675578426998006</v>
       </c>
       <c r="J40">
         <v>0.002932551319648091</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0.002932551319648091</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>36312</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>22.5</v>
       </c>
       <c r="F41">
-        <v>11.72911262512207</v>
+        <v>11.72911167144775</v>
       </c>
       <c r="G41">
         <v>17300</v>
@@ -1638,13 +1755,16 @@
         <v>0.05263157894736836</v>
       </c>
       <c r="I41">
-        <v>0.01983002832861192</v>
+        <v>0.05633786165426032</v>
       </c>
       <c r="J41">
         <v>0.01983002832861192</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0.01983002832861192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>36342</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>22.375</v>
       </c>
       <c r="F42">
-        <v>11.6639518737793</v>
+        <v>11.66394901275635</v>
       </c>
       <c r="G42">
         <v>3800</v>
@@ -1670,13 +1790,16 @@
         <v>-0.005555555555555536</v>
       </c>
       <c r="I42">
-        <v>0.02285714285714291</v>
+        <v>0.05570920311017714</v>
       </c>
       <c r="J42">
         <v>0.02285714285714291</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0.02285714285714291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>36373</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>22.9375</v>
       </c>
       <c r="F43">
-        <v>12.08969497680664</v>
+        <v>12.08969879150391</v>
       </c>
       <c r="G43">
         <v>10000</v>
@@ -1702,13 +1825,16 @@
         <v>0.02513966480446927</v>
       </c>
       <c r="I43">
-        <v>0.2482993197278911</v>
+        <v>0.0550319245084003</v>
       </c>
       <c r="J43">
         <v>0.2482993197278911</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0.2482993197278911</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>36404</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>23.0625</v>
       </c>
       <c r="F44">
-        <v>12.15557956695557</v>
+        <v>12.15558052062988</v>
       </c>
       <c r="G44">
         <v>33500</v>
@@ -1734,13 +1860,16 @@
         <v>0.005449591280654031</v>
       </c>
       <c r="I44">
-        <v>0.2992957746478873</v>
+        <v>0.05437703359697364</v>
       </c>
       <c r="J44">
         <v>0.2992957746478873</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.2992957746478873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>36434</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>24.125</v>
       </c>
       <c r="F45">
-        <v>12.71559619903564</v>
+        <v>12.71559524536133</v>
       </c>
       <c r="G45">
         <v>21200</v>
@@ -1766,13 +1895,16 @@
         <v>0.04607046070460696</v>
       </c>
       <c r="I45">
-        <v>0.2100313479623825</v>
+        <v>0.05393612375019079</v>
       </c>
       <c r="J45">
         <v>0.2100313479623825</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0.2100313479623825</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>36465</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>25</v>
       </c>
       <c r="F46">
-        <v>13.17678260803223</v>
+        <v>13.17678070068359</v>
       </c>
       <c r="G46">
         <v>6600</v>
@@ -1798,13 +1930,16 @@
         <v>0.03626943005181338</v>
       </c>
       <c r="I46">
-        <v>0.2121212121212122</v>
+        <v>0.0533963448147625</v>
       </c>
       <c r="J46">
         <v>0.2121212121212122</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0.2121212121212122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>36495</v>
       </c>
@@ -1830,13 +1965,16 @@
         <v>0.105</v>
       </c>
       <c r="I47">
-        <v>0.277456647398844</v>
+        <v>0.05442563910838692</v>
       </c>
       <c r="J47">
         <v>0.277456647398844</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0.277456647398844</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>36526</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>25.3125</v>
       </c>
       <c r="F48">
-        <v>13.63478183746338</v>
+        <v>13.6347827911377</v>
       </c>
       <c r="G48">
         <v>37400</v>
@@ -1862,13 +2000,16 @@
         <v>-0.08371040723981904</v>
       </c>
       <c r="I48">
-        <v>0.1187845303867403</v>
+        <v>0.0558693374618612</v>
       </c>
       <c r="J48">
         <v>0.1187845303867403</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>0.1187845303867403</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>36557</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>28.25</v>
       </c>
       <c r="F49">
-        <v>15.21709060668945</v>
+        <v>15.21709442138672</v>
       </c>
       <c r="G49">
         <v>77700</v>
@@ -1894,13 +2035,16 @@
         <v>0.1160493827160494</v>
       </c>
       <c r="I49">
-        <v>0.3532934131736527</v>
+        <v>0.0571598214683013</v>
       </c>
       <c r="J49">
         <v>0.3532934131736527</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0.3532934131736527</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>36586</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>27.75</v>
       </c>
       <c r="F50">
-        <v>14.94776058197021</v>
+        <v>14.94776439666748</v>
       </c>
       <c r="G50">
         <v>16500</v>
@@ -1926,13 +2070,16 @@
         <v>-0.01769911504424782</v>
       </c>
       <c r="I50">
-        <v>0.3136094674556213</v>
+        <v>0.05678219586547689</v>
       </c>
       <c r="J50">
         <v>0.3136094674556213</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0.3136094674556213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>36617</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>27.0625</v>
       </c>
       <c r="F51">
-        <v>14.57743453979492</v>
+        <v>14.57743644714355</v>
       </c>
       <c r="G51">
         <v>8800</v>
@@ -1958,13 +2105,16 @@
         <v>-0.02477477477477474</v>
       </c>
       <c r="I51">
-        <v>0.2478386167146973</v>
+        <v>0.05650689898760164</v>
       </c>
       <c r="J51">
         <v>0.2478386167146973</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>0.2478386167146973</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>36647</v>
       </c>
@@ -1990,13 +2140,16 @@
         <v>0.03926096997690531</v>
       </c>
       <c r="I52">
-        <v>0.3157894736842106</v>
+        <v>0.05602103454351646</v>
       </c>
       <c r="J52">
         <v>0.3157894736842106</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>0.3157894736842106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>36678</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>28.8125</v>
       </c>
       <c r="F53">
-        <v>15.52009105682373</v>
+        <v>15.52008724212646</v>
       </c>
       <c r="G53">
         <v>41000</v>
@@ -2022,13 +2175,16 @@
         <v>0.02444444444444449</v>
       </c>
       <c r="I53">
-        <v>0.2805555555555554</v>
+        <v>0.05546828003983759</v>
       </c>
       <c r="J53">
         <v>0.2805555555555554</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>0.2805555555555554</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>36708</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>28.25</v>
       </c>
       <c r="F54">
-        <v>15.21709060668945</v>
+        <v>15.21709442138672</v>
       </c>
       <c r="G54">
         <v>65100</v>
@@ -2054,13 +2210,16 @@
         <v>-0.0195227765726681</v>
       </c>
       <c r="I54">
-        <v>0.2625698324022345</v>
+        <v>0.05515438808606488</v>
       </c>
       <c r="J54">
         <v>0.2625698324022345</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>0.2625698324022345</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>36739</v>
       </c>
@@ -2086,13 +2245,16 @@
         <v>-0.06194690265486724</v>
       </c>
       <c r="I55">
-        <v>0.1553133514986376</v>
+        <v>0.05566795668738402</v>
       </c>
       <c r="J55">
         <v>0.1553133514986376</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>0.1553133514986376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>36770</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>24.75</v>
       </c>
       <c r="F56">
-        <v>13.95759868621826</v>
+        <v>13.957594871521</v>
       </c>
       <c r="G56">
         <v>41600</v>
@@ -2118,13 +2280,16 @@
         <v>-0.06603773584905659</v>
       </c>
       <c r="I56">
-        <v>0.07317073170731714</v>
+        <v>0.05622660275720184</v>
       </c>
       <c r="J56">
         <v>0.07317073170731714</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>0.07317073170731714</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>36800</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>24.3125</v>
       </c>
       <c r="F57">
-        <v>13.71086978912354</v>
+        <v>13.71087169647217</v>
       </c>
       <c r="G57">
         <v>36800</v>
@@ -2150,13 +2315,16 @@
         <v>-0.01767676767676762</v>
       </c>
       <c r="I57">
-        <v>0.007772020725388629</v>
+        <v>0.05585985330215264</v>
       </c>
       <c r="J57">
         <v>0.007772020725388629</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>0.007772020725388629</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>36831</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>22.875</v>
       </c>
       <c r="F58">
-        <v>12.9002046585083</v>
+        <v>12.90020275115967</v>
       </c>
       <c r="G58">
         <v>14100</v>
@@ -2182,13 +2350,16 @@
         <v>-0.05912596401028281</v>
       </c>
       <c r="I58">
-        <v>-0.08499999999999996</v>
+        <v>0.05617640397412034</v>
       </c>
       <c r="J58">
         <v>-0.08499999999999996</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>-0.08499999999999996</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>36861</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>24.6875</v>
       </c>
       <c r="F59">
-        <v>15.06730842590332</v>
+        <v>15.06730651855469</v>
       </c>
       <c r="G59">
         <v>55500</v>
@@ -2214,13 +2385,16 @@
         <v>0.07923497267759561</v>
       </c>
       <c r="I59">
-        <v>-0.1063348416289592</v>
+        <v>0.05639198421103751</v>
       </c>
       <c r="J59">
         <v>-0.1063348416289592</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>-0.1063348416289592</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>36892</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>24.98999977111816</v>
       </c>
       <c r="F60">
-        <v>15.25192832946777</v>
+        <v>15.25192546844482</v>
       </c>
       <c r="G60">
         <v>105200</v>
@@ -2246,13 +2420,16 @@
         <v>0.01225315528579896</v>
       </c>
       <c r="I60">
-        <v>-0.01274074978298612</v>
+        <v>0.05589515133172414</v>
       </c>
       <c r="J60">
         <v>-0.01274074978298612</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-0.01274074978298612</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>36923</v>
       </c>
@@ -2269,7 +2446,7 @@
         <v>22.14999961853027</v>
       </c>
       <c r="F61">
-        <v>13.5186128616333</v>
+        <v>13.51861572265625</v>
       </c>
       <c r="G61">
         <v>47500</v>
@@ -2278,13 +2455,16 @@
         <v>-0.113645465330103</v>
       </c>
       <c r="I61">
-        <v>-0.2159292170431761</v>
+        <v>0.05779841573730331</v>
       </c>
       <c r="J61">
         <v>-0.2159292170431761</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>-0.2159292170431761</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>36951</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>20.29999923706055</v>
       </c>
       <c r="F62">
-        <v>12.3895206451416</v>
+        <v>12.38951778411865</v>
       </c>
       <c r="G62">
         <v>43400</v>
@@ -2310,13 +2490,16 @@
         <v>-0.08352146335578492</v>
       </c>
       <c r="I62">
-        <v>-0.2684684959617821</v>
+        <v>0.05857757502753711</v>
       </c>
       <c r="J62">
         <v>-0.2684684959617821</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>-0.2684684959617821</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>36982</v>
       </c>
@@ -2342,13 +2525,16 @@
         <v>0.09359613779739373</v>
       </c>
       <c r="I63">
-        <v>-0.1796766461731379</v>
+        <v>0.05909045246877223</v>
       </c>
       <c r="J63">
         <v>-0.1796766461731379</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>-0.1796766461731379</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>37012</v>
       </c>
@@ -2374,13 +2560,16 @@
         <v>-0.06486488669232593</v>
       </c>
       <c r="I64">
-        <v>-0.2618666585286459</v>
+        <v>0.05937666961021458</v>
       </c>
       <c r="J64">
         <v>-0.2618666585286459</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>-0.2618666585286459</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>37043</v>
       </c>
@@ -2406,13 +2595,16 @@
         <v>-0.03660887381997735</v>
       </c>
       <c r="I65">
-        <v>-0.3058568329718004</v>
+        <v>0.05917671511796208</v>
       </c>
       <c r="J65">
         <v>-0.3058568329718004</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>-0.3058568329718004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>37073</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>20.05999946594238</v>
       </c>
       <c r="F66">
-        <v>12.24304580688477</v>
+        <v>12.24304294586182</v>
       </c>
       <c r="G66">
         <v>52600</v>
@@ -2438,13 +2630,16 @@
         <v>0.002999973297119096</v>
       </c>
       <c r="I66">
-        <v>-0.2899115233294731</v>
+        <v>0.05870901958680403</v>
       </c>
       <c r="J66">
         <v>-0.2899115233294731</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>-0.2899115233294731</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>37104</v>
       </c>
@@ -2461,7 +2656,7 @@
         <v>19.60000038146973</v>
       </c>
       <c r="F67">
-        <v>11.99384212493896</v>
+        <v>11.99384784698486</v>
       </c>
       <c r="G67">
         <v>13000</v>
@@ -2470,13 +2665,16 @@
         <v>-0.0229311613519052</v>
       </c>
       <c r="I67">
-        <v>-0.260377344095482</v>
+        <v>0.05837711417486123</v>
       </c>
       <c r="J67">
         <v>-0.260377344095482</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>-0.260377344095482</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>37135</v>
       </c>
@@ -2493,7 +2691,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="F68">
-        <v>10.32939338684082</v>
+        <v>10.3293924331665</v>
       </c>
       <c r="G68">
         <v>5500</v>
@@ -2502,13 +2700,16 @@
         <v>-0.1387755697839004</v>
       </c>
       <c r="I68">
-        <v>-0.3179798318882181</v>
+        <v>0.060671341562449</v>
       </c>
       <c r="J68">
         <v>-0.3179798318882181</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>-0.3179798318882181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>37165</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>17.70000076293945</v>
       </c>
       <c r="F69">
-        <v>10.83117485046387</v>
+        <v>10.83117580413818</v>
       </c>
       <c r="G69">
         <v>52600</v>
@@ -2534,13 +2735,16 @@
         <v>0.04857829638278321</v>
       </c>
       <c r="I69">
-        <v>-0.2719794030667577</v>
+        <v>0.06043860984538554</v>
       </c>
       <c r="J69">
         <v>-0.2719794030667577</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>-0.2719794030667577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>37196</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>18.11000061035156</v>
       </c>
       <c r="F70">
-        <v>11.08206748962402</v>
+        <v>11.08206558227539</v>
       </c>
       <c r="G70">
         <v>5400</v>
@@ -2566,13 +2770,16 @@
         <v>0.02316383218867268</v>
       </c>
       <c r="I70">
-        <v>-0.2083059842469263</v>
+        <v>0.06002102781256641</v>
       </c>
       <c r="J70">
         <v>-0.2083059842469263</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>-0.2083059842469263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>37226</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>18.75</v>
       </c>
       <c r="F71">
-        <v>11.4737024307251</v>
+        <v>11.47370433807373</v>
       </c>
       <c r="G71">
         <v>19600</v>
@@ -2598,13 +2805,16 @@
         <v>0.03533955649248388</v>
       </c>
       <c r="I71">
-        <v>-0.240506329113924</v>
+        <v>0.05967929820680311</v>
       </c>
       <c r="J71">
         <v>-0.240506329113924</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>-0.240506329113924</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>37257</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>17.73999977111816</v>
       </c>
       <c r="F72">
-        <v>10.85565280914307</v>
+        <v>10.8556547164917</v>
       </c>
       <c r="G72">
         <v>51800</v>
@@ -2630,13 +2840,16 @@
         <v>-0.05386667887369789</v>
       </c>
       <c r="I72">
-        <v>-0.2901160490757221</v>
+        <v>0.05968872664350668</v>
       </c>
       <c r="J72">
         <v>-0.2901160490757221</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>-0.2901160490757221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>37288</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>17.82999992370605</v>
       </c>
       <c r="F73">
-        <v>10.91072654724121</v>
+        <v>10.91072463989258</v>
       </c>
       <c r="G73">
         <v>23200</v>
@@ -2662,13 +2875,16 @@
         <v>0.005073289388335622</v>
       </c>
       <c r="I73">
-        <v>-0.1950338496263534</v>
+        <v>0.05926095309951433</v>
       </c>
       <c r="J73">
         <v>-0.1950338496263534</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>-0.1950338496263534</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>37316</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>18.75</v>
       </c>
       <c r="F74">
-        <v>11.4737024307251</v>
+        <v>11.47370433807373</v>
       </c>
       <c r="G74">
         <v>500</v>
@@ -2694,13 +2910,16 @@
         <v>0.05159843411276466</v>
       </c>
       <c r="I74">
-        <v>-0.07635464508938516</v>
+        <v>0.05908687022168088</v>
       </c>
       <c r="J74">
         <v>-0.07635464508938516</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>-0.07635464508938516</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>37347</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>18.64999961853027</v>
       </c>
       <c r="F75">
-        <v>11.41250991821289</v>
+        <v>11.41250801086426</v>
       </c>
       <c r="G75">
         <v>38700</v>
@@ -2726,13 +2945,16 @@
         <v>-0.005333353678385389</v>
       </c>
       <c r="I75">
-        <v>-0.1599099559643048</v>
+        <v>0.0586918620339709</v>
       </c>
       <c r="J75">
         <v>-0.1599099559643048</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>-0.1599099559643048</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>37377</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>18.60000038146973</v>
       </c>
       <c r="F76">
-        <v>11.38191413879395</v>
+        <v>11.38191509246826</v>
       </c>
       <c r="G76">
         <v>20300</v>
@@ -2758,13 +2980,16 @@
         <v>-0.002680924294007458</v>
       </c>
       <c r="I76">
-        <v>-0.1040462342773515</v>
+        <v>0.05829821021826485</v>
       </c>
       <c r="J76">
         <v>-0.1040462342773515</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>-0.1040462342773515</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>37408</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>18.29999923706055</v>
       </c>
       <c r="F77">
-        <v>11.19833660125732</v>
+        <v>11.19833469390869</v>
       </c>
       <c r="G77">
         <v>8500</v>
@@ -2790,13 +3015,16 @@
         <v>-0.01612909345464619</v>
       </c>
       <c r="I77">
-        <v>-0.08500003814697266</v>
+        <v>0.05796115984413433</v>
       </c>
       <c r="J77">
         <v>-0.08500003814697266</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>-0.08500003814697266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>37438</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>15.60000038146973</v>
       </c>
       <c r="F78">
-        <v>9.54611873626709</v>
+        <v>9.546119689941406</v>
       </c>
       <c r="G78">
         <v>137500</v>
@@ -2822,13 +3050,16 @@
         <v>-0.1475409272216183</v>
       </c>
       <c r="I78">
-        <v>-0.2223329612767332</v>
+        <v>0.06020910916445089</v>
       </c>
       <c r="J78">
         <v>-0.2223329612767332</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>-0.2223329612767332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>37469</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>15.47999954223633</v>
       </c>
       <c r="F79">
-        <v>9.472690582275391</v>
+        <v>9.472688674926758</v>
       </c>
       <c r="G79">
         <v>72700</v>
@@ -2854,13 +3085,16 @@
         <v>-0.007692361301217643</v>
       </c>
       <c r="I79">
-        <v>-0.2102041203595352</v>
+        <v>0.05982662218700126</v>
       </c>
       <c r="J79">
         <v>-0.2102041203595352</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>-0.2102041203595352</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>37500</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>13.15999984741211</v>
       </c>
       <c r="F80">
-        <v>8.053009033203125</v>
+        <v>8.053008079528809</v>
       </c>
       <c r="G80">
         <v>5700</v>
@@ -2886,13 +3120,16 @@
         <v>-0.1498707857512674</v>
       </c>
       <c r="I80">
-        <v>-0.2203791171981048</v>
+        <v>0.06193409418674135</v>
       </c>
       <c r="J80">
         <v>-0.2203791171981048</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>-0.2203791171981048</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>37530</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>14.65999984741211</v>
       </c>
       <c r="F81">
-        <v>8.970906257629395</v>
+        <v>8.970907211303711</v>
       </c>
       <c r="G81">
         <v>18800</v>
@@ -2918,13 +3155,16 @@
         <v>0.1139817642395318</v>
       </c>
       <c r="I81">
-        <v>-0.1717514567509255</v>
+        <v>0.06281425154385586</v>
       </c>
       <c r="J81">
         <v>-0.1717514567509255</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>-0.1717514567509255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>37561</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>15.52000045776367</v>
       </c>
       <c r="F82">
-        <v>9.497170448303223</v>
+        <v>9.497166633605957</v>
       </c>
       <c r="G82">
         <v>16900</v>
@@ -2950,13 +3190,16 @@
         <v>0.05866307089378142</v>
       </c>
       <c r="I82">
-        <v>-0.1430149124957767</v>
+        <v>0.06272123308106625</v>
       </c>
       <c r="J82">
         <v>-0.1430149124957767</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>-0.1430149124957767</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>37591</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>14.80000019073486</v>
       </c>
       <c r="F83">
-        <v>9.166126251220703</v>
+        <v>9.16612434387207</v>
       </c>
       <c r="G83">
         <v>8500</v>
@@ -2982,13 +3225,16 @@
         <v>-0.04639176841445503</v>
       </c>
       <c r="I83">
-        <v>-0.2106666564941406</v>
+        <v>0.06257922335897199</v>
       </c>
       <c r="J83">
         <v>-0.2106666564941406</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>-0.2106666564941406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>37622</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>14.27000045776367</v>
       </c>
       <c r="F84">
-        <v>8.837876319885254</v>
+        <v>8.837878227233887</v>
       </c>
       <c r="G84">
         <v>1900</v>
@@ -3014,13 +3260,16 @@
         <v>-0.0358107923068125</v>
       </c>
       <c r="I84">
-        <v>-0.1956031205256197</v>
+        <v>0.0623423097449041</v>
       </c>
       <c r="J84">
         <v>-0.1956031205256197</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.1956031205256197</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>37653</v>
       </c>
@@ -3046,13 +3295,16 @@
         <v>-0.04835322438144829</v>
       </c>
       <c r="I85">
-        <v>-0.2383623117322267</v>
+        <v>0.06221611963312826</v>
       </c>
       <c r="J85">
         <v>-0.2383623117322267</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.2383623117322267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>37681</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>13.02000045776367</v>
       </c>
       <c r="F86">
-        <v>8.063712120056152</v>
+        <v>8.063711166381836</v>
       </c>
       <c r="G86">
         <v>6100</v>
@@ -3078,13 +3330,16 @@
         <v>-0.04123707430696033</v>
       </c>
       <c r="I86">
-        <v>-0.3055999755859375</v>
+        <v>0.06202241992593937</v>
       </c>
       <c r="J86">
         <v>-0.3055999755859375</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.3055999755859375</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>37712</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>15.27000045776367</v>
       </c>
       <c r="F87">
-        <v>9.457210540771484</v>
+        <v>9.457212448120117</v>
       </c>
       <c r="G87">
         <v>2400</v>
@@ -3110,13 +3365,16 @@
         <v>0.1728110538320566</v>
       </c>
       <c r="I87">
-        <v>-0.181233202675688</v>
+        <v>0.06438237660905886</v>
       </c>
       <c r="J87">
         <v>-0.181233202675688</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>-0.181233202675688</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>37742</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>16.19000053405762</v>
       </c>
       <c r="F88">
-        <v>10.02699661254883</v>
+        <v>10.02699756622314</v>
       </c>
       <c r="G88">
         <v>73600</v>
@@ -3142,13 +3400,16 @@
         <v>0.06024885715220751</v>
       </c>
       <c r="I88">
-        <v>-0.1295698816121034</v>
+        <v>0.06429134251311955</v>
       </c>
       <c r="J88">
         <v>-0.1295698816121034</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>-0.1295698816121034</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>37773</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>16.5</v>
       </c>
       <c r="F89">
-        <v>10.21899032592773</v>
+        <v>10.21898937225342</v>
       </c>
       <c r="G89">
         <v>25300</v>
@@ -3174,13 +3435,16 @@
         <v>0.01914758837038089</v>
       </c>
       <c r="I89">
-        <v>-0.09836061814774555</v>
+        <v>0.06393586660777396</v>
       </c>
       <c r="J89">
         <v>-0.09836061814774555</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>-0.09836061814774555</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>37803</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>16.82999992370605</v>
       </c>
       <c r="F90">
-        <v>10.42336845397949</v>
+        <v>10.42337131500244</v>
       </c>
       <c r="G90">
         <v>5700</v>
@@ -3206,13 +3470,16 @@
         <v>0.01999999537612451</v>
       </c>
       <c r="I90">
-        <v>0.0788461225742898</v>
+        <v>0.06358848223645892</v>
       </c>
       <c r="J90">
         <v>0.0788461225742898</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0.0788461225742898</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>37834</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>16.8700008392334</v>
       </c>
       <c r="F91">
-        <v>10.44814682006836</v>
+        <v>10.44814300537109</v>
       </c>
       <c r="G91">
         <v>96900</v>
@@ -3238,13 +3505,16 @@
         <v>0.002376762668370613</v>
       </c>
       <c r="I91">
-        <v>0.08979336809439364</v>
+        <v>0.06322667348063581</v>
       </c>
       <c r="J91">
         <v>0.08979336809439364</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.08979336809439364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>37865</v>
       </c>
@@ -3261,7 +3531,7 @@
         <v>17.04999923706055</v>
       </c>
       <c r="F92">
-        <v>10.55962371826172</v>
+        <v>10.55962085723877</v>
       </c>
       <c r="G92">
         <v>80800</v>
@@ -3270,13 +3540,16 @@
         <v>0.0106697325947096</v>
       </c>
       <c r="I92">
-        <v>0.2955926622152203</v>
+        <v>0.0628735368651052</v>
       </c>
       <c r="J92">
         <v>0.2955926622152203</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.2955926622152203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>37895</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>18.04999923706055</v>
       </c>
       <c r="F93">
-        <v>11.17895793914795</v>
+        <v>11.17895412445068</v>
       </c>
       <c r="G93">
         <v>13100</v>
@@ -3302,13 +3575,16 @@
         <v>0.05865102901743025</v>
       </c>
       <c r="I93">
-        <v>0.2312414341700599</v>
+        <v>0.06277723071389643</v>
       </c>
       <c r="J93">
         <v>0.2312414341700599</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.2312414341700599</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>37926</v>
       </c>
@@ -3325,7 +3601,7 @@
         <v>19.04999923706055</v>
       </c>
       <c r="F94">
-        <v>11.79828643798828</v>
+        <v>11.7982873916626</v>
       </c>
       <c r="G94">
         <v>2700</v>
@@ -3334,13 +3610,16 @@
         <v>0.05540166439158534</v>
       </c>
       <c r="I94">
-        <v>0.2274483682460873</v>
+        <v>0.06264835841586498</v>
       </c>
       <c r="J94">
         <v>0.2274483682460873</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.2274483682460873</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>37956</v>
       </c>
@@ -3357,7 +3636,7 @@
         <v>20.38999938964844</v>
       </c>
       <c r="F95">
-        <v>12.92857456207275</v>
+        <v>12.9285774230957</v>
       </c>
       <c r="G95">
         <v>1500</v>
@@ -3366,13 +3645,16 @@
         <v>0.07034121817606209</v>
       </c>
       <c r="I95">
-        <v>0.3777026437076021</v>
+        <v>0.06266344536719662</v>
       </c>
       <c r="J95">
         <v>0.3777026437076021</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.3777026437076021</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>37987</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>20.70999908447266</v>
       </c>
       <c r="F96">
-        <v>13.13147449493408</v>
+        <v>13.13147354125977</v>
       </c>
       <c r="G96">
         <v>4700</v>
@@ -3398,13 +3680,16 @@
         <v>0.01569395313403854</v>
       </c>
       <c r="I96">
-        <v>0.4512963153554257</v>
+        <v>0.06233259183548644</v>
       </c>
       <c r="J96">
         <v>0.4512963153554257</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.4512963153554257</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>38018</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>21.20999908447266</v>
       </c>
       <c r="F97">
-        <v>13.44850635528564</v>
+        <v>13.44851016998291</v>
       </c>
       <c r="G97">
         <v>15800</v>
@@ -3430,13 +3715,16 @@
         <v>0.02414292718993294</v>
       </c>
       <c r="I97">
-        <v>0.5618556114604405</v>
+        <v>0.0620257916530077</v>
       </c>
       <c r="J97">
         <v>0.5618556114604405</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.5618556114604405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>38047</v>
       </c>
@@ -3453,7 +3741,7 @@
         <v>20.39999961853027</v>
       </c>
       <c r="F98">
-        <v>12.93491554260254</v>
+        <v>12.93491458892822</v>
       </c>
       <c r="G98">
         <v>3200</v>
@@ -3462,13 +3750,16 @@
         <v>-0.03818950970796431</v>
       </c>
       <c r="I98">
-        <v>0.5668201921118978</v>
+        <v>0.06187019478669351</v>
       </c>
       <c r="J98">
         <v>0.5668201921118978</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.5668201921118978</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>38078</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>19.92000007629395</v>
       </c>
       <c r="F99">
-        <v>12.63056564331055</v>
+        <v>12.6305627822876</v>
       </c>
       <c r="G99">
         <v>121000</v>
@@ -3494,13 +3785,16 @@
         <v>-0.02352938976529795</v>
       </c>
       <c r="I99">
-        <v>0.304518629936654</v>
+        <v>0.06162245631306882</v>
       </c>
       <c r="J99">
         <v>0.304518629936654</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0.304518629936654</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>38108</v>
       </c>
@@ -3517,7 +3811,7 @@
         <v>20.64999961853027</v>
       </c>
       <c r="F100">
-        <v>13.09342861175537</v>
+        <v>13.09343147277832</v>
       </c>
       <c r="G100">
         <v>68700</v>
@@ -3526,13 +3820,16 @@
         <v>0.03664656322492044</v>
       </c>
       <c r="I100">
-        <v>0.275478624913601</v>
+        <v>0.06138127271052268</v>
       </c>
       <c r="J100">
         <v>0.275478624913601</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0.275478624913601</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>38139</v>
       </c>
@@ -3549,7 +3846,7 @@
         <v>21.17000007629395</v>
       </c>
       <c r="F101">
-        <v>13.42314338684082</v>
+        <v>13.42314529418945</v>
       </c>
       <c r="G101">
         <v>9300</v>
@@ -3558,13 +3855,16 @@
         <v>0.02518162069586904</v>
       </c>
       <c r="I101">
-        <v>0.2830303076541785</v>
+        <v>0.06109623280247108</v>
       </c>
       <c r="J101">
         <v>0.2830303076541785</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0.2830303076541785</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>38169</v>
       </c>
@@ -3581,7 +3881,7 @@
         <v>20.43000030517578</v>
       </c>
       <c r="F102">
-        <v>12.95393943786621</v>
+        <v>12.95393753051758</v>
       </c>
       <c r="G102">
         <v>10600</v>
@@ -3590,13 +3890,16 @@
         <v>-0.03495511423955122</v>
       </c>
       <c r="I102">
-        <v>0.2139037669512351</v>
+        <v>0.06092919654539946</v>
       </c>
       <c r="J102">
         <v>0.2139037669512351</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0.2139037669512351</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>38200</v>
       </c>
@@ -3613,7 +3916,7 @@
         <v>20.48999977111816</v>
       </c>
       <c r="F103">
-        <v>12.99198246002197</v>
+        <v>12.99197769165039</v>
       </c>
       <c r="G103">
         <v>5800</v>
@@ -3622,13 +3925,16 @@
         <v>0.0029368313776863</v>
       </c>
       <c r="I103">
-        <v>0.2145820244102172</v>
+        <v>0.06062468053920732</v>
       </c>
       <c r="J103">
         <v>0.2145820244102172</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0.2145820244102172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>38231</v>
       </c>
@@ -3645,7 +3951,7 @@
         <v>21.13999938964844</v>
       </c>
       <c r="F104">
-        <v>13.40411949157715</v>
+        <v>13.40412521362305</v>
       </c>
       <c r="G104">
         <v>28100</v>
@@ -3654,13 +3960,16 @@
         <v>0.03172277334265683</v>
       </c>
       <c r="I104">
-        <v>0.2398827176307261</v>
+        <v>0.06037665879308932</v>
       </c>
       <c r="J104">
         <v>0.2398827176307261</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0.2398827176307261</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>38261</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>22.19000053405762</v>
       </c>
       <c r="F105">
-        <v>14.06989288330078</v>
+        <v>14.06989097595215</v>
       </c>
       <c r="G105">
         <v>2000</v>
@@ -3686,13 +3995,16 @@
         <v>0.04966892974099757</v>
       </c>
       <c r="I105">
-        <v>0.2293629624369597</v>
+        <v>0.06023059006260735</v>
       </c>
       <c r="J105">
         <v>0.2293629624369597</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0.2293629624369597</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>38292</v>
       </c>
@@ -3718,13 +4030,16 @@
         <v>0.05317711927787894</v>
       </c>
       <c r="I106">
-        <v>0.2267717467289221</v>
+        <v>0.06010914044553421</v>
       </c>
       <c r="J106">
         <v>0.2267717467289221</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0.2267717467289221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>38322</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>23.8799991607666</v>
       </c>
       <c r="F107">
-        <v>15.33492374420166</v>
+        <v>15.33492279052734</v>
       </c>
       <c r="G107">
         <v>14000</v>
@@ -3750,13 +4065,16 @@
         <v>0.02182277720234493</v>
       </c>
       <c r="I107">
-        <v>0.1711623283760353</v>
+        <v>0.0598361738001155</v>
       </c>
       <c r="J107">
         <v>0.1711623283760353</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0.1711623283760353</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>38353</v>
       </c>
@@ -3773,7 +4091,7 @@
         <v>23.51000022888184</v>
       </c>
       <c r="F108">
-        <v>15.09732532501221</v>
+        <v>15.09732818603516</v>
       </c>
       <c r="G108">
         <v>16700</v>
@@ -3782,13 +4100,16 @@
         <v>-0.01549409316951111</v>
       </c>
       <c r="I108">
-        <v>0.1352004475223991</v>
+        <v>0.05959230769779478</v>
       </c>
       <c r="J108">
         <v>0.1352004475223991</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.1352004475223991</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>38384</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>24.69000053405762</v>
       </c>
       <c r="F109">
-        <v>15.85507678985596</v>
+        <v>15.85507965087891</v>
       </c>
       <c r="G109">
         <v>52800</v>
@@ -3814,13 +4135,16 @@
         <v>0.05019142040356761</v>
       </c>
       <c r="I109">
-        <v>0.1640736256387954</v>
+        <v>0.05945563863620392</v>
       </c>
       <c r="J109">
         <v>0.1640736256387954</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.1640736256387954</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>38412</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>24.18000030517578</v>
       </c>
       <c r="F110">
-        <v>15.52757835388184</v>
+        <v>15.5275764465332</v>
       </c>
       <c r="G110">
         <v>28000</v>
@@ -3846,13 +4170,16 @@
         <v>-0.02065614491090584</v>
       </c>
       <c r="I110">
-        <v>0.1852941547710598</v>
+        <v>0.05923981915621877</v>
       </c>
       <c r="J110">
         <v>0.1852941547710598</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.1852941547710598</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>38443</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>23.3700008392334</v>
       </c>
       <c r="F111">
-        <v>15.00741958618164</v>
+        <v>15.00742530822754</v>
       </c>
       <c r="G111">
         <v>39400</v>
@@ -3878,13 +4205,16 @@
         <v>-0.03349873679567328</v>
       </c>
       <c r="I111">
-        <v>0.1731928087211791</v>
+        <v>0.05909484814481687</v>
       </c>
       <c r="J111">
         <v>0.1731928087211791</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.1731928087211791</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>38473</v>
       </c>
@@ -3901,7 +4231,7 @@
         <v>23.81999969482422</v>
       </c>
       <c r="F112">
-        <v>15.29639434814453</v>
+        <v>15.29640197753906</v>
       </c>
       <c r="G112">
         <v>54600</v>
@@ -3910,13 +4240,16 @@
         <v>0.01925540605182041</v>
       </c>
       <c r="I112">
-        <v>0.1535109024142232</v>
+        <v>0.05883472173055363</v>
       </c>
       <c r="J112">
         <v>0.1535109024142232</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.1535109024142232</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>38504</v>
       </c>
@@ -3933,7 +4266,7 @@
         <v>24.04000091552734</v>
       </c>
       <c r="F113">
-        <v>15.43767070770264</v>
+        <v>15.4376745223999</v>
       </c>
       <c r="G113">
         <v>9200</v>
@@ -3942,13 +4275,16 @@
         <v>0.009235987553388947</v>
       </c>
       <c r="I113">
-        <v>0.1355692408545246</v>
+        <v>0.05856702275171889</v>
       </c>
       <c r="J113">
         <v>0.1355692408545246</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.1355692408545246</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>38534</v>
       </c>
@@ -3965,7 +4301,7 @@
         <v>25.22999954223633</v>
       </c>
       <c r="F114">
-        <v>16.20184898376465</v>
+        <v>16.20185089111328</v>
       </c>
       <c r="G114">
         <v>3600</v>
@@ -3974,13 +4310,16 @@
         <v>0.04950077293634259</v>
       </c>
       <c r="I114">
-        <v>0.2349485641390081</v>
+        <v>0.05843981282708329</v>
       </c>
       <c r="J114">
         <v>0.2349485641390081</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.2349485641390081</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>38565</v>
       </c>
@@ -3997,7 +4336,7 @@
         <v>25.56999969482422</v>
       </c>
       <c r="F115">
-        <v>16.42019081115723</v>
+        <v>16.42018699645996</v>
       </c>
       <c r="G115">
         <v>19800</v>
@@ -4006,13 +4345,16 @@
         <v>0.01347602690276362</v>
       </c>
       <c r="I115">
-        <v>0.2479258165178999</v>
+        <v>0.05818103017385527</v>
       </c>
       <c r="J115">
         <v>0.2479258165178999</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.2479258165178999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>38596</v>
       </c>
@@ -4029,7 +4371,7 @@
         <v>25.95999908447266</v>
       </c>
       <c r="F116">
-        <v>16.67062759399414</v>
+        <v>16.67063140869141</v>
       </c>
       <c r="G116">
         <v>21500</v>
@@ -4038,13 +4380,16 @@
         <v>0.01525222504118284</v>
       </c>
       <c r="I116">
-        <v>0.2280037764421325</v>
+        <v>0.05792748074559813</v>
       </c>
       <c r="J116">
         <v>0.2280037764421325</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.2280037764421325</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>38626</v>
       </c>
@@ -4061,7 +4406,7 @@
         <v>24.95000076293945</v>
       </c>
       <c r="F117">
-        <v>16.02204704284668</v>
+        <v>16.02204322814941</v>
       </c>
       <c r="G117">
         <v>605300</v>
@@ -4070,13 +4415,16 @@
         <v>-0.03890594596119645</v>
       </c>
       <c r="I117">
-        <v>0.1243803588308048</v>
+        <v>0.05783597999724153</v>
       </c>
       <c r="J117">
         <v>0.1243803588308048</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.1243803588308048</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>38657</v>
       </c>
@@ -4093,7 +4441,7 @@
         <v>25.29999923706055</v>
       </c>
       <c r="F118">
-        <v>16.24680709838867</v>
+        <v>16.24679756164551</v>
       </c>
       <c r="G118">
         <v>423900</v>
@@ -4102,13 +4450,16 @@
         <v>0.01402799452579484</v>
       </c>
       <c r="I118">
-        <v>0.08258443853314201</v>
+        <v>0.05758741986827943</v>
       </c>
       <c r="J118">
         <v>0.08258443853314201</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.08258443853314201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>38687</v>
       </c>
@@ -4125,7 +4476,7 @@
         <v>25.97999954223633</v>
       </c>
       <c r="F119">
-        <v>16.8882999420166</v>
+        <v>16.88829803466797</v>
       </c>
       <c r="G119">
         <v>17300</v>
@@ -4134,13 +4485,16 @@
         <v>0.02687748322852457</v>
       </c>
       <c r="I119">
-        <v>0.08793971755744034</v>
+        <v>0.05736722649740314</v>
       </c>
       <c r="J119">
         <v>0.08793971755744034</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.08793971755744034</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>38718</v>
       </c>
@@ -4157,7 +4511,7 @@
         <v>28.04999923706055</v>
       </c>
       <c r="F120">
-        <v>18.23389434814453</v>
+        <v>18.23390007019043</v>
       </c>
       <c r="G120">
         <v>26900</v>
@@ -4166,13 +4520,16 @@
         <v>0.07967666402222107</v>
       </c>
       <c r="I120">
-        <v>0.1931092711178013</v>
+        <v>0.05750705401954078</v>
       </c>
       <c r="J120">
         <v>0.1931092711178013</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.1931092711178013</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>38749</v>
       </c>
@@ -4189,7 +4546,7 @@
         <v>27.6299991607666</v>
       </c>
       <c r="F121">
-        <v>17.96088218688965</v>
+        <v>17.96087455749512</v>
       </c>
       <c r="G121">
         <v>49400</v>
@@ -4198,13 +4555,16 @@
         <v>-0.01497326515927411</v>
       </c>
       <c r="I121">
-        <v>0.1190764910131745</v>
+        <v>0.0573018338927538</v>
       </c>
       <c r="J121">
         <v>0.1190764910131745</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0.1190764910131745</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>38777</v>
       </c>
@@ -4221,7 +4581,7 @@
         <v>29.20999908447266</v>
       </c>
       <c r="F122">
-        <v>18.98795890808105</v>
+        <v>18.98796081542969</v>
       </c>
       <c r="G122">
         <v>30900</v>
@@ -4230,13 +4590,16 @@
         <v>0.05718421902631055</v>
       </c>
       <c r="I122">
-        <v>0.2080231065266029</v>
+        <v>0.05723777186338234</v>
       </c>
       <c r="J122">
         <v>0.2080231065266029</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0.2080231065266029</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>38808</v>
       </c>
@@ -4253,7 +4616,7 @@
         <v>30.29999923706055</v>
       </c>
       <c r="F123">
-        <v>19.69651222229004</v>
+        <v>19.69651031494141</v>
       </c>
       <c r="G123">
         <v>53300</v>
@@ -4262,13 +4625,16 @@
         <v>0.03731599406887032</v>
       </c>
       <c r="I123">
-        <v>0.2965339387661945</v>
+        <v>0.05729666777015722</v>
       </c>
       <c r="J123">
         <v>0.2965339387661945</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0.2965339387661945</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>38838</v>
       </c>
@@ -4285,7 +4651,7 @@
         <v>29.68000030517578</v>
       </c>
       <c r="F124">
-        <v>19.29348564147949</v>
+        <v>19.29348754882812</v>
       </c>
       <c r="G124">
         <v>46600</v>
@@ -4294,13 +4660,16 @@
         <v>-0.02046201146851623</v>
       </c>
       <c r="I124">
-        <v>0.2460117836032074</v>
+        <v>0.05733471443461422</v>
       </c>
       <c r="J124">
         <v>0.2460117836032074</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0.2460117836032074</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>38869</v>
       </c>
@@ -4326,13 +4695,16 @@
         <v>0.009097050370197923</v>
       </c>
       <c r="I125">
-        <v>0.2458402505132544</v>
+        <v>0.05730547411273453</v>
       </c>
       <c r="J125">
         <v>0.2458402505132544</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0.2458402505132544</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>38899</v>
       </c>
@@ -4349,7 +4721,7 @@
         <v>30.20000076293945</v>
       </c>
       <c r="F126">
-        <v>19.63151168823242</v>
+        <v>19.63150596618652</v>
       </c>
       <c r="G126">
         <v>17800</v>
@@ -4358,13 +4730,16 @@
         <v>0.008347245196379305</v>
       </c>
       <c r="I126">
-        <v>0.1969877649971052</v>
+        <v>0.05726969260981047</v>
       </c>
       <c r="J126">
         <v>0.1969877649971052</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0.1969877649971052</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>38930</v>
       </c>
@@ -4381,7 +4756,7 @@
         <v>31.29000091552734</v>
       </c>
       <c r="F127">
-        <v>20.34006309509277</v>
+        <v>20.34006881713867</v>
       </c>
       <c r="G127">
         <v>142500</v>
@@ -4390,13 +4765,16 @@
         <v>0.03609271937256064</v>
       </c>
       <c r="I127">
-        <v>0.223699698434527</v>
+        <v>0.05701746878696344</v>
       </c>
       <c r="J127">
         <v>0.223699698434527</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0.223699698434527</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>38961</v>
       </c>
@@ -4413,7 +4791,7 @@
         <v>31.52000045776367</v>
       </c>
       <c r="F128">
-        <v>20.48957824707031</v>
+        <v>20.48957443237305</v>
       </c>
       <c r="G128">
         <v>33700</v>
@@ -4422,13 +4800,16 @@
         <v>0.007350576398423625</v>
       </c>
       <c r="I128">
-        <v>0.2141757153071933</v>
+        <v>0.05686692582956149</v>
       </c>
       <c r="J128">
         <v>0.2141757153071933</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.2141757153071933</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>38991</v>
       </c>
@@ -4454,13 +4835,16 @@
         <v>0.02125628677712421</v>
       </c>
       <c r="I129">
-        <v>0.2901802662276376</v>
+        <v>0.05686271207183875</v>
       </c>
       <c r="J129">
         <v>0.2901802662276376</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.2901802662276376</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>39022</v>
       </c>
@@ -4477,7 +4861,7 @@
         <v>33.65000152587891</v>
       </c>
       <c r="F130">
-        <v>21.87417793273926</v>
+        <v>21.87417984008789</v>
       </c>
       <c r="G130">
         <v>267100</v>
@@ -4486,13 +4870,16 @@
         <v>0.04535579252738819</v>
       </c>
       <c r="I130">
-        <v>0.3300396261114076</v>
+        <v>0.05686104920320342</v>
       </c>
       <c r="J130">
         <v>0.3300396261114076</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.3300396261114076</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>39052</v>
       </c>
@@ -4509,7 +4896,7 @@
         <v>34.22999954223633</v>
       </c>
       <c r="F131">
-        <v>22.55544662475586</v>
+        <v>22.55544090270996</v>
       </c>
       <c r="G131">
         <v>34000</v>
@@ -4518,13 +4905,16 @@
         <v>0.0172361958412206</v>
       </c>
       <c r="I131">
-        <v>0.3175519686437165</v>
+        <v>0.05686075625759043</v>
       </c>
       <c r="J131">
         <v>0.3175519686437165</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.3175519686437165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>39083</v>
       </c>
@@ -4541,7 +4931,7 @@
         <v>34.34999847412109</v>
       </c>
       <c r="F132">
-        <v>22.6345157623291</v>
+        <v>22.63451766967773</v>
       </c>
       <c r="G132">
         <v>154300</v>
@@ -4550,13 +4940,16 @@
         <v>0.003505665600044727</v>
       </c>
       <c r="I132">
-        <v>0.2245989093909417</v>
+        <v>0.0568615069734049</v>
       </c>
       <c r="J132">
         <v>0.2245989093909417</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.2245989093909417</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>39114</v>
       </c>
@@ -4573,7 +4966,7 @@
         <v>34.09000015258789</v>
       </c>
       <c r="F133">
-        <v>22.46319580078125</v>
+        <v>22.46319389343262</v>
       </c>
       <c r="G133">
         <v>245500</v>
@@ -4582,13 +4975,16 @@
         <v>-0.007569092666163679</v>
       </c>
       <c r="I133">
-        <v>0.2338038794077928</v>
+        <v>0.05688088476825934</v>
       </c>
       <c r="J133">
         <v>0.2338038794077928</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.2338038794077928</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>39142</v>
       </c>
@@ -4605,7 +5001,7 @@
         <v>35.18000030517578</v>
       </c>
       <c r="F134">
-        <v>23.18143081665039</v>
+        <v>23.18143463134766</v>
       </c>
       <c r="G134">
         <v>336000</v>
@@ -4614,13 +5010,16 @@
         <v>0.03197419031120607</v>
       </c>
       <c r="I134">
-        <v>0.2043821091345612</v>
+        <v>0.05692102308263856</v>
       </c>
       <c r="J134">
         <v>0.2043821091345612</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.2043821091345612</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>39173</v>
       </c>
@@ -4637,7 +5036,7 @@
         <v>37.84999847412109</v>
       </c>
       <c r="F135">
-        <v>24.9408016204834</v>
+        <v>24.94080543518066</v>
       </c>
       <c r="G135">
         <v>122800</v>
@@ -4646,13 +5045,16 @@
         <v>0.07589534240431761</v>
       </c>
       <c r="I135">
-        <v>0.2491748985863336</v>
+        <v>0.05705741731901199</v>
       </c>
       <c r="J135">
         <v>0.2491748985863336</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.2491748985863336</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>39203</v>
       </c>
@@ -4669,7 +5071,7 @@
         <v>38.91999816894531</v>
       </c>
       <c r="F136">
-        <v>25.6458625793457</v>
+        <v>25.64585876464844</v>
       </c>
       <c r="G136">
         <v>305500</v>
@@ -4678,13 +5080,16 @@
         <v>0.0282694778853374</v>
       </c>
       <c r="I136">
-        <v>0.3113206795404986</v>
+        <v>0.05708175848488591</v>
       </c>
       <c r="J136">
         <v>0.3113206795404986</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.3113206795404986</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>39234</v>
       </c>
@@ -4701,7 +5106,7 @@
         <v>38.40000152587891</v>
       </c>
       <c r="F137">
-        <v>25.30322074890137</v>
+        <v>25.30321884155273</v>
       </c>
       <c r="G137">
         <v>164900</v>
@@ -4710,13 +5115,16 @@
         <v>-0.01336065435587086</v>
       </c>
       <c r="I137">
-        <v>0.282136913111388</v>
+        <v>0.05678134389759321</v>
       </c>
       <c r="J137">
         <v>0.282136913111388</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.282136913111388</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>39264</v>
       </c>
@@ -4742,13 +5150,16 @@
         <v>-0.0398438159686797</v>
       </c>
       <c r="I138">
-        <v>0.220860860941783</v>
+        <v>0.05692953979081729</v>
       </c>
       <c r="J138">
         <v>0.220860860941783</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.220860860941783</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>39295</v>
       </c>
@@ -4774,13 +5185,16 @@
         <v>-0.007051758314762457</v>
       </c>
       <c r="I139">
-        <v>0.1700223566367562</v>
+        <v>0.05605333405033899</v>
       </c>
       <c r="J139">
         <v>0.1700223566367562</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0.1700223566367562</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>39326</v>
       </c>
@@ -4797,7 +5211,7 @@
         <v>38.45999908447266</v>
       </c>
       <c r="F140">
-        <v>25.34275054931641</v>
+        <v>25.34275245666504</v>
       </c>
       <c r="G140">
         <v>410800</v>
@@ -4806,13 +5220,16 @@
         <v>0.05053259883306316</v>
       </c>
       <c r="I140">
-        <v>0.2201776182081114</v>
+        <v>0.05544902356362943</v>
       </c>
       <c r="J140">
         <v>0.2201776182081114</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0.2201776182081114</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>39356</v>
       </c>
@@ -4838,13 +5255,16 @@
         <v>0.03718149607947097</v>
       </c>
       <c r="I141">
-        <v>0.2392047558694375</v>
+        <v>0.05516101811426333</v>
       </c>
       <c r="J141">
         <v>0.2392047558694375</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0.2392047558694375</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>39387</v>
       </c>
@@ -4861,7 +5281,7 @@
         <v>39.0099983215332</v>
       </c>
       <c r="F142">
-        <v>25.70516967773438</v>
+        <v>25.70516395568848</v>
       </c>
       <c r="G142">
         <v>252600</v>
@@ -4870,13 +5290,16 @@
         <v>-0.02206069394785692</v>
       </c>
       <c r="I142">
-        <v>0.1592866731828269</v>
+        <v>0.05523478481631355</v>
       </c>
       <c r="J142">
         <v>0.1592866731828269</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0.1592866731828269</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>39417</v>
       </c>
@@ -4893,7 +5316,7 @@
         <v>38.02999877929688</v>
       </c>
       <c r="F143">
-        <v>25.29436492919922</v>
+        <v>25.29435729980469</v>
       </c>
       <c r="G143">
         <v>208800</v>
@@ -4902,13 +5325,16 @@
         <v>-0.02512175299672792</v>
       </c>
       <c r="I143">
-        <v>0.1110137098416182</v>
+        <v>0.05524621894533702</v>
       </c>
       <c r="J143">
         <v>0.1110137098416182</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>0.1110137098416182</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>39448</v>
       </c>
@@ -4925,7 +5351,7 @@
         <v>34</v>
       </c>
       <c r="F144">
-        <v>22.61393928527832</v>
+        <v>22.61394119262695</v>
       </c>
       <c r="G144">
         <v>247400</v>
@@ -4934,13 +5360,16 @@
         <v>-0.1059689431673283</v>
       </c>
       <c r="I144">
-        <v>-0.01018918456094775</v>
+        <v>0.05622162240401722</v>
       </c>
       <c r="J144">
         <v>-0.01018918456094775</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>-0.01018918456094775</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>39479</v>
       </c>
@@ -4957,7 +5386,7 @@
         <v>33.93000030517578</v>
       </c>
       <c r="F145">
-        <v>22.56738471984863</v>
+        <v>22.56737899780273</v>
       </c>
       <c r="G145">
         <v>294400</v>
@@ -4966,13 +5395,16 @@
         <v>-0.002058814553653532</v>
       </c>
       <c r="I145">
-        <v>-0.004693453995187613</v>
+        <v>0.05557291789210139</v>
       </c>
       <c r="J145">
         <v>-0.004693453995187613</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>-0.004693453995187613</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>39508</v>
       </c>
@@ -4989,7 +5421,7 @@
         <v>34.93999862670898</v>
       </c>
       <c r="F146">
-        <v>23.23914909362793</v>
+        <v>23.2391471862793</v>
       </c>
       <c r="G146">
         <v>256300</v>
@@ -4998,13 +5430,16 @@
         <v>0.02976711796195097</v>
       </c>
       <c r="I146">
-        <v>-0.006822105639137432</v>
+        <v>0.05492066906242506</v>
       </c>
       <c r="J146">
         <v>-0.006822105639137432</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>-0.006822105639137432</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>39539</v>
       </c>
@@ -5021,7 +5456,7 @@
         <v>36.45999908447266</v>
       </c>
       <c r="F147">
-        <v>24.2501220703125</v>
+        <v>24.2501277923584</v>
       </c>
       <c r="G147">
         <v>128200</v>
@@ -5030,13 +5465,16 @@
         <v>0.04350316306543145</v>
       </c>
       <c r="I147">
-        <v>-0.03672389552667521</v>
+        <v>0.05496276350288759</v>
       </c>
       <c r="J147">
         <v>-0.03672389552667521</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>-0.03672389552667521</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>39569</v>
       </c>
@@ -5053,7 +5491,7 @@
         <v>37.5</v>
       </c>
       <c r="F148">
-        <v>24.94185066223145</v>
+        <v>24.94184303283691</v>
       </c>
       <c r="G148">
         <v>139200</v>
@@ -5062,13 +5500,16 @@
         <v>0.02852443613939237</v>
       </c>
       <c r="I148">
-        <v>-0.03648505230604926</v>
+        <v>0.05483755827699947</v>
       </c>
       <c r="J148">
         <v>-0.03648505230604926</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>-0.03648505230604926</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>39600</v>
       </c>
@@ -5094,13 +5535,16 @@
         <v>-0.1407999674479167</v>
       </c>
       <c r="I149">
-        <v>-0.1609375015522042</v>
+        <v>0.05638812073725828</v>
       </c>
       <c r="J149">
         <v>-0.1609375015522042</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>-0.1609375015522042</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>39630</v>
       </c>
@@ -5126,13 +5570,16 @@
         <v>-0.02017385168381824</v>
       </c>
       <c r="I150">
-        <v>-0.1437482883265604</v>
+        <v>0.05642126845733739</v>
       </c>
       <c r="J150">
         <v>-0.1437482883265604</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>-0.1437482883265604</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>39661</v>
       </c>
@@ -5149,7 +5596,7 @@
         <v>30.51000022888184</v>
       </c>
       <c r="F151">
-        <v>21.06990051269531</v>
+        <v>21.06990432739258</v>
       </c>
       <c r="G151">
         <v>51300</v>
@@ -5158,13 +5605,16 @@
         <v>-0.03357616332559443</v>
       </c>
       <c r="I151">
-        <v>-0.1666211494065077</v>
+        <v>0.05446706463411531</v>
       </c>
       <c r="J151">
         <v>-0.1666211494065077</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>-0.1666211494065077</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>39692</v>
       </c>
@@ -5181,7 +5631,7 @@
         <v>26.75</v>
       </c>
       <c r="F152">
-        <v>18.4732837677002</v>
+        <v>18.47328186035156</v>
       </c>
       <c r="G152">
         <v>151900</v>
@@ -5190,13 +5640,16 @@
         <v>-0.1232382891076641</v>
       </c>
       <c r="I152">
-        <v>-0.3044721623303496</v>
+        <v>0.0556111032277452</v>
       </c>
       <c r="J152">
         <v>-0.3044721623303496</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>-0.3044721623303496</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>39722</v>
       </c>
@@ -5213,7 +5666,7 @@
         <v>20.5</v>
       </c>
       <c r="F153">
-        <v>14.15709590911865</v>
+        <v>14.15709495544434</v>
       </c>
       <c r="G153">
         <v>195100</v>
@@ -5222,13 +5675,16 @@
         <v>-0.2336448598130841</v>
       </c>
       <c r="I153">
-        <v>-0.4860867306676419</v>
+        <v>0.05869127821037894</v>
       </c>
       <c r="J153">
         <v>-0.4860867306676419</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>-0.4860867306676419</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>39753</v>
       </c>
@@ -5254,13 +5710,16 @@
         <v>-0.05609754236733044</v>
       </c>
       <c r="I154">
-        <v>-0.5039733090480887</v>
+        <v>0.05885236579151133</v>
       </c>
       <c r="J154">
         <v>-0.5039733090480887</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>-0.5039733090480887</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>39783</v>
       </c>
@@ -5286,13 +5745,16 @@
         <v>0.08165374121744828</v>
       </c>
       <c r="I155">
-        <v>-0.4496449914016339</v>
+        <v>0.05915318219837921</v>
       </c>
       <c r="J155">
         <v>-0.4496449914016339</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>-0.4496449914016339</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>39814</v>
       </c>
@@ -5309,7 +5771,7 @@
         <v>17.44000053405762</v>
       </c>
       <c r="F156">
-        <v>12.31303024291992</v>
+        <v>12.31303310394287</v>
       </c>
       <c r="G156">
         <v>229800</v>
@@ -5318,13 +5780,16 @@
         <v>-0.1667462838142014</v>
       </c>
       <c r="I156">
-        <v>-0.4870588078218347</v>
+        <v>0.06096783625234263</v>
       </c>
       <c r="J156">
         <v>-0.4870588078218347</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>-0.4870588078218347</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>39845</v>
       </c>
@@ -5341,7 +5806,7 @@
         <v>15.72999954223633</v>
       </c>
       <c r="F157">
-        <v>11.10573101043701</v>
+        <v>11.10573291778564</v>
       </c>
       <c r="G157">
         <v>53900</v>
@@ -5350,13 +5815,16 @@
         <v>-0.09805051258352437</v>
       </c>
       <c r="I157">
-        <v>-0.5363984850941239</v>
+        <v>0.06121662963518022</v>
       </c>
       <c r="J157">
         <v>-0.5363984850941239</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>-0.5363984850941239</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>39873</v>
       </c>
@@ -5373,7 +5841,7 @@
         <v>17.20000076293945</v>
       </c>
       <c r="F158">
-        <v>12.14358329772949</v>
+        <v>12.14358615875244</v>
       </c>
       <c r="G158">
         <v>75300</v>
@@ -5382,13 +5850,16 @@
         <v>0.0934520828659946</v>
       </c>
       <c r="I158">
-        <v>-0.5077274917294543</v>
+        <v>0.06180426375706997</v>
       </c>
       <c r="J158">
         <v>-0.5077274917294543</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>-0.5077274917294543</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>39904</v>
       </c>
@@ -5405,7 +5876,7 @@
         <v>19.14999961853027</v>
       </c>
       <c r="F159">
-        <v>13.52032947540283</v>
+        <v>13.52032661437988</v>
       </c>
       <c r="G159">
         <v>83400</v>
@@ -5414,13 +5885,16 @@
         <v>0.1133720214590019</v>
       </c>
       <c r="I159">
-        <v>-0.4747668650741752</v>
+        <v>0.06261718441959613</v>
       </c>
       <c r="J159">
         <v>-0.4747668650741752</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>-0.4747668650741752</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>39934</v>
       </c>
@@ -5437,7 +5911,7 @@
         <v>21.94000053405762</v>
       </c>
       <c r="F160">
-        <v>15.49013137817383</v>
+        <v>15.49013423919678</v>
       </c>
       <c r="G160">
         <v>264800</v>
@@ -5446,13 +5920,16 @@
         <v>0.1456919567156352</v>
       </c>
       <c r="I160">
-        <v>-0.4149333190917969</v>
+        <v>0.06397730651127061</v>
       </c>
       <c r="J160">
         <v>-0.4149333190917969</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>-0.4149333190917969</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>39965</v>
       </c>
@@ -5469,7 +5946,7 @@
         <v>20.46999931335449</v>
       </c>
       <c r="F161">
-        <v>14.81930541992188</v>
+        <v>14.81930923461914</v>
       </c>
       <c r="G161">
         <v>91800</v>
@@ -5478,13 +5955,16 @@
         <v>-0.06700096558435498</v>
       </c>
       <c r="I161">
-        <v>-0.3646803681620785</v>
+        <v>0.06411863956959572</v>
       </c>
       <c r="J161">
         <v>-0.3646803681620785</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>-0.3646803681620785</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>39995</v>
       </c>
@@ -5501,7 +5981,7 @@
         <v>22.61000061035156</v>
       </c>
       <c r="F162">
-        <v>16.36856842041016</v>
+        <v>16.36856460571289</v>
       </c>
       <c r="G162">
         <v>99800</v>
@@ -5510,13 +5990,16 @@
         <v>0.1045433008686496</v>
       </c>
       <c r="I162">
-        <v>-0.2838137209719902</v>
+        <v>0.06480347270252736</v>
       </c>
       <c r="J162">
         <v>-0.2838137209719902</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>-0.2838137209719902</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>40026</v>
       </c>
@@ -5533,7 +6016,7 @@
         <v>24.36000061035156</v>
       </c>
       <c r="F163">
-        <v>17.63548851013184</v>
+        <v>17.6354866027832</v>
       </c>
       <c r="G163">
         <v>166200</v>
@@ -5542,13 +6025,16 @@
         <v>0.07739937871557578</v>
       </c>
       <c r="I163">
-        <v>-0.2015732406553202</v>
+        <v>0.06513342787023473</v>
       </c>
       <c r="J163">
         <v>-0.2015732406553202</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>-0.2015732406553202</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>40057</v>
       </c>
@@ -5565,7 +6051,7 @@
         <v>25.96999931335449</v>
       </c>
       <c r="F164">
-        <v>18.80104446411133</v>
+        <v>18.80104827880859</v>
       </c>
       <c r="G164">
         <v>203200</v>
@@ -5574,13 +6060,16 @@
         <v>0.06609189912412305</v>
       </c>
       <c r="I164">
-        <v>-0.02915890417366385</v>
+        <v>0.06538989210435371</v>
       </c>
       <c r="J164">
         <v>-0.02915890417366385</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>-0.02915890417366385</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>40087</v>
       </c>
@@ -5597,7 +6086,7 @@
         <v>24.5</v>
       </c>
       <c r="F165">
-        <v>17.73683738708496</v>
+        <v>17.73683929443359</v>
       </c>
       <c r="G165">
         <v>330300</v>
@@ -5606,13 +6095,16 @@
         <v>-0.05660374864155571</v>
       </c>
       <c r="I165">
-        <v>0.1951219512195121</v>
+        <v>0.06549560605543739</v>
       </c>
       <c r="J165">
         <v>0.1951219512195121</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0.1951219512195121</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>40118</v>
       </c>
@@ -5629,7 +6121,7 @@
         <v>25.86000061035156</v>
       </c>
       <c r="F166">
-        <v>18.72141265869141</v>
+        <v>18.72141075134277</v>
       </c>
       <c r="G166">
         <v>1474100</v>
@@ -5638,13 +6130,16 @@
         <v>0.05551022899394131</v>
       </c>
       <c r="I166">
-        <v>0.3364341137231217</v>
+        <v>0.06560287070289958</v>
       </c>
       <c r="J166">
         <v>0.3364341137231217</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0.3364341137231217</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>40148</v>
       </c>
@@ -5661,7 +6156,7 @@
         <v>25.85000038146973</v>
       </c>
       <c r="F167">
-        <v>18.8023567199707</v>
+        <v>18.80235481262207</v>
       </c>
       <c r="G167">
         <v>44000</v>
@@ -5670,13 +6165,16 @@
         <v>-0.0003867064441535062</v>
       </c>
       <c r="I167">
-        <v>0.2350692787652411</v>
+        <v>0.06492082098108244</v>
       </c>
       <c r="J167">
         <v>0.2350692787652411</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0.2350692787652411</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>40179</v>
       </c>
@@ -5693,7 +6191,7 @@
         <v>23.82999992370605</v>
       </c>
       <c r="F168">
-        <v>17.33308219909668</v>
+        <v>17.33308410644531</v>
       </c>
       <c r="G168">
         <v>255300</v>
@@ -5702,13 +6200,16 @@
         <v>-0.07814315001757932</v>
       </c>
       <c r="I168">
-        <v>0.3663990363515046</v>
+        <v>0.06486130172483454</v>
       </c>
       <c r="J168">
         <v>0.3663990363515046</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0.3663990363515046</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>40210</v>
       </c>
@@ -5725,7 +6226,7 @@
         <v>23.61000061035156</v>
       </c>
       <c r="F169">
-        <v>17.17305946350098</v>
+        <v>17.17306137084961</v>
       </c>
       <c r="G169">
         <v>354400</v>
@@ -5734,13 +6235,16 @@
         <v>-0.009232031643258143</v>
       </c>
       <c r="I169">
-        <v>0.5009536743441594</v>
+        <v>0.0640071299249507</v>
       </c>
       <c r="J169">
         <v>0.5009536743441594</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0.5009536743441594</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>40238</v>
       </c>
@@ -5757,7 +6261,7 @@
         <v>25.05999946594238</v>
       </c>
       <c r="F170">
-        <v>18.22774314880371</v>
+        <v>18.22773551940918</v>
       </c>
       <c r="G170">
         <v>239500</v>
@@ -5766,13 +6270,16 @@
         <v>0.06141460474825577</v>
       </c>
       <c r="I170">
-        <v>0.456976648509152</v>
+        <v>0.06422404960668997</v>
       </c>
       <c r="J170">
         <v>0.456976648509152</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0.456976648509152</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>40269</v>
       </c>
@@ -5789,7 +6296,7 @@
         <v>23.55999946594238</v>
       </c>
       <c r="F171">
-        <v>17.13669013977051</v>
+        <v>17.13668823242188</v>
       </c>
       <c r="G171">
         <v>145100</v>
@@ -5798,13 +6305,16 @@
         <v>-0.05985634604815393</v>
       </c>
       <c r="I171">
-        <v>0.2302872028856242</v>
+        <v>0.06442312668173972</v>
       </c>
       <c r="J171">
         <v>0.2302872028856242</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0.2302872028856242</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>40299</v>
       </c>
@@ -5821,7 +6331,7 @@
         <v>20.55999946594238</v>
       </c>
       <c r="F172">
-        <v>14.95460319519043</v>
+        <v>14.95459842681885</v>
       </c>
       <c r="G172">
         <v>916000</v>
@@ -5830,13 +6340,16 @@
         <v>-0.1273344680816614</v>
       </c>
       <c r="I172">
-        <v>-0.06289886210226148</v>
+        <v>0.06537909280210109</v>
       </c>
       <c r="J172">
         <v>-0.06289886210226148</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>-0.06289886210226148</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>40330</v>
       </c>
@@ -5853,7 +6366,7 @@
         <v>19.55999946594238</v>
       </c>
       <c r="F173">
-        <v>14.55249881744385</v>
+        <v>14.55249500274658</v>
       </c>
       <c r="G173">
         <v>69100</v>
@@ -5862,13 +6375,16 @@
         <v>-0.04863813355912283</v>
       </c>
       <c r="I173">
-        <v>-0.04445529447665553</v>
+        <v>0.06548589684276171</v>
       </c>
       <c r="J173">
         <v>-0.04445529447665553</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>-0.04445529447665553</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>40360</v>
       </c>
@@ -5885,7 +6401,7 @@
         <v>22.39999961853027</v>
       </c>
       <c r="F174">
-        <v>16.66543960571289</v>
+        <v>16.66543388366699</v>
       </c>
       <c r="G174">
         <v>164200</v>
@@ -5894,13 +6410,16 @@
         <v>0.1451942857939674</v>
       </c>
       <c r="I174">
-        <v>-0.009287969312355759</v>
+        <v>0.06680781257715583</v>
       </c>
       <c r="J174">
         <v>-0.009287969312355759</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>-0.009287969312355759</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>40391</v>
       </c>
@@ -5917,7 +6436,7 @@
         <v>20.85000038146973</v>
       </c>
       <c r="F175">
-        <v>15.51224422454834</v>
+        <v>15.51224708557129</v>
       </c>
       <c r="G175">
         <v>1352700</v>
@@ -5926,13 +6445,16 @@
         <v>-0.0691963956900391</v>
       </c>
       <c r="I175">
-        <v>-0.1440886757363337</v>
+        <v>0.06686787058523637</v>
       </c>
       <c r="J175">
         <v>-0.1440886757363337</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>-0.1440886757363337</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>40422</v>
       </c>
@@ -5949,7 +6471,7 @@
         <v>23.98999977111816</v>
       </c>
       <c r="F176">
-        <v>17.84838485717773</v>
+        <v>17.8483829498291</v>
       </c>
       <c r="G176">
         <v>512400</v>
@@ -5958,13 +6480,16 @@
         <v>0.150599488354882</v>
       </c>
       <c r="I176">
-        <v>-0.07624180187090557</v>
+        <v>0.06797729213029773</v>
       </c>
       <c r="J176">
         <v>-0.07624180187090557</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>-0.07624180187090557</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>40452</v>
       </c>
@@ -5981,7 +6506,7 @@
         <v>25.31999969482422</v>
       </c>
       <c r="F177">
-        <v>18.83789443969727</v>
+        <v>18.837890625</v>
       </c>
       <c r="G177">
         <v>110700</v>
@@ -5990,13 +6515,16 @@
         <v>0.05543976391809968</v>
       </c>
       <c r="I177">
-        <v>0.03346937529894767</v>
+        <v>0.06812609922337907</v>
       </c>
       <c r="J177">
         <v>0.03346937529894767</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>0.03346937529894767</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>40483</v>
       </c>
@@ -6013,7 +6541,7 @@
         <v>22.48999977111816</v>
       </c>
       <c r="F178">
-        <v>16.73239135742188</v>
+        <v>16.73239326477051</v>
       </c>
       <c r="G178">
         <v>337800</v>
@@ -6022,13 +6550,16 @@
         <v>-0.111769350624619</v>
       </c>
       <c r="I178">
-        <v>-0.1303171214112196</v>
+        <v>0.06869472542010283</v>
       </c>
       <c r="J178">
         <v>-0.1303171214112196</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>-0.1303171214112196</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>40513</v>
       </c>
@@ -6045,7 +6576,7 @@
         <v>24.45000076293945</v>
       </c>
       <c r="F179">
-        <v>18.32553863525391</v>
+        <v>18.32553291320801</v>
       </c>
       <c r="G179">
         <v>138200</v>
@@ -6054,13 +6585,16 @@
         <v>0.08714988936275314</v>
       </c>
       <c r="I179">
-        <v>-0.05415859179382632</v>
+        <v>0.06877300377098203</v>
       </c>
       <c r="J179">
         <v>-0.05415859179382632</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>-0.05415859179382632</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>40544</v>
       </c>
@@ -6086,13 +6620,16 @@
         <v>0.06339464984434628</v>
       </c>
       <c r="I180">
-        <v>0.09106169044235846</v>
+        <v>0.06899310769709439</v>
       </c>
       <c r="J180">
         <v>0.09106169044235846</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>0.09106169044235846</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>40575</v>
       </c>
@@ -6109,7 +6646,7 @@
         <v>26.85000038146973</v>
       </c>
       <c r="F181">
-        <v>20.12436103820801</v>
+        <v>20.12435531616211</v>
       </c>
       <c r="G181">
         <v>83200</v>
@@ -6118,13 +6655,16 @@
         <v>0.03269232236422015</v>
       </c>
       <c r="I181">
-        <v>0.1372299740516576</v>
+        <v>0.06820714883860282</v>
       </c>
       <c r="J181">
         <v>0.1372299740516576</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>0.1372299740516576</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>40603</v>
       </c>
@@ -6141,7 +6681,7 @@
         <v>26.93000030517578</v>
       </c>
       <c r="F182">
-        <v>20.18432426452637</v>
+        <v>20.18431854248047</v>
       </c>
       <c r="G182">
         <v>230000</v>
@@ -6150,13 +6690,16 @@
         <v>0.002979512944858875</v>
       </c>
       <c r="I182">
-        <v>0.07462094489566162</v>
+        <v>0.06773007140394917</v>
       </c>
       <c r="J182">
         <v>0.07462094489566162</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>0.07462094489566162</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>40634</v>
       </c>
@@ -6173,7 +6716,7 @@
         <v>28.90999984741211</v>
       </c>
       <c r="F183">
-        <v>21.6683464050293</v>
+        <v>21.66834831237793</v>
       </c>
       <c r="G183">
         <v>62000</v>
@@ -6182,13 +6725,16 @@
         <v>0.07352393315256611</v>
       </c>
       <c r="I183">
-        <v>0.227079817603711</v>
+        <v>0.06753318137012006</v>
       </c>
       <c r="J183">
         <v>0.227079817603711</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>0.227079817603711</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>40664</v>
       </c>
@@ -6205,7 +6751,7 @@
         <v>28.07999992370605</v>
       </c>
       <c r="F184">
-        <v>21.0462589263916</v>
+        <v>21.04625511169434</v>
       </c>
       <c r="G184">
         <v>205800</v>
@@ -6214,13 +6760,16 @@
         <v>-0.02870978651286127</v>
       </c>
       <c r="I184">
-        <v>0.3657587866293743</v>
+        <v>0.06730122859291107</v>
       </c>
       <c r="J184">
         <v>0.3657587866293743</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>0.3657587866293743</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>40695</v>
       </c>
@@ -6237,7 +6786,7 @@
         <v>27.63999938964844</v>
       </c>
       <c r="F185">
-        <v>21.09708786010742</v>
+        <v>21.09708595275879</v>
       </c>
       <c r="G185">
         <v>240800</v>
@@ -6246,13 +6795,16 @@
         <v>-0.015669534731236</v>
       </c>
       <c r="I185">
-        <v>0.4130879419385898</v>
+        <v>0.06721997498140159</v>
       </c>
       <c r="J185">
         <v>0.4130879419385898</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>0.4130879419385898</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>40725</v>
       </c>
@@ -6269,7 +6821,7 @@
         <v>25.15999984741211</v>
       </c>
       <c r="F186">
-        <v>19.20414733886719</v>
+        <v>19.20415115356445</v>
       </c>
       <c r="G186">
         <v>444300</v>
@@ -6278,13 +6830,16 @@
         <v>-0.08972502159913653</v>
       </c>
       <c r="I186">
-        <v>0.1232142980305517</v>
+        <v>0.06777390520415942</v>
       </c>
       <c r="J186">
         <v>0.1232142980305517</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>0.1232142980305517</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>40756</v>
       </c>
@@ -6301,7 +6856,7 @@
         <v>22.57999992370605</v>
       </c>
       <c r="F187">
-        <v>17.23488616943359</v>
+        <v>17.23488235473633</v>
       </c>
       <c r="G187">
         <v>400800</v>
@@ -6310,13 +6865,16 @@
         <v>-0.1025437177803253</v>
       </c>
       <c r="I187">
-        <v>0.08297359762994794</v>
+        <v>0.06842856390777446</v>
       </c>
       <c r="J187">
         <v>0.08297359762994794</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <v>0.08297359762994794</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>40787</v>
       </c>
@@ -6333,7 +6891,7 @@
         <v>19.04999923706055</v>
       </c>
       <c r="F188">
-        <v>14.54050540924072</v>
+        <v>14.54050254821777</v>
       </c>
       <c r="G188">
         <v>227100</v>
@@ -6342,13 +6900,16 @@
         <v>-0.1563330690244807</v>
       </c>
       <c r="I188">
-        <v>-0.2059191571983648</v>
+        <v>0.06875348286813304</v>
       </c>
       <c r="J188">
         <v>-0.2059191571983648</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>-0.2059191571983648</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>40817</v>
       </c>
@@ -6365,7 +6926,7 @@
         <v>21.5</v>
       </c>
       <c r="F189">
-        <v>16.41054534912109</v>
+        <v>16.41054344177246</v>
       </c>
       <c r="G189">
         <v>912400</v>
@@ -6374,13 +6935,16 @@
         <v>0.1286089690845307</v>
       </c>
       <c r="I189">
-        <v>-0.1508688681226596</v>
+        <v>0.06957837164306815</v>
       </c>
       <c r="J189">
         <v>-0.1508688681226596</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>-0.1508688681226596</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>40848</v>
       </c>
@@ -6397,7 +6961,7 @@
         <v>20.54000091552734</v>
       </c>
       <c r="F190">
-        <v>15.67779064178467</v>
+        <v>15.67779350280762</v>
       </c>
       <c r="G190">
         <v>470000</v>
@@ -6406,13 +6970,16 @@
         <v>-0.04465112020803053</v>
       </c>
       <c r="I190">
-        <v>-0.08670515230929543</v>
+        <v>0.06969746097371682</v>
       </c>
       <c r="J190">
         <v>-0.08670515230929543</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>-0.08670515230929543</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>40878</v>
       </c>
@@ -6429,7 +6996,7 @@
         <v>19.57999992370605</v>
       </c>
       <c r="F191">
-        <v>15.08925724029541</v>
+        <v>15.08924961090088</v>
       </c>
       <c r="G191">
         <v>258100</v>
@@ -6438,13 +7005,16 @@
         <v>-0.04673811825858154</v>
       </c>
       <c r="I191">
-        <v>-0.1991820321991643</v>
+        <v>0.0697853186737179</v>
       </c>
       <c r="J191">
         <v>-0.1991820321991643</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <v>-0.1991820321991643</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>40909</v>
       </c>
@@ -6461,7 +7031,7 @@
         <v>20.80999946594238</v>
       </c>
       <c r="F192">
-        <v>16.03714942932129</v>
+        <v>16.03715133666992</v>
       </c>
       <c r="G192">
         <v>2335800</v>
@@ -6470,13 +7040,16 @@
         <v>0.06281918013427235</v>
       </c>
       <c r="I192">
-        <v>-0.1996154051560622</v>
+        <v>0.06980144261183911</v>
       </c>
       <c r="J192">
         <v>-0.1996154051560622</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <v>-0.1996154051560622</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>40940</v>
       </c>
@@ -6493,7 +7066,7 @@
         <v>22.11000061035156</v>
       </c>
       <c r="F193">
-        <v>17.03899002075195</v>
+        <v>17.03899765014648</v>
       </c>
       <c r="G193">
         <v>1594700</v>
@@ -6502,13 +7075,16 @@
         <v>0.06247002295875892</v>
       </c>
       <c r="I193">
-        <v>-0.1765363018165702</v>
+        <v>0.07000648985673184</v>
       </c>
       <c r="J193">
         <v>-0.1765363018165702</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <v>-0.1765363018165702</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>40969</v>
       </c>
@@ -6534,13 +7110,16 @@
         <v>-0.001809177495391667</v>
       </c>
       <c r="I194">
-        <v>-0.1804679003073573</v>
+        <v>0.06987286160440861</v>
       </c>
       <c r="J194">
         <v>-0.1804679003073573</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>-0.1804679003073573</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>41000</v>
       </c>
@@ -6557,7 +7136,7 @@
         <v>20.71999931335449</v>
       </c>
       <c r="F195">
-        <v>15.96778869628906</v>
+        <v>15.96778964996338</v>
       </c>
       <c r="G195">
         <v>670600</v>
@@ -6566,13 +7145,16 @@
         <v>-0.06116902583312334</v>
       </c>
       <c r="I195">
-        <v>-0.2832929981765721</v>
+        <v>0.07011998939076451</v>
       </c>
       <c r="J195">
         <v>-0.2832929981765721</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <v>-0.2832929981765721</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>41030</v>
       </c>
@@ -6589,7 +7171,7 @@
         <v>18.55999946594238</v>
       </c>
       <c r="F196">
-        <v>14.30319499969482</v>
+        <v>14.30319404602051</v>
       </c>
       <c r="G196">
         <v>642000</v>
@@ -6598,13 +7180,16 @@
         <v>-0.1042471003374957</v>
       </c>
       <c r="I196">
-        <v>-0.3390313562546193</v>
+        <v>0.07080344339037528</v>
       </c>
       <c r="J196">
         <v>-0.3390313562546193</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <v>-0.3390313562546193</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>41061</v>
       </c>
@@ -6621,7 +7206,7 @@
         <v>19.57999992370605</v>
       </c>
       <c r="F197">
-        <v>15.4947338104248</v>
+        <v>15.49473094940186</v>
       </c>
       <c r="G197">
         <v>868000</v>
@@ -6630,13 +7215,16 @@
         <v>0.05495692279708164</v>
       </c>
       <c r="I197">
-        <v>-0.291606354700607</v>
+        <v>0.07094320090586163</v>
       </c>
       <c r="J197">
         <v>-0.291606354700607</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>-0.291606354700607</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>41091</v>
       </c>
@@ -6653,7 +7241,7 @@
         <v>19.5</v>
       </c>
       <c r="F198">
-        <v>15.43142414093018</v>
+        <v>15.43142700195312</v>
       </c>
       <c r="G198">
         <v>304500</v>
@@ -6662,13 +7250,16 @@
         <v>-0.004085797958007009</v>
       </c>
       <c r="I198">
-        <v>-0.2249602496716343</v>
+        <v>0.06957849105542603</v>
       </c>
       <c r="J198">
         <v>-0.2249602496716343</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <v>-0.2249602496716343</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>41122</v>
       </c>
@@ -6685,7 +7276,7 @@
         <v>20.61000061035156</v>
       </c>
       <c r="F199">
-        <v>16.30982780456543</v>
+        <v>16.30982398986816</v>
       </c>
       <c r="G199">
         <v>671500</v>
@@ -6694,13 +7285,16 @@
         <v>0.05692310822315716</v>
       </c>
       <c r="I199">
-        <v>-0.08724531975247041</v>
+        <v>0.06973456639584598</v>
       </c>
       <c r="J199">
         <v>-0.08724531975247041</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <v>-0.08724531975247041</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>41153</v>
       </c>
@@ -6717,7 +7311,7 @@
         <v>20.97999954223633</v>
       </c>
       <c r="F200">
-        <v>16.60263061523438</v>
+        <v>16.60262870788574</v>
       </c>
       <c r="G200">
         <v>822700</v>
@@ -6726,13 +7320,16 @@
         <v>0.01795239791011594</v>
       </c>
       <c r="I200">
-        <v>0.1013123560352218</v>
+        <v>0.06827283759826405</v>
       </c>
       <c r="J200">
         <v>0.1013123560352218</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <v>0.1013123560352218</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>41183</v>
       </c>
@@ -6749,7 +7346,7 @@
         <v>21.59000015258789</v>
       </c>
       <c r="F201">
-        <v>17.08535575866699</v>
+        <v>17.08535385131836</v>
       </c>
       <c r="G201">
         <v>295500</v>
@@ -6758,13 +7355,16 @@
         <v>0.02907533954533825</v>
       </c>
       <c r="I201">
-        <v>0.004186053608739027</v>
+        <v>0.06758357082789442</v>
       </c>
       <c r="J201">
         <v>0.004186053608739027</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>0.004186053608739027</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>41214</v>
       </c>
@@ -6781,7 +7381,7 @@
         <v>22.43000030517578</v>
       </c>
       <c r="F202">
-        <v>17.75009727478027</v>
+        <v>17.75009155273438</v>
       </c>
       <c r="G202">
         <v>1436800</v>
@@ -6790,13 +7390,16 @@
         <v>0.03890690813576514</v>
       </c>
       <c r="I202">
-        <v>0.09201554554068592</v>
+        <v>0.06747708742092839</v>
       </c>
       <c r="J202">
         <v>0.09201554554068592</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <v>0.09201554554068592</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>41244</v>
       </c>
@@ -6813,7 +7416,7 @@
         <v>23.59000015258789</v>
       </c>
       <c r="F203">
-        <v>18.7591609954834</v>
+        <v>18.75915718078613</v>
       </c>
       <c r="G203">
         <v>212000</v>
@@ -6822,13 +7425,16 @@
         <v>0.05171644367496664</v>
       </c>
       <c r="I203">
-        <v>0.204800829647952</v>
+        <v>0.06743876768313936</v>
       </c>
       <c r="J203">
         <v>0.204800829647952</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>0.204800829647952</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>41275</v>
       </c>
@@ -6845,7 +7451,7 @@
         <v>24.32999992370605</v>
       </c>
       <c r="F204">
-        <v>19.34762191772461</v>
+        <v>19.34762001037598</v>
       </c>
       <c r="G204">
         <v>767700</v>
@@ -6854,13 +7460,16 @@
         <v>0.031369214342162</v>
       </c>
       <c r="I204">
-        <v>0.1691494737193291</v>
+        <v>0.0673658387705247</v>
       </c>
       <c r="J204">
         <v>0.1691494737193291</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>0.1691494737193291</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>41306</v>
       </c>
@@ -6877,7 +7486,7 @@
         <v>23.46999931335449</v>
       </c>
       <c r="F205">
-        <v>18.66373634338379</v>
+        <v>18.66373252868652</v>
       </c>
       <c r="G205">
         <v>596900</v>
@@ -6886,13 +7495,16 @@
         <v>-0.03534733304760995</v>
       </c>
       <c r="I205">
-        <v>0.0615105683156878</v>
+        <v>0.0672868296606563</v>
       </c>
       <c r="J205">
         <v>0.0615105683156878</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>0.0615105683156878</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>41334</v>
       </c>
@@ -6909,7 +7521,7 @@
         <v>23.20999908447266</v>
       </c>
       <c r="F206">
-        <v>18.45697784423828</v>
+        <v>18.45697593688965</v>
       </c>
       <c r="G206">
         <v>1077100</v>
@@ -6918,13 +7530,16 @@
         <v>-0.01107798195519738</v>
       </c>
       <c r="I206">
-        <v>0.05165380178576928</v>
+        <v>0.06716182314968336</v>
       </c>
       <c r="J206">
         <v>0.05165380178576928</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>0.05165380178576928</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>41365</v>
       </c>
@@ -6941,7 +7556,7 @@
         <v>24.53000068664551</v>
       </c>
       <c r="F207">
-        <v>19.50666427612305</v>
+        <v>19.50666618347168</v>
       </c>
       <c r="G207">
         <v>920300</v>
@@ -6950,13 +7565,16 @@
         <v>0.05687210918745467</v>
       </c>
       <c r="I207">
-        <v>0.183880381252493</v>
+        <v>0.06557346850532805</v>
       </c>
       <c r="J207">
         <v>0.183880381252493</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>0.183880381252493</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>41395</v>
       </c>
@@ -6973,7 +7591,7 @@
         <v>25</v>
       </c>
       <c r="F208">
-        <v>19.88041687011719</v>
+        <v>19.88041877746582</v>
       </c>
       <c r="G208">
         <v>289100</v>
@@ -6982,13 +7600,16 @@
         <v>0.01916018345691972</v>
       </c>
       <c r="I208">
-        <v>0.3469827973796564</v>
+        <v>0.06539569402656749</v>
       </c>
       <c r="J208">
         <v>0.3469827973796564</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <v>0.3469827973796564</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>41426</v>
       </c>
@@ -7005,7 +7626,7 @@
         <v>23.30999946594238</v>
       </c>
       <c r="F209">
-        <v>18.98934936523438</v>
+        <v>18.98934745788574</v>
       </c>
       <c r="G209">
         <v>641900</v>
@@ -7014,13 +7635,16 @@
         <v>-0.0676000213623047</v>
       </c>
       <c r="I209">
-        <v>0.1905004880883741</v>
+        <v>0.06572573237837084</v>
       </c>
       <c r="J209">
         <v>0.1905004880883741</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0.1905004880883741</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>41456</v>
       </c>
@@ -7037,7 +7661,7 @@
         <v>25.45999908447266</v>
       </c>
       <c r="F210">
-        <v>20.7408332824707</v>
+        <v>20.74083518981934</v>
       </c>
       <c r="G210">
         <v>929300</v>
@@ -7046,13 +7670,16 @@
         <v>0.09223507798323127</v>
       </c>
       <c r="I210">
-        <v>0.3056409786909053</v>
+        <v>0.06619252289804038</v>
       </c>
       <c r="J210">
         <v>0.3056409786909053</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <v>0.3056409786909053</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>41487</v>
       </c>
@@ -7078,13 +7705,16 @@
         <v>-0.02081692059526064</v>
       </c>
       <c r="I211">
-        <v>0.2096069658850208</v>
+        <v>0.06623614633223093</v>
       </c>
       <c r="J211">
         <v>0.2096069658850208</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <v>0.2096069658850208</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>41518</v>
       </c>
@@ -7101,7 +7731,7 @@
         <v>26.8799991607666</v>
       </c>
       <c r="F212">
-        <v>21.89762687683105</v>
+        <v>21.89762496948242</v>
       </c>
       <c r="G212">
         <v>335600</v>
@@ -7110,13 +7740,16 @@
         <v>0.07821896637466041</v>
       </c>
       <c r="I212">
-        <v>0.2812201976769619</v>
+        <v>0.06656663263187888</v>
       </c>
       <c r="J212">
         <v>0.2812201976769619</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <v>0.2812201976769619</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>41548</v>
       </c>
@@ -7133,7 +7766,7 @@
         <v>27.89999961853027</v>
       </c>
       <c r="F213">
-        <v>22.72855949401855</v>
+        <v>22.72856140136719</v>
       </c>
       <c r="G213">
         <v>308700</v>
@@ -7142,13 +7775,16 @@
         <v>0.03794644678607129</v>
       </c>
       <c r="I213">
-        <v>0.2922649106691197</v>
+        <v>0.06645593014255471</v>
       </c>
       <c r="J213">
         <v>0.2922649106691197</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <v>0.2922649106691197</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>41579</v>
       </c>
@@ -7174,13 +7810,16 @@
         <v>0.001075293442856617</v>
       </c>
       <c r="I214">
-        <v>0.2452073082999853</v>
+        <v>0.06630069454723582</v>
       </c>
       <c r="J214">
         <v>0.2452073082999853</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>0.2452073082999853</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>41609</v>
       </c>
@@ -7197,7 +7836,7 @@
         <v>28.45000076293945</v>
       </c>
       <c r="F215">
-        <v>23.28166007995605</v>
+        <v>23.28166198730469</v>
       </c>
       <c r="G215">
         <v>679700</v>
@@ -7206,13 +7845,16 @@
         <v>0.0186179896914398</v>
       </c>
       <c r="I215">
-        <v>0.2060195243287612</v>
+        <v>0.06604285383027246</v>
       </c>
       <c r="J215">
         <v>0.2060195243287612</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <v>0.2060195243287612</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>41640</v>
       </c>
@@ -7229,7 +7871,7 @@
         <v>26.8799991607666</v>
       </c>
       <c r="F216">
-        <v>21.99687385559082</v>
+        <v>21.99687767028809</v>
       </c>
       <c r="G216">
         <v>407500</v>
@@ -7238,13 +7880,16 @@
         <v>-0.05518458910616353</v>
       </c>
       <c r="I216">
-        <v>0.1048088468991708</v>
+        <v>0.06626308239650482</v>
       </c>
       <c r="J216">
         <v>0.1048088468991708</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>0.1048088468991708</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>41671</v>
       </c>
@@ -7261,7 +7906,7 @@
         <v>29.04999923706055</v>
       </c>
       <c r="F217">
-        <v>23.77266311645508</v>
+        <v>23.77266120910645</v>
       </c>
       <c r="G217">
         <v>2088700</v>
@@ -7270,13 +7915,16 @@
         <v>0.08072917202546726</v>
       </c>
       <c r="I217">
-        <v>0.2377503232618767</v>
+        <v>0.06660508398271177</v>
       </c>
       <c r="J217">
         <v>0.2377503232618767</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <v>0.2377503232618767</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>41699</v>
       </c>
@@ -7293,7 +7941,7 @@
         <v>29.20000076293945</v>
       </c>
       <c r="F218">
-        <v>23.89541625976562</v>
+        <v>23.89541244506836</v>
       </c>
       <c r="G218">
         <v>176500</v>
@@ -7302,13 +7950,16 @@
         <v>0.00516356384917005</v>
       </c>
       <c r="I218">
-        <v>0.2580784969730598</v>
+        <v>0.06648691816595793</v>
       </c>
       <c r="J218">
         <v>0.2580784969730598</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>0.2580784969730598</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>41730</v>
       </c>
@@ -7325,7 +7976,7 @@
         <v>30.04000091552734</v>
       </c>
       <c r="F219">
-        <v>24.58281898498535</v>
+        <v>24.58281517028809</v>
       </c>
       <c r="G219">
         <v>383100</v>
@@ -7334,13 +7985,16 @@
         <v>0.02876712776165458</v>
       </c>
       <c r="I219">
-        <v>0.2246229137645952</v>
+        <v>0.066468069951148</v>
       </c>
       <c r="J219">
         <v>0.2246229137645952</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <v>0.2246229137645952</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>41760</v>
       </c>
@@ -7357,7 +8011,7 @@
         <v>30.20000076293945</v>
       </c>
       <c r="F220">
-        <v>24.7137508392334</v>
+        <v>24.71374893188477</v>
       </c>
       <c r="G220">
         <v>255400</v>
@@ -7366,13 +8020,16 @@
         <v>0.005326226449261062</v>
       </c>
       <c r="I220">
-        <v>0.2080000305175782</v>
+        <v>0.06640694713030418</v>
       </c>
       <c r="J220">
         <v>0.2080000305175782</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <v>0.2080000305175782</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>41791</v>
       </c>
@@ -7389,7 +8046,7 @@
         <v>29.14999961853027</v>
       </c>
       <c r="F221">
-        <v>24.3527660369873</v>
+        <v>24.35276794433594</v>
       </c>
       <c r="G221">
         <v>544800</v>
@@ -7398,13 +8055,16 @@
         <v>-0.03476824893652686</v>
       </c>
       <c r="I221">
-        <v>0.2505362628223375</v>
+        <v>0.06648254242033001</v>
       </c>
       <c r="J221">
         <v>0.2505362628223375</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>0.2505362628223375</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>41821</v>
       </c>
@@ -7421,7 +8081,7 @@
         <v>27.22999954223633</v>
       </c>
       <c r="F222">
-        <v>22.74874496459961</v>
+        <v>22.74874114990234</v>
       </c>
       <c r="G222">
         <v>1735700</v>
@@ -7430,13 +8090,16 @@
         <v>-0.06586621274167792</v>
       </c>
       <c r="I222">
-        <v>0.06952083744744297</v>
+        <v>0.0666979041025394</v>
       </c>
       <c r="J222">
         <v>0.06952083744744297</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>0.06952083744744297</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>41852</v>
       </c>
@@ -7462,13 +8125,16 @@
         <v>0.01248623423810624</v>
       </c>
       <c r="I223">
-        <v>0.105896484449715</v>
+        <v>0.06670151584653766</v>
       </c>
       <c r="J223">
         <v>0.105896484449715</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <v>0.105896484449715</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>41883</v>
       </c>
@@ -7485,7 +8151,7 @@
         <v>26.54999923706055</v>
       </c>
       <c r="F224">
-        <v>22.18064880371094</v>
+        <v>22.18065452575684</v>
       </c>
       <c r="G224">
         <v>318800</v>
@@ -7494,13 +8160,16 @@
         <v>-0.03699675259536395</v>
       </c>
       <c r="I224">
-        <v>-0.01227678325926862</v>
+        <v>0.06676295627697451</v>
       </c>
       <c r="J224">
         <v>-0.01227678325926862</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>-0.01227678325926862</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>41913</v>
       </c>
@@ -7517,7 +8186,7 @@
         <v>25.54999923706055</v>
       </c>
       <c r="F225">
-        <v>21.34522247314453</v>
+        <v>21.3452205657959</v>
       </c>
       <c r="G225">
         <v>2397900</v>
@@ -7526,13 +8195,16 @@
         <v>-0.03766478450982857</v>
       </c>
       <c r="I225">
-        <v>-0.08422940550540126</v>
+        <v>0.06673888577966054</v>
       </c>
       <c r="J225">
         <v>-0.08422940550540126</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>-0.08422940550540126</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>41944</v>
       </c>
@@ -7549,7 +8221,7 @@
         <v>26.30999946594238</v>
       </c>
       <c r="F226">
-        <v>21.98014831542969</v>
+        <v>21.98015213012695</v>
       </c>
       <c r="G226">
         <v>284400</v>
@@ -7558,13 +8230,16 @@
         <v>0.0297456067153008</v>
       </c>
       <c r="I226">
-        <v>-0.05800217764169491</v>
+        <v>0.06662635247832338</v>
       </c>
       <c r="J226">
         <v>-0.05800217764169491</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>-0.05800217764169491</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>41974</v>
       </c>
@@ -7590,13 +8265,16 @@
         <v>-0.06309387613484885</v>
       </c>
       <c r="I227">
-        <v>-0.1335676992093185</v>
+        <v>0.06687794696069627</v>
       </c>
       <c r="J227">
         <v>-0.1335676992093185</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <v>-0.1335676992093185</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>42005</v>
       </c>
@@ -7613,7 +8291,7 @@
         <v>24.95000076293945</v>
       </c>
       <c r="F228">
-        <v>21.03266716003418</v>
+        <v>21.03266334533691</v>
       </c>
       <c r="G228">
         <v>1078400</v>
@@ -7622,13 +8300,16 @@
         <v>0.01217043201021628</v>
       </c>
       <c r="I228">
-        <v>-0.0718005378751696</v>
+        <v>0.06686291781251248</v>
       </c>
       <c r="J228">
         <v>-0.0718005378751696</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>-0.0718005378751696</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>42036</v>
       </c>
@@ -7645,7 +8326,7 @@
         <v>26.5</v>
       </c>
       <c r="F229">
-        <v>22.33930206298828</v>
+        <v>22.33930397033691</v>
       </c>
       <c r="G229">
         <v>359800</v>
@@ -7654,13 +8335,16 @@
         <v>0.06212421601857843</v>
       </c>
       <c r="I229">
-        <v>-0.08777966623170796</v>
+        <v>0.06694285243489756</v>
       </c>
       <c r="J229">
         <v>-0.08777966623170796</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <v>-0.08777966623170796</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>42064</v>
       </c>
@@ -7677,7 +8361,7 @@
         <v>25.97999954223633</v>
       </c>
       <c r="F230">
-        <v>21.90094184875488</v>
+        <v>21.90094566345215</v>
       </c>
       <c r="G230">
         <v>338200</v>
@@ -7686,13 +8370,16 @@
         <v>-0.01962265878353475</v>
       </c>
       <c r="I230">
-        <v>-0.1102740115263949</v>
+        <v>0.06693986593851481</v>
       </c>
       <c r="J230">
         <v>-0.1102740115263949</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>-0.1102740115263949</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>42095</v>
       </c>
@@ -7709,7 +8396,7 @@
         <v>27.15999984741211</v>
       </c>
       <c r="F231">
-        <v>22.89568138122559</v>
+        <v>22.89567947387695</v>
       </c>
       <c r="G231">
         <v>1074500</v>
@@ -7718,13 +8405,16 @@
         <v>0.04541956604954622</v>
       </c>
       <c r="I231">
-        <v>-0.09587220307395505</v>
+        <v>0.06696707545172795</v>
       </c>
       <c r="J231">
         <v>-0.09587220307395505</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>-0.09587220307395505</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>42125</v>
       </c>
@@ -7741,7 +8431,7 @@
         <v>26.93000030517578</v>
       </c>
       <c r="F232">
-        <v>22.7017879486084</v>
+        <v>22.70178985595703</v>
       </c>
       <c r="G232">
         <v>608600</v>
@@ -7750,13 +8440,16 @@
         <v>-0.008468318981166845</v>
       </c>
       <c r="I232">
-        <v>-0.1082781581176819</v>
+        <v>0.06696023261971799</v>
       </c>
       <c r="J232">
         <v>-0.1082781581176819</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <v>-0.1082781581176819</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>42156</v>
       </c>
@@ -7773,7 +8466,7 @@
         <v>25.72999954223633</v>
       </c>
       <c r="F233">
-        <v>22.05769348144531</v>
+        <v>22.05769157409668</v>
       </c>
       <c r="G233">
         <v>2178500</v>
@@ -7782,13 +8475,16 @@
         <v>-0.04455999811885702</v>
       </c>
       <c r="I233">
-        <v>-0.1173241894013575</v>
+        <v>0.06710016890341934</v>
       </c>
       <c r="J233">
         <v>-0.1173241894013575</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <v>-0.1173241894013575</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>42186</v>
       </c>
@@ -7805,7 +8501,7 @@
         <v>26.78000068664551</v>
       </c>
       <c r="F234">
-        <v>22.95783424377441</v>
+        <v>22.95783042907715</v>
       </c>
       <c r="G234">
         <v>481600</v>
@@ -7814,13 +8510,16 @@
         <v>0.04080844007344742</v>
       </c>
       <c r="I234">
-        <v>-0.01652584881218333</v>
+        <v>0.06705407514445109</v>
       </c>
       <c r="J234">
         <v>-0.01652584881218333</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <v>-0.01652584881218333</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>42217</v>
       </c>
@@ -7837,7 +8536,7 @@
         <v>25.02000045776367</v>
       </c>
       <c r="F235">
-        <v>21.44902610778809</v>
+        <v>21.44902992248535</v>
       </c>
       <c r="G235">
         <v>759500</v>
@@ -7846,13 +8545,16 @@
         <v>-0.06572069394156144</v>
       </c>
       <c r="I235">
-        <v>-0.09249181230637682</v>
+        <v>0.06733716475936656</v>
       </c>
       <c r="J235">
         <v>-0.09249181230637682</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>-0.09249181230637682</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>42248</v>
       </c>
@@ -7878,13 +8580,16 @@
         <v>-0.03796965409905373</v>
       </c>
       <c r="I236">
-        <v>-0.09340864834280493</v>
+        <v>0.06742522732366196</v>
       </c>
       <c r="J236">
         <v>-0.09340864834280493</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <v>-0.09340864834280493</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>42278</v>
       </c>
@@ -7910,13 +8615,16 @@
         <v>0.07145829840093332</v>
       </c>
       <c r="I237">
-        <v>0.009393412353557729</v>
+        <v>0.06761929677460359</v>
       </c>
       <c r="J237">
         <v>0.009393412353557729</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <v>0.009393412353557729</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>42309</v>
       </c>
@@ -7933,7 +8641,7 @@
         <v>25.19000053405762</v>
       </c>
       <c r="F238">
-        <v>21.59476280212402</v>
+        <v>21.59476661682129</v>
       </c>
       <c r="G238">
         <v>609700</v>
@@ -7942,13 +8650,16 @@
         <v>-0.02326484529546824</v>
       </c>
       <c r="I238">
-        <v>-0.04256932552714698</v>
+        <v>0.06765205373016067</v>
       </c>
       <c r="J238">
         <v>-0.04256932552714698</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <v>-0.04256932552714698</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>42339</v>
       </c>
@@ -7974,13 +8685,16 @@
         <v>-0.03890438383516392</v>
       </c>
       <c r="I239">
-        <v>-0.01784992052198053</v>
+        <v>0.06771767834793639</v>
       </c>
       <c r="J239">
         <v>-0.01784992052198053</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <v>-0.01784992052198053</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>42370</v>
       </c>
@@ -7997,7 +8711,7 @@
         <v>23.29000091552734</v>
       </c>
       <c r="F240">
-        <v>20.03894996643066</v>
+        <v>20.0389518737793</v>
       </c>
       <c r="G240">
         <v>2301800</v>
@@ -8006,13 +8720,16 @@
         <v>-0.03800075190979102</v>
       </c>
       <c r="I240">
-        <v>-0.06653305798202058</v>
+        <v>0.06743113564100675</v>
       </c>
       <c r="J240">
         <v>-0.06653305798202058</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <v>-0.06653305798202058</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -8038,13 +8755,16 @@
         <v>-0.02533276639738302</v>
       </c>
       <c r="I241">
-        <v>-0.1433961976249263</v>
+        <v>0.06745808266789349</v>
       </c>
       <c r="J241">
         <v>-0.1433961976249263</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>-0.1433961976249263</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>42430</v>
       </c>
@@ -8061,7 +8781,7 @@
         <v>24.18000030517578</v>
       </c>
       <c r="F242">
-        <v>20.80471611022949</v>
+        <v>20.80471801757812</v>
       </c>
       <c r="G242">
         <v>737600</v>
@@ -8070,13 +8790,16 @@
         <v>0.06519821552837168</v>
       </c>
       <c r="I242">
-        <v>-0.06928403651948656</v>
+        <v>0.06751843094940638</v>
       </c>
       <c r="J242">
         <v>-0.06928403651948656</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>-0.06928403651948656</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>42461</v>
       </c>
@@ -8102,13 +8825,16 @@
         <v>0.02357318807403863</v>
       </c>
       <c r="I243">
-        <v>-0.08873342639734005</v>
+        <v>0.0674675189437567</v>
       </c>
       <c r="J243">
         <v>-0.08873342639734005</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <v>-0.08873342639734005</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>42491</v>
       </c>
@@ -8125,7 +8851,7 @@
         <v>24.70000076293945</v>
       </c>
       <c r="F244">
-        <v>21.25213241577148</v>
+        <v>21.25213050842285</v>
       </c>
       <c r="G244">
         <v>653700</v>
@@ -8134,13 +8860,16 @@
         <v>-0.002020171194365483</v>
       </c>
       <c r="I244">
-        <v>-0.08280726019181428</v>
+        <v>0.06744006199125695</v>
       </c>
       <c r="J244">
         <v>-0.08280726019181428</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <v>-0.08280726019181428</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>42522</v>
       </c>
@@ -8157,7 +8886,7 @@
         <v>22.8700008392334</v>
       </c>
       <c r="F245">
-        <v>20.1844596862793</v>
+        <v>20.18446159362793</v>
       </c>
       <c r="G245">
         <v>1921700</v>
@@ -8166,13 +8895,16 @@
         <v>-0.07408906344860666</v>
       </c>
       <c r="I245">
-        <v>-0.1111542461673263</v>
+        <v>0.06778059764096632</v>
       </c>
       <c r="J245">
         <v>-0.1111542461673263</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>-0.1111542461673263</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>42552</v>
       </c>
@@ -8189,7 +8921,7 @@
         <v>23.95000076293945</v>
       </c>
       <c r="F246">
-        <v>21.13763999938965</v>
+        <v>21.13764190673828</v>
       </c>
       <c r="G246">
         <v>388000</v>
@@ -8198,13 +8930,16 @@
         <v>0.04722343174790433</v>
       </c>
       <c r="I246">
-        <v>-0.1056758719620684</v>
+        <v>0.06791315732993566</v>
       </c>
       <c r="J246">
         <v>-0.1056758719620684</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <v>-0.1056758719620684</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>42583</v>
       </c>
@@ -8221,7 +8956,7 @@
         <v>23.8700008392334</v>
       </c>
       <c r="F247">
-        <v>21.06703567504883</v>
+        <v>21.0670337677002</v>
       </c>
       <c r="G247">
         <v>380100</v>
@@ -8230,13 +8965,16 @@
         <v>-0.003340288983616602</v>
       </c>
       <c r="I247">
-        <v>-0.04596321332893627</v>
+        <v>0.06783444200938209</v>
       </c>
       <c r="J247">
         <v>-0.04596321332893627</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <v>-0.04596321332893627</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>42614</v>
       </c>
@@ -8253,7 +8991,7 @@
         <v>24.15999984741211</v>
       </c>
       <c r="F248">
-        <v>21.3229808807373</v>
+        <v>21.32297897338867</v>
       </c>
       <c r="G248">
         <v>580300</v>
@@ -8262,13 +9000,16 @@
         <v>0.01214909920330043</v>
       </c>
       <c r="I248">
-        <v>0.003739100695013375</v>
+        <v>0.06784017281208229</v>
       </c>
       <c r="J248">
         <v>0.003739100695013375</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <v>0.003739100695013375</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>42644</v>
       </c>
@@ -8294,13 +9035,16 @@
         <v>-0.004553005424101642</v>
       </c>
       <c r="I249">
-        <v>-0.06746807354392903</v>
+        <v>0.06781353539075183</v>
       </c>
       <c r="J249">
         <v>-0.06746807354392903</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>-0.06746807354392903</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>42675</v>
       </c>
@@ -8326,13 +9070,16 @@
         <v>-0.02494796229334217</v>
       </c>
       <c r="I250">
-        <v>-0.06907501922302994</v>
+        <v>0.06772127302597794</v>
       </c>
       <c r="J250">
         <v>-0.06907501922302994</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <v>-0.06907501922302994</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>42705</v>
       </c>
@@ -8349,7 +9096,7 @@
         <v>24.67000007629395</v>
       </c>
       <c r="F251">
-        <v>21.85122680664062</v>
+        <v>21.85122871398926</v>
       </c>
       <c r="G251">
         <v>847100</v>
@@ -8358,13 +9105,16 @@
         <v>0.05202555538004883</v>
       </c>
       <c r="I251">
-        <v>0.01900045473840262</v>
+        <v>0.06787287799122363</v>
       </c>
       <c r="J251">
         <v>0.01900045473840262</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <v>0.01900045473840262</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>42736</v>
       </c>
@@ -8381,7 +9131,7 @@
         <v>25.01000022888184</v>
       </c>
       <c r="F252">
-        <v>22.15238380432129</v>
+        <v>22.15238189697266</v>
       </c>
       <c r="G252">
         <v>1071600</v>
@@ -8390,13 +9140,16 @@
         <v>0.01378192750451612</v>
       </c>
       <c r="I252">
-        <v>0.07385140600006479</v>
+        <v>0.06788430642852956</v>
       </c>
       <c r="J252">
         <v>0.07385140600006479</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <v>0.07385140600006479</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>42767</v>
       </c>
@@ -8413,7 +9166,7 @@
         <v>24.90999984741211</v>
       </c>
       <c r="F253">
-        <v>22.06380462646484</v>
+        <v>22.06380653381348</v>
       </c>
       <c r="G253">
         <v>492700</v>
@@ -8422,13 +9175,16 @@
         <v>-0.003998415855840154</v>
       </c>
       <c r="I253">
-        <v>0.09735678459010244</v>
+        <v>0.06788187441737414</v>
       </c>
       <c r="J253">
         <v>0.09735678459010244</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>0.09735678459010244</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>42795</v>
       </c>
@@ -8454,13 +9210,16 @@
         <v>0.06423124814414449</v>
       </c>
       <c r="I254">
-        <v>0.09636062424727565</v>
+        <v>0.06807421582183862</v>
       </c>
       <c r="J254">
         <v>0.09636062424727565</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>0.09636062424727565</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>42826</v>
       </c>
@@ -8477,7 +9236,7 @@
         <v>28.02000045776367</v>
       </c>
       <c r="F255">
-        <v>24.81846046447754</v>
+        <v>24.81845664978027</v>
       </c>
       <c r="G255">
         <v>1532100</v>
@@ -8486,13 +9245,16 @@
         <v>0.05695964601451564</v>
       </c>
       <c r="I255">
-        <v>0.1321212306167141</v>
+        <v>0.06791858381118064</v>
       </c>
       <c r="J255">
         <v>0.1321212306167141</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255">
+        <v>0.1321212306167141</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>42856</v>
       </c>
@@ -8509,7 +9271,7 @@
         <v>29.38999938964844</v>
       </c>
       <c r="F256">
-        <v>26.03192520141602</v>
+        <v>26.03192329406738</v>
       </c>
       <c r="G256">
         <v>469000</v>
@@ -8518,13 +9280,16 @@
         <v>0.04889360847619728</v>
       </c>
       <c r="I256">
-        <v>0.1898784810462835</v>
+        <v>0.06801714154597162</v>
       </c>
       <c r="J256">
         <v>0.1898784810462835</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <v>0.1898784810462835</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>42887</v>
       </c>
@@ -8541,7 +9306,7 @@
         <v>28.76000022888184</v>
       </c>
       <c r="F257">
-        <v>25.90998077392578</v>
+        <v>25.90998268127441</v>
       </c>
       <c r="G257">
         <v>1364400</v>
@@ -8550,13 +9315,16 @@
         <v>-0.02143583442837693</v>
       </c>
       <c r="I257">
-        <v>0.2575425961307429</v>
+        <v>0.06803447947638665</v>
       </c>
       <c r="J257">
         <v>0.2575425961307429</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <v>0.2575425961307429</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>42917</v>
       </c>
@@ -8573,7 +9341,7 @@
         <v>29.44000053405762</v>
       </c>
       <c r="F258">
-        <v>26.52259826660156</v>
+        <v>26.5226001739502</v>
       </c>
       <c r="G258">
         <v>915800</v>
@@ -8582,13 +9350,16 @@
         <v>0.02364396035341132</v>
       </c>
       <c r="I258">
-        <v>0.2292275405524604</v>
+        <v>0.06796925795288342</v>
       </c>
       <c r="J258">
         <v>0.2292275405524604</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <v>0.2292275405524604</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>42948</v>
       </c>
@@ -8605,7 +9376,7 @@
         <v>29.70000076293945</v>
       </c>
       <c r="F259">
-        <v>26.75683212280273</v>
+        <v>26.7568302154541</v>
       </c>
       <c r="G259">
         <v>930400</v>
@@ -8614,13 +9385,16 @@
         <v>0.00883152935344067</v>
       </c>
       <c r="I259">
-        <v>0.2442396195530796</v>
+        <v>0.06796993718829571</v>
       </c>
       <c r="J259">
         <v>0.2442396195530796</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259">
+        <v>0.2442396195530796</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>42979</v>
       </c>
@@ -8637,7 +9411,7 @@
         <v>30.89999961853027</v>
       </c>
       <c r="F260">
-        <v>27.83791732788086</v>
+        <v>27.83791542053223</v>
       </c>
       <c r="G260">
         <v>570800</v>
@@ -8646,13 +9420,16 @@
         <v>0.04040400083383888</v>
       </c>
       <c r="I260">
-        <v>0.2789735022221085</v>
+        <v>0.06791368819302764</v>
       </c>
       <c r="J260">
         <v>0.2789735022221085</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260">
+        <v>0.2789735022221085</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>43009</v>
       </c>
@@ -8678,13 +9455,16 @@
         <v>0.01585759796658115</v>
       </c>
       <c r="I261">
-        <v>0.3051975212239135</v>
+        <v>0.06784483344562567</v>
       </c>
       <c r="J261">
         <v>0.3051975212239135</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261">
+        <v>0.3051975212239135</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>43040</v>
       </c>
@@ -8701,7 +9481,7 @@
         <v>31.36000061035156</v>
       </c>
       <c r="F262">
-        <v>28.2523307800293</v>
+        <v>28.25233268737793</v>
       </c>
       <c r="G262">
         <v>680200</v>
@@ -8710,13 +9490,16 @@
         <v>-0.0009556795119520789</v>
       </c>
       <c r="I262">
-        <v>0.3373134153544732</v>
+        <v>0.06781360296268275</v>
       </c>
       <c r="J262">
         <v>0.3373134153544732</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262">
+        <v>0.3373134153544732</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>43070</v>
       </c>
@@ -8742,13 +9525,16 @@
         <v>-0.004464326985722633</v>
       </c>
       <c r="I263">
-        <v>0.2655046297853325</v>
+        <v>0.06777416216864178</v>
       </c>
       <c r="J263">
         <v>0.2655046297853325</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <v>0.2655046297853325</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>43101</v>
       </c>
@@ -8765,7 +9551,7 @@
         <v>33.33000183105469</v>
       </c>
       <c r="F264">
-        <v>30.11843872070312</v>
+        <v>30.11844062805176</v>
       </c>
       <c r="G264">
         <v>528700</v>
@@ -8774,13 +9560,16 @@
         <v>0.06758496361649935</v>
       </c>
       <c r="I264">
-        <v>0.3326669942435594</v>
+        <v>0.06732916721897776</v>
       </c>
       <c r="J264">
         <v>0.3326669942435594</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264">
+        <v>0.3326669942435594</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>43132</v>
       </c>
@@ -8797,7 +9586,7 @@
         <v>31.6299991607666</v>
       </c>
       <c r="F265">
-        <v>28.58224487304688</v>
+        <v>28.58224678039551</v>
       </c>
       <c r="G265">
         <v>829200</v>
@@ -8806,13 +9595,16 @@
         <v>-0.05100517782462699</v>
       </c>
       <c r="I265">
-        <v>0.2697711503218909</v>
+        <v>0.06750286901839145</v>
       </c>
       <c r="J265">
         <v>0.2697711503218909</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <v>0.2697711503218909</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>43160</v>
       </c>
@@ -8838,13 +9630,16 @@
         <v>-0.007271563336669784</v>
       </c>
       <c r="I266">
-        <v>0.1844586702161146</v>
+        <v>0.06745827779898834</v>
       </c>
       <c r="J266">
         <v>0.1844586702161146</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266">
+        <v>0.1844586702161146</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>43191</v>
       </c>
@@ -8870,13 +9665,16 @@
         <v>0.04076435357311703</v>
       </c>
       <c r="I267">
-        <v>0.1663097705667929</v>
+        <v>0.06744438387005683</v>
       </c>
       <c r="J267">
         <v>0.1663097705667929</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267">
+        <v>0.1663097705667929</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>43221</v>
       </c>
@@ -8893,7 +9691,7 @@
         <v>31.81999969482422</v>
       </c>
       <c r="F268">
-        <v>28.75393676757812</v>
+        <v>28.75393486022949</v>
       </c>
       <c r="G268">
         <v>1499600</v>
@@ -8902,13 +9700,16 @@
         <v>-0.02631580790454757</v>
       </c>
       <c r="I268">
-        <v>0.08268119617694381</v>
+        <v>0.06744486347962328</v>
       </c>
       <c r="J268">
         <v>0.08268119617694381</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268">
+        <v>0.08268119617694381</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>43252</v>
       </c>
@@ -8925,7 +9726,7 @@
         <v>30.52000045776367</v>
       </c>
       <c r="F269">
-        <v>28.14887809753418</v>
+        <v>28.14888000488281</v>
       </c>
       <c r="G269">
         <v>611000</v>
@@ -8934,13 +9735,16 @@
         <v>-0.0408547847117674</v>
       </c>
       <c r="I269">
-        <v>0.06119611317368423</v>
+        <v>0.06628690423032732</v>
       </c>
       <c r="J269">
         <v>0.06119611317368423</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269">
+        <v>0.06119611317368423</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>43282</v>
       </c>
@@ -8957,7 +9761,7 @@
         <v>31.71999931335449</v>
       </c>
       <c r="F270">
-        <v>29.25564956665039</v>
+        <v>29.25565147399902</v>
       </c>
       <c r="G270">
         <v>873700</v>
@@ -8966,13 +9770,16 @@
         <v>0.03931844159869802</v>
       </c>
       <c r="I270">
-        <v>0.07744560930490674</v>
+        <v>0.06634378813930412</v>
       </c>
       <c r="J270">
         <v>0.07744560930490674</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270">
+        <v>0.07744560930490674</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>43313</v>
       </c>
@@ -8989,7 +9796,7 @@
         <v>31.02000045776367</v>
       </c>
       <c r="F271">
-        <v>28.61003303527832</v>
+        <v>28.61003684997559</v>
       </c>
       <c r="G271">
         <v>583200</v>
@@ -8998,13 +9805,16 @@
         <v>-0.02206806023782326</v>
       </c>
       <c r="I271">
-        <v>0.04444443302746826</v>
+        <v>0.06629983280876195</v>
       </c>
       <c r="J271">
         <v>0.04444443302746826</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271">
+        <v>0.04444443302746826</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>43344</v>
       </c>
@@ -9021,7 +9831,7 @@
         <v>31.38999938964844</v>
       </c>
       <c r="F272">
-        <v>28.9512882232666</v>
+        <v>28.95129013061523</v>
       </c>
       <c r="G272">
         <v>699200</v>
@@ -9030,13 +9840,16 @@
         <v>0.0119277539143996</v>
       </c>
       <c r="I272">
-        <v>0.01585759796658115</v>
+        <v>0.06528837018355577</v>
       </c>
       <c r="J272">
         <v>0.01585759796658115</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <v>0.01585759796658115</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>43374</v>
       </c>
@@ -9062,13 +9875,16 @@
         <v>-0.09493467984007198</v>
       </c>
       <c r="I273">
-        <v>-0.09493467984007198</v>
+        <v>0.06220987768718252</v>
       </c>
       <c r="J273">
         <v>-0.09493467984007198</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273">
+        <v>-0.09493467984007198</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>43405</v>
       </c>
@@ -9085,7 +9901,7 @@
         <v>28.07999992370605</v>
       </c>
       <c r="F274">
-        <v>25.89844512939453</v>
+        <v>25.89844703674316</v>
       </c>
       <c r="G274">
         <v>765500</v>
@@ -9094,13 +9910,16 @@
         <v>-0.01161562567682006</v>
       </c>
       <c r="I274">
-        <v>-0.1045918565946334</v>
+        <v>0.06197693805006258</v>
       </c>
       <c r="J274">
         <v>-0.1045918565946334</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274">
+        <v>-0.1045918565946334</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>43435</v>
       </c>
@@ -9117,7 +9936,7 @@
         <v>26.52000045776367</v>
       </c>
       <c r="F275">
-        <v>24.57254791259766</v>
+        <v>24.57254600524902</v>
       </c>
       <c r="G275">
         <v>2201700</v>
@@ -9126,13 +9945,16 @@
         <v>-0.05555553668735524</v>
       </c>
       <c r="I275">
-        <v>-0.1505444893965893</v>
+        <v>0.06181678745319427</v>
       </c>
       <c r="J275">
         <v>-0.1505444893965893</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <v>-0.1505444893965893</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>43466</v>
       </c>
@@ -9149,7 +9971,7 @@
         <v>28.14999961853027</v>
       </c>
       <c r="F276">
-        <v>26.08284759521484</v>
+        <v>26.08284950256348</v>
       </c>
       <c r="G276">
         <v>730000</v>
@@ -9158,13 +9980,16 @@
         <v>0.06146301405094512</v>
       </c>
       <c r="I276">
-        <v>-0.1554155993984384</v>
+        <v>0.06000734775035917</v>
       </c>
       <c r="J276">
         <v>-0.1554155993984384</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <v>-0.1554155993984384</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>43497</v>
       </c>
@@ -9181,7 +10006,7 @@
         <v>29.35000038146973</v>
       </c>
       <c r="F277">
-        <v>27.19473075866699</v>
+        <v>27.19472885131836</v>
       </c>
       <c r="G277">
         <v>494100</v>
@@ -9190,13 +10015,16 @@
         <v>0.04262880210305675</v>
       </c>
       <c r="I277">
-        <v>-0.07208342838418258</v>
+        <v>0.05933217579914268</v>
       </c>
       <c r="J277">
         <v>-0.07208342838418258</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <v>-0.07208342838418258</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>43525</v>
       </c>
@@ -9213,7 +10041,7 @@
         <v>29.46999931335449</v>
       </c>
       <c r="F278">
-        <v>27.30591583251953</v>
+        <v>27.30591773986816</v>
       </c>
       <c r="G278">
         <v>778200</v>
@@ -9222,13 +10050,16 @@
         <v>0.004088549585182566</v>
       </c>
       <c r="I278">
-        <v>-0.06146497861856082</v>
+        <v>0.05879578116259784</v>
       </c>
       <c r="J278">
         <v>-0.06146497861856082</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <v>-0.06146497861856082</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>43556</v>
       </c>
@@ -9245,7 +10076,7 @@
         <v>30.88999938964844</v>
       </c>
       <c r="F279">
-        <v>28.62164306640625</v>
+        <v>28.62163925170898</v>
       </c>
       <c r="G279">
         <v>585600</v>
@@ -9254,13 +10085,16 @@
         <v>0.04818459821444465</v>
       </c>
       <c r="I279">
-        <v>-0.05477358931492571</v>
+        <v>0.05809431720265349</v>
       </c>
       <c r="J279">
         <v>-0.05477358931492571</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <v>-0.05477358931492571</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>43586</v>
       </c>
@@ -9277,7 +10111,7 @@
         <v>29</v>
       </c>
       <c r="F280">
-        <v>26.87042999267578</v>
+        <v>26.87042808532715</v>
       </c>
       <c r="G280">
         <v>987700</v>
@@ -9286,13 +10120,16 @@
         <v>-0.06118483091591764</v>
       </c>
       <c r="I280">
-        <v>-0.08862349848742812</v>
+        <v>0.05696263265117387</v>
       </c>
       <c r="J280">
         <v>-0.08862349848742812</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <v>-0.08862349848742812</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>43617</v>
       </c>
@@ -9318,13 +10155,16 @@
         <v>0.05689653857000954</v>
       </c>
       <c r="I281">
-        <v>0.004259474404219254</v>
+        <v>0.05678853031901832</v>
       </c>
       <c r="J281">
         <v>0.004259474404219254</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281">
+        <v>0.004259474404219254</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>43647</v>
       </c>
@@ -9341,7 +10181,7 @@
         <v>29.79000091552734</v>
       </c>
       <c r="F282">
-        <v>28.28965377807617</v>
+        <v>28.2896556854248</v>
       </c>
       <c r="G282">
         <v>2540200</v>
@@ -9350,13 +10190,16 @@
         <v>-0.02805868560216862</v>
       </c>
       <c r="I282">
-        <v>-0.06084484361935649</v>
+        <v>0.05612099140198491</v>
       </c>
       <c r="J282">
         <v>-0.06084484361935649</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282">
+        <v>-0.06084484361935649</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>43678</v>
       </c>
@@ -9373,7 +10216,7 @@
         <v>29.48999977111816</v>
       </c>
       <c r="F283">
-        <v>28.0047607421875</v>
+        <v>28.00476455688477</v>
       </c>
       <c r="G283">
         <v>1403600</v>
@@ -9382,13 +10225,16 @@
         <v>-0.01007053156056836</v>
       </c>
       <c r="I283">
-        <v>-0.04932303881583533</v>
+        <v>0.05572458416313603</v>
       </c>
       <c r="J283">
         <v>-0.04932303881583533</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283">
+        <v>-0.04932303881583533</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>43709</v>
       </c>
@@ -9405,7 +10251,7 @@
         <v>30.13999938964844</v>
       </c>
       <c r="F284">
-        <v>28.62202644348145</v>
+        <v>28.62202453613281</v>
       </c>
       <c r="G284">
         <v>696200</v>
@@ -9414,13 +10260,16 @@
         <v>0.02204135719142553</v>
       </c>
       <c r="I284">
-        <v>-0.03982160000972212</v>
+        <v>0.05545082673537395</v>
       </c>
       <c r="J284">
         <v>-0.03982160000972212</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <v>-0.03982160000972212</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>43739</v>
       </c>
@@ -9437,7 +10286,7 @@
         <v>31.22999954223633</v>
       </c>
       <c r="F285">
-        <v>29.65713119506836</v>
+        <v>29.65712928771973</v>
       </c>
       <c r="G285">
         <v>2269100</v>
@@ -9446,13 +10295,16 @@
         <v>0.03616457115663541</v>
       </c>
       <c r="I285">
-        <v>0.09926081344492133</v>
+        <v>0.05526240306885109</v>
       </c>
       <c r="J285">
         <v>0.09926081344492133</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285">
+        <v>0.09926081344492133</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>43770</v>
       </c>
@@ -9478,13 +10330,16 @@
         <v>0.01376882201340535</v>
       </c>
       <c r="I286">
-        <v>0.1274928751222575</v>
+        <v>0.05506358619502981</v>
       </c>
       <c r="J286">
         <v>0.1274928751222575</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286">
+        <v>0.1274928751222575</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>43800</v>
       </c>
@@ -9510,13 +10365,16 @@
         <v>0.03316485287811433</v>
       </c>
       <c r="I287">
-        <v>0.2334086923025251</v>
+        <v>0.05513036801483639</v>
       </c>
       <c r="J287">
         <v>0.2334086923025251</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <v>0.2334086923025251</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>43831</v>
       </c>
@@ -9542,13 +10400,16 @@
         <v>-0.04004889949887636</v>
       </c>
       <c r="I288">
-        <v>0.1154529322927815</v>
+        <v>0.05476488950118932</v>
       </c>
       <c r="J288">
         <v>0.1154529322927815</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <v>0.1154529322927815</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>43862</v>
       </c>
@@ -9565,7 +10426,7 @@
         <v>28.93000030517578</v>
       </c>
       <c r="F289">
-        <v>27.53211402893066</v>
+        <v>27.53211212158203</v>
       </c>
       <c r="G289">
         <v>2153200</v>
@@ -9574,13 +10435,16 @@
         <v>-0.07866239947012155</v>
       </c>
       <c r="I289">
-        <v>-0.01431005352078685</v>
+        <v>0.05526813723964061</v>
       </c>
       <c r="J289">
         <v>-0.01431005352078685</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <v>-0.01431005352078685</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>43891</v>
       </c>
@@ -9597,7 +10461,7 @@
         <v>23.44000053405762</v>
       </c>
       <c r="F290">
-        <v>22.30738830566406</v>
+        <v>22.3073902130127</v>
       </c>
       <c r="G290">
         <v>1285800</v>
@@ -9606,13 +10470,16 @@
         <v>-0.1897683965850482</v>
       </c>
       <c r="I290">
-        <v>-0.2046148259177036</v>
+        <v>0.05774649926610859</v>
       </c>
       <c r="J290">
         <v>-0.2046148259177036</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290">
+        <v>-0.2046148259177036</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>43922</v>
       </c>
@@ -9638,13 +10505,16 @@
         <v>0.04436855735850442</v>
       </c>
       <c r="I291">
-        <v>-0.2075105203647291</v>
+        <v>0.05760523699137893</v>
       </c>
       <c r="J291">
         <v>-0.2075105203647291</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291">
+        <v>-0.2075105203647291</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>43952</v>
       </c>
@@ -9670,13 +10540,16 @@
         <v>0.0592320584172279</v>
       </c>
       <c r="I292">
-        <v>-0.1058620584422144</v>
+        <v>0.05659423392429196</v>
       </c>
       <c r="J292">
         <v>-0.1058620584422144</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292">
+        <v>-0.1058620584422144</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>43983</v>
       </c>
@@ -9702,13 +10575,16 @@
         <v>0.05746238926270864</v>
       </c>
       <c r="I293">
-        <v>-0.1053833468984302</v>
+        <v>0.05660089016036716</v>
       </c>
       <c r="J293">
         <v>-0.1053833468984302</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293">
+        <v>-0.1053833468984302</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>44013</v>
       </c>
@@ -9734,13 +10610,16 @@
         <v>0.01932898195371346</v>
       </c>
       <c r="I294">
-        <v>-0.06176569640952356</v>
+        <v>0.05511724963325113</v>
       </c>
       <c r="J294">
         <v>-0.06176569640952356</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294">
+        <v>-0.06176569640952356</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>44044</v>
       </c>
@@ -9766,13 +10645,16 @@
         <v>0.04686938927312623</v>
       </c>
       <c r="I295">
-        <v>-0.0077992385222595</v>
+        <v>0.0548506386872671</v>
       </c>
       <c r="J295">
         <v>-0.0077992385222595</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <v>-0.0077992385222595</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>44075</v>
       </c>
@@ -9798,13 +10680,16 @@
         <v>-0.04511277117220525</v>
       </c>
       <c r="I296">
-        <v>-0.07299266423828821</v>
+        <v>0.05335476499099453</v>
       </c>
       <c r="J296">
         <v>-0.07299266423828821</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <v>-0.07299266423828821</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>44105</v>
       </c>
@@ -9830,13 +10715,16 @@
         <v>-0.04545456096951739</v>
       </c>
       <c r="I297">
-        <v>-0.1460134336465587</v>
+        <v>0.05331193937674603</v>
       </c>
       <c r="J297">
         <v>-0.1460134336465587</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <v>-0.1460134336465587</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>44136</v>
       </c>
@@ -9862,13 +10750,16 @@
         <v>0.2182227816094404</v>
       </c>
       <c r="I298">
-        <v>0.0262161034445656</v>
+        <v>0.0558508722433302</v>
       </c>
       <c r="J298">
         <v>0.0262161034445656</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298">
+        <v>0.0262161034445656</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>44166</v>
       </c>
@@ -9894,13 +10785,16 @@
         <v>0.02369949533048898</v>
       </c>
       <c r="I299">
-        <v>0.0168144069842433</v>
+        <v>0.05536125906813495</v>
       </c>
       <c r="J299">
         <v>0.0168144069842433</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <v>0.0168144069842433</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>44197</v>
       </c>
@@ -9926,13 +10820,16 @@
         <v>-0.02615751580845727</v>
       </c>
       <c r="I300">
-        <v>0.03152865551418449</v>
+        <v>0.05515845400397764</v>
       </c>
       <c r="J300">
         <v>0.03152865551418449</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300">
+        <v>0.03152865551418449</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>44228</v>
       </c>
@@ -9958,13 +10855,16 @@
         <v>0.04569310188716225</v>
       </c>
       <c r="I301">
-        <v>0.170756950383619</v>
+        <v>0.05522928715908745</v>
       </c>
       <c r="J301">
         <v>0.170756950383619</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <v>0.170756950383619</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>44256</v>
       </c>
@@ -9990,13 +10890,16 @@
         <v>0.02834375345274043</v>
       </c>
       <c r="I302">
-        <v>0.4859215459678741</v>
+        <v>0.05527594302096319</v>
       </c>
       <c r="J302">
         <v>0.4859215459678741</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302">
+        <v>0.4859215459678741</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>44287</v>
       </c>
@@ -10022,13 +10925,16 @@
         <v>0.06172832610260404</v>
       </c>
       <c r="I303">
-        <v>0.5106209245810338</v>
+        <v>0.05516105236565789</v>
       </c>
       <c r="J303">
         <v>0.5106209245810338</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303">
+        <v>0.5106209245810338</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>44317</v>
       </c>
@@ -10054,13 +10960,16 @@
         <v>0.05408328893340619</v>
       </c>
       <c r="I304">
-        <v>0.5032780209592087</v>
+        <v>0.05527152087965409</v>
       </c>
       <c r="J304">
         <v>0.5032780209592087</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304">
+        <v>0.5032780209592087</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>44348</v>
       </c>
@@ -10086,13 +10995,16 @@
         <v>-0.02898925298577382</v>
       </c>
       <c r="I305">
-        <v>0.3803792257041034</v>
+        <v>0.0553252378413375</v>
       </c>
       <c r="J305">
         <v>0.3803792257041034</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <v>0.3803792257041034</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>44378</v>
       </c>
@@ -10118,13 +11030,16 @@
         <v>0.01294588370464056</v>
       </c>
       <c r="I306">
-        <v>0.3717352095183177</v>
+        <v>0.05465101055338139</v>
       </c>
       <c r="J306">
         <v>0.3717352095183177</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306">
+        <v>0.3717352095183177</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>44409</v>
       </c>
@@ -10150,13 +11065,16 @@
         <v>0.008607146975588842</v>
       </c>
       <c r="I307">
-        <v>0.3215993802616275</v>
+        <v>0.05374727595382543</v>
       </c>
       <c r="J307">
         <v>0.3215993802616275</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <v>0.3215993802616275</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>44440</v>
       </c>
@@ -10182,13 +11100,16 @@
         <v>-0.03697948172200594</v>
       </c>
       <c r="I308">
-        <v>0.332856154854861</v>
+        <v>0.05178782724227504</v>
       </c>
       <c r="J308">
         <v>0.332856154854861</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308">
+        <v>0.332856154854861</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>44470</v>
       </c>
@@ -10214,13 +11135,16 @@
         <v>0.05558538135139646</v>
       </c>
       <c r="I309">
-        <v>0.4739408046808495</v>
+        <v>0.05076495923144191</v>
       </c>
       <c r="J309">
         <v>0.4739408046808495</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309">
+        <v>0.4739408046808495</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>44501</v>
       </c>
@@ -10246,42 +11170,83 @@
         <v>-0.03866701614506751</v>
       </c>
       <c r="I310">
-        <v>0.163127084126105</v>
+        <v>0.05071738380206989</v>
       </c>
       <c r="J310">
         <v>0.163127084126105</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310">
+        <v>0.163127084126105</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>44531</v>
       </c>
       <c r="B311">
-        <v>38.90999984741211</v>
+        <v>38.81000137329102</v>
       </c>
       <c r="C311">
-        <v>38.97999954223633</v>
+        <v>39.08000183105469</v>
       </c>
       <c r="D311">
-        <v>38.83499908447266</v>
+        <v>38.77999877929688</v>
       </c>
       <c r="E311">
-        <v>38.88999938964844</v>
+        <v>38.88000106811523</v>
       </c>
       <c r="F311">
-        <v>38.88999938964844</v>
+        <v>38.88000106811523</v>
       </c>
       <c r="G311">
-        <v>328496</v>
+        <v>1312200</v>
       </c>
       <c r="H311">
-        <v>0.02910818860734987</v>
+        <v>0.02884361275948066</v>
       </c>
       <c r="I311">
-        <v>0.1692724399348589</v>
+        <v>0.05052122346487367</v>
       </c>
       <c r="J311">
-        <v>0.1692724399348589</v>
+        <v>0.1689718289295139</v>
+      </c>
+      <c r="K311">
+        <v>0.1689718289295139</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B312">
+        <v>39.22000122070312</v>
+      </c>
+      <c r="C312">
+        <v>39.2599983215332</v>
+      </c>
+      <c r="D312">
+        <v>39.0099983215332</v>
+      </c>
+      <c r="E312">
+        <v>39.15000152587891</v>
+      </c>
+      <c r="F312">
+        <v>39.15000152587891</v>
+      </c>
+      <c r="G312">
+        <v>383748</v>
+      </c>
+      <c r="H312">
+        <v>0.006944456027422552</v>
+      </c>
+      <c r="I312">
+        <v>0.05025926312900846</v>
+      </c>
+      <c r="J312">
+        <v>0.2087064607476006</v>
+      </c>
+      <c r="K312">
+        <v>0.2087064607476006</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EWQ.xlsx
+++ b/etf_dfs/EWQ.xlsx
@@ -508,7 +508,7 @@
         <v>13.1875</v>
       </c>
       <c r="F2" t="n">
-        <v>6.278122425079346</v>
+        <v>6.278121948242188</v>
       </c>
       <c r="G2" t="n">
         <v>200</v>
@@ -535,7 +535,7 @@
         <v>13.375</v>
       </c>
       <c r="F3" t="n">
-        <v>6.367384433746338</v>
+        <v>6.36738395690918</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
@@ -564,7 +564,7 @@
         <v>13.25</v>
       </c>
       <c r="F4" t="n">
-        <v>6.307878017425537</v>
+        <v>6.307877540588379</v>
       </c>
       <c r="G4" t="n">
         <v>3000</v>
@@ -595,7 +595,7 @@
         <v>13.625</v>
       </c>
       <c r="F5" t="n">
-        <v>6.486398696899414</v>
+        <v>6.486400127410889</v>
       </c>
       <c r="G5" t="n">
         <v>200</v>
@@ -626,7 +626,7 @@
         <v>13.4375</v>
       </c>
       <c r="F6" t="n">
-        <v>6.39713716506958</v>
+        <v>6.397138595581055</v>
       </c>
       <c r="G6" t="n">
         <v>11000</v>
@@ -657,7 +657,7 @@
         <v>12.6875</v>
       </c>
       <c r="F7" t="n">
-        <v>6.185744762420654</v>
+        <v>6.185746669769287</v>
       </c>
       <c r="G7" t="n">
         <v>10800</v>
@@ -688,7 +688,7 @@
         <v>13.375</v>
       </c>
       <c r="F8" t="n">
-        <v>6.520933151245117</v>
+        <v>6.52093505859375</v>
       </c>
       <c r="G8" t="n">
         <v>9000</v>
@@ -719,7 +719,7 @@
         <v>13.6875</v>
       </c>
       <c r="F9" t="n">
-        <v>6.673291206359863</v>
+        <v>6.673293113708496</v>
       </c>
       <c r="G9" t="n">
         <v>35800</v>
@@ -750,7 +750,7 @@
         <v>14.3125</v>
       </c>
       <c r="F10" t="n">
-        <v>6.978009700775146</v>
+        <v>6.978008270263672</v>
       </c>
       <c r="G10" t="n">
         <v>400</v>
@@ -909,7 +909,7 @@
         <v>14.375</v>
       </c>
       <c r="F15" t="n">
-        <v>7.008481979370117</v>
+        <v>7.008480548858643</v>
       </c>
       <c r="G15" t="n">
         <v>3600</v>
@@ -979,7 +979,7 @@
         <v>15.6875</v>
       </c>
       <c r="F17" t="n">
-        <v>7.648384571075439</v>
+        <v>7.648385047912598</v>
       </c>
       <c r="G17" t="n">
         <v>4200</v>
@@ -1014,7 +1014,7 @@
         <v>16.125</v>
       </c>
       <c r="F18" t="n">
-        <v>7.861685276031494</v>
+        <v>7.861684799194336</v>
       </c>
       <c r="G18" t="n">
         <v>2400</v>
@@ -1049,7 +1049,7 @@
         <v>14.5</v>
       </c>
       <c r="F19" t="n">
-        <v>7.237646102905273</v>
+        <v>7.237645626068115</v>
       </c>
       <c r="G19" t="n">
         <v>2800</v>
@@ -1084,7 +1084,7 @@
         <v>16.0625</v>
       </c>
       <c r="F20" t="n">
-        <v>8.017565727233887</v>
+        <v>8.01756477355957</v>
       </c>
       <c r="G20" t="n">
         <v>900</v>
@@ -1119,7 +1119,7 @@
         <v>15.125</v>
       </c>
       <c r="F21" t="n">
-        <v>7.549615859985352</v>
+        <v>7.549612998962402</v>
       </c>
       <c r="G21" t="n">
         <v>38500</v>
@@ -1154,7 +1154,7 @@
         <v>15.1875</v>
       </c>
       <c r="F22" t="n">
-        <v>7.580811500549316</v>
+        <v>7.580809116363525</v>
       </c>
       <c r="G22" t="n">
         <v>5000</v>
@@ -1189,7 +1189,7 @@
         <v>15.8125</v>
       </c>
       <c r="F23" t="n">
-        <v>7.933188438415527</v>
+        <v>7.933190822601318</v>
       </c>
       <c r="G23" t="n">
         <v>40000</v>
@@ -1224,7 +1224,7 @@
         <v>16.125</v>
       </c>
       <c r="F24" t="n">
-        <v>8.089970588684082</v>
+        <v>8.089971542358398</v>
       </c>
       <c r="G24" t="n">
         <v>14700</v>
@@ -1294,7 +1294,7 @@
         <v>19.5625</v>
       </c>
       <c r="F26" t="n">
-        <v>9.814579010009766</v>
+        <v>9.814578056335449</v>
       </c>
       <c r="G26" t="n">
         <v>23500</v>
@@ -1329,7 +1329,7 @@
         <v>20.25</v>
       </c>
       <c r="F27" t="n">
-        <v>10.15950107574463</v>
+        <v>10.15949821472168</v>
       </c>
       <c r="G27" t="n">
         <v>16300</v>
@@ -1364,7 +1364,7 @@
         <v>21.3125</v>
       </c>
       <c r="F28" t="n">
-        <v>10.69256019592285</v>
+        <v>10.69255828857422</v>
       </c>
       <c r="G28" t="n">
         <v>7100</v>
@@ -1399,7 +1399,7 @@
         <v>22.0625</v>
       </c>
       <c r="F29" t="n">
-        <v>11.06884098052979</v>
+        <v>11.06884002685547</v>
       </c>
       <c r="G29" t="n">
         <v>32600</v>
@@ -1434,7 +1434,7 @@
         <v>21.875</v>
       </c>
       <c r="F30" t="n">
-        <v>10.97476768493652</v>
+        <v>10.97477054595947</v>
       </c>
       <c r="G30" t="n">
         <v>43200</v>
@@ -1469,7 +1469,7 @@
         <v>18.375</v>
       </c>
       <c r="F31" t="n">
-        <v>9.406472206115723</v>
+        <v>9.406469345092773</v>
       </c>
       <c r="G31" t="n">
         <v>50000</v>
@@ -1504,7 +1504,7 @@
         <v>17.75</v>
       </c>
       <c r="F32" t="n">
-        <v>9.086523056030273</v>
+        <v>9.086522102355957</v>
       </c>
       <c r="G32" t="n">
         <v>31200</v>
@@ -1574,7 +1574,7 @@
         <v>20.625</v>
       </c>
       <c r="F34" t="n">
-        <v>10.55828285217285</v>
+        <v>10.55828380584717</v>
       </c>
       <c r="G34" t="n">
         <v>19900</v>
@@ -1609,7 +1609,7 @@
         <v>21.625</v>
       </c>
       <c r="F35" t="n">
-        <v>11.27297878265381</v>
+        <v>11.27298069000244</v>
       </c>
       <c r="G35" t="n">
         <v>5800</v>
@@ -1644,7 +1644,7 @@
         <v>22.625</v>
       </c>
       <c r="F36" t="n">
-        <v>11.79427146911621</v>
+        <v>11.79427242279053</v>
       </c>
       <c r="G36" t="n">
         <v>22700</v>
@@ -1679,7 +1679,7 @@
         <v>20.875</v>
       </c>
       <c r="F37" t="n">
-        <v>10.88200855255127</v>
+        <v>10.88200759887695</v>
       </c>
       <c r="G37" t="n">
         <v>4500</v>
@@ -1714,7 +1714,7 @@
         <v>21.125</v>
       </c>
       <c r="F38" t="n">
-        <v>11.01233100891113</v>
+        <v>11.0123348236084</v>
       </c>
       <c r="G38" t="n">
         <v>13300</v>
@@ -1749,7 +1749,7 @@
         <v>21.6875</v>
       </c>
       <c r="F39" t="n">
-        <v>11.30556011199951</v>
+        <v>11.30556201934814</v>
       </c>
       <c r="G39" t="n">
         <v>6600</v>
@@ -1784,7 +1784,7 @@
         <v>21.375</v>
       </c>
       <c r="F40" t="n">
-        <v>11.14265727996826</v>
+        <v>11.14265537261963</v>
       </c>
       <c r="G40" t="n">
         <v>3600</v>
@@ -1819,7 +1819,7 @@
         <v>22.5</v>
       </c>
       <c r="F41" t="n">
-        <v>11.72910976409912</v>
+        <v>11.72911071777344</v>
       </c>
       <c r="G41" t="n">
         <v>17300</v>
@@ -1854,7 +1854,7 @@
         <v>22.375</v>
       </c>
       <c r="F42" t="n">
-        <v>11.66395092010498</v>
+        <v>11.66394996643066</v>
       </c>
       <c r="G42" t="n">
         <v>3800</v>
@@ -1889,7 +1889,7 @@
         <v>22.9375</v>
       </c>
       <c r="F43" t="n">
-        <v>12.08969783782959</v>
+        <v>12.08969879150391</v>
       </c>
       <c r="G43" t="n">
         <v>10000</v>
@@ -1924,7 +1924,7 @@
         <v>23.0625</v>
       </c>
       <c r="F44" t="n">
-        <v>12.15558052062988</v>
+        <v>12.15557956695557</v>
       </c>
       <c r="G44" t="n">
         <v>33500</v>
@@ -1994,7 +1994,7 @@
         <v>25</v>
       </c>
       <c r="F46" t="n">
-        <v>13.17678451538086</v>
+        <v>13.17677974700928</v>
       </c>
       <c r="G46" t="n">
         <v>6600</v>
@@ -2029,7 +2029,7 @@
         <v>27.625</v>
       </c>
       <c r="F47" t="n">
-        <v>14.88043212890625</v>
+        <v>14.8804292678833</v>
       </c>
       <c r="G47" t="n">
         <v>53300</v>
@@ -2064,7 +2064,7 @@
         <v>25.3125</v>
       </c>
       <c r="F48" t="n">
-        <v>13.63478469848633</v>
+        <v>13.63478660583496</v>
       </c>
       <c r="G48" t="n">
         <v>37400</v>
@@ -2099,7 +2099,7 @@
         <v>28.25</v>
       </c>
       <c r="F49" t="n">
-        <v>15.2170877456665</v>
+        <v>15.21709632873535</v>
       </c>
       <c r="G49" t="n">
         <v>77700</v>
@@ -2134,7 +2134,7 @@
         <v>27.75</v>
       </c>
       <c r="F50" t="n">
-        <v>14.94776344299316</v>
+        <v>14.94776439666748</v>
       </c>
       <c r="G50" t="n">
         <v>16500</v>
@@ -2169,7 +2169,7 @@
         <v>27.0625</v>
       </c>
       <c r="F51" t="n">
-        <v>14.57744026184082</v>
+        <v>14.57743549346924</v>
       </c>
       <c r="G51" t="n">
         <v>8800</v>
@@ -2204,7 +2204,7 @@
         <v>28.125</v>
       </c>
       <c r="F52" t="n">
-        <v>15.14976215362549</v>
+        <v>15.14976119995117</v>
       </c>
       <c r="G52" t="n">
         <v>104400</v>
@@ -2239,7 +2239,7 @@
         <v>28.8125</v>
       </c>
       <c r="F53" t="n">
-        <v>15.52008628845215</v>
+        <v>15.52009010314941</v>
       </c>
       <c r="G53" t="n">
         <v>41000</v>
@@ -2274,7 +2274,7 @@
         <v>28.25</v>
       </c>
       <c r="F54" t="n">
-        <v>15.2170877456665</v>
+        <v>15.21709632873535</v>
       </c>
       <c r="G54" t="n">
         <v>65100</v>
@@ -2309,7 +2309,7 @@
         <v>26.5</v>
       </c>
       <c r="F55" t="n">
-        <v>14.94449806213379</v>
+        <v>14.94449901580811</v>
       </c>
       <c r="G55" t="n">
         <v>28900</v>
@@ -2344,7 +2344,7 @@
         <v>24.75</v>
       </c>
       <c r="F56" t="n">
-        <v>13.957594871521</v>
+        <v>13.95759582519531</v>
       </c>
       <c r="G56" t="n">
         <v>41600</v>
@@ -2449,7 +2449,7 @@
         <v>24.6875</v>
       </c>
       <c r="F59" t="n">
-        <v>15.06730270385742</v>
+        <v>15.06731224060059</v>
       </c>
       <c r="G59" t="n">
         <v>55500</v>
@@ -2484,7 +2484,7 @@
         <v>24.98999977111816</v>
       </c>
       <c r="F60" t="n">
-        <v>15.25192642211914</v>
+        <v>15.25193214416504</v>
       </c>
       <c r="G60" t="n">
         <v>105200</v>
@@ -2554,7 +2554,7 @@
         <v>20.29999923706055</v>
       </c>
       <c r="F62" t="n">
-        <v>12.38951969146729</v>
+        <v>12.38952159881592</v>
       </c>
       <c r="G62" t="n">
         <v>43400</v>
@@ -2589,7 +2589,7 @@
         <v>22.20000076293945</v>
       </c>
       <c r="F63" t="n">
-        <v>13.54913234710693</v>
+        <v>13.54913330078125</v>
       </c>
       <c r="G63" t="n">
         <v>6400</v>
@@ -2624,7 +2624,7 @@
         <v>20.76000022888184</v>
       </c>
       <c r="F64" t="n">
-        <v>12.6702709197998</v>
+        <v>12.67027282714844</v>
       </c>
       <c r="G64" t="n">
         <v>13300</v>
@@ -2659,7 +2659,7 @@
         <v>20</v>
       </c>
       <c r="F65" t="n">
-        <v>12.20642471313477</v>
+        <v>12.20642852783203</v>
       </c>
       <c r="G65" t="n">
         <v>112000</v>
@@ -2694,7 +2694,7 @@
         <v>20.05999946594238</v>
       </c>
       <c r="F66" t="n">
-        <v>12.2430477142334</v>
+        <v>12.24304389953613</v>
       </c>
       <c r="G66" t="n">
         <v>52600</v>
@@ -2729,7 +2729,7 @@
         <v>19.60000038146973</v>
       </c>
       <c r="F67" t="n">
-        <v>11.99384021759033</v>
+        <v>11.9938440322876</v>
       </c>
       <c r="G67" t="n">
         <v>13000</v>
@@ -2764,7 +2764,7 @@
         <v>16.8799991607666</v>
       </c>
       <c r="F68" t="n">
-        <v>10.3293924331665</v>
+        <v>10.32939052581787</v>
       </c>
       <c r="G68" t="n">
         <v>5500</v>
@@ -2799,7 +2799,7 @@
         <v>17.70000076293945</v>
       </c>
       <c r="F69" t="n">
-        <v>10.83117961883545</v>
+        <v>10.83117866516113</v>
       </c>
       <c r="G69" t="n">
         <v>52600</v>
@@ -2834,7 +2834,7 @@
         <v>18.11000061035156</v>
       </c>
       <c r="F70" t="n">
-        <v>11.08206558227539</v>
+        <v>11.08206367492676</v>
       </c>
       <c r="G70" t="n">
         <v>5400</v>
@@ -2869,7 +2869,7 @@
         <v>18.75</v>
       </c>
       <c r="F71" t="n">
-        <v>11.47370338439941</v>
+        <v>11.47369766235352</v>
       </c>
       <c r="G71" t="n">
         <v>19600</v>
@@ -2904,7 +2904,7 @@
         <v>17.73999977111816</v>
       </c>
       <c r="F72" t="n">
-        <v>10.85565376281738</v>
+        <v>10.85565280914307</v>
       </c>
       <c r="G72" t="n">
         <v>51800</v>
@@ -2939,7 +2939,7 @@
         <v>17.82999992370605</v>
       </c>
       <c r="F73" t="n">
-        <v>10.91072559356689</v>
+        <v>10.91072463989258</v>
       </c>
       <c r="G73" t="n">
         <v>23200</v>
@@ -2974,7 +2974,7 @@
         <v>18.75</v>
       </c>
       <c r="F74" t="n">
-        <v>11.47370338439941</v>
+        <v>11.47369766235352</v>
       </c>
       <c r="G74" t="n">
         <v>500</v>
@@ -3009,7 +3009,7 @@
         <v>18.64999961853027</v>
       </c>
       <c r="F75" t="n">
-        <v>11.41250896453857</v>
+        <v>11.41251087188721</v>
       </c>
       <c r="G75" t="n">
         <v>38700</v>
@@ -3044,7 +3044,7 @@
         <v>18.60000038146973</v>
       </c>
       <c r="F76" t="n">
-        <v>11.38191413879395</v>
+        <v>11.38191318511963</v>
       </c>
       <c r="G76" t="n">
         <v>20300</v>
@@ -3114,7 +3114,7 @@
         <v>15.60000038146973</v>
       </c>
       <c r="F78" t="n">
-        <v>9.546119689941406</v>
+        <v>9.546121597290039</v>
       </c>
       <c r="G78" t="n">
         <v>137500</v>
@@ -3149,7 +3149,7 @@
         <v>15.47999954223633</v>
       </c>
       <c r="F79" t="n">
-        <v>9.472687721252441</v>
+        <v>9.472686767578125</v>
       </c>
       <c r="G79" t="n">
         <v>72700</v>
@@ -3184,7 +3184,7 @@
         <v>13.15999984741211</v>
       </c>
       <c r="F80" t="n">
-        <v>8.053010940551758</v>
+        <v>8.053008079528809</v>
       </c>
       <c r="G80" t="n">
         <v>5700</v>
@@ -3219,7 +3219,7 @@
         <v>14.65999984741211</v>
       </c>
       <c r="F81" t="n">
-        <v>8.970906257629395</v>
+        <v>8.970905303955078</v>
       </c>
       <c r="G81" t="n">
         <v>18800</v>
@@ -3254,7 +3254,7 @@
         <v>15.52000045776367</v>
       </c>
       <c r="F82" t="n">
-        <v>9.497164726257324</v>
+        <v>9.497167587280273</v>
       </c>
       <c r="G82" t="n">
         <v>16900</v>
@@ -3289,7 +3289,7 @@
         <v>14.80000019073486</v>
       </c>
       <c r="F83" t="n">
-        <v>9.166123390197754</v>
+        <v>9.16612434387207</v>
       </c>
       <c r="G83" t="n">
         <v>8500</v>
@@ -3324,7 +3324,7 @@
         <v>14.27000045776367</v>
       </c>
       <c r="F84" t="n">
-        <v>8.837878227233887</v>
+        <v>8.837876319885254</v>
       </c>
       <c r="G84" t="n">
         <v>1900</v>
@@ -3359,7 +3359,7 @@
         <v>13.57999992370605</v>
       </c>
       <c r="F85" t="n">
-        <v>8.410539627075195</v>
+        <v>8.410537719726562</v>
       </c>
       <c r="G85" t="n">
         <v>60200</v>
@@ -3394,7 +3394,7 @@
         <v>13.02000045776367</v>
       </c>
       <c r="F86" t="n">
-        <v>8.063713073730469</v>
+        <v>8.063714027404785</v>
       </c>
       <c r="G86" t="n">
         <v>6100</v>
@@ -3429,7 +3429,7 @@
         <v>15.27000045776367</v>
       </c>
       <c r="F87" t="n">
-        <v>9.457210540771484</v>
+        <v>9.457212448120117</v>
       </c>
       <c r="G87" t="n">
         <v>2400</v>
@@ -3464,7 +3464,7 @@
         <v>16.19000053405762</v>
       </c>
       <c r="F88" t="n">
-        <v>10.02699947357178</v>
+        <v>10.02699756622314</v>
       </c>
       <c r="G88" t="n">
         <v>73600</v>
@@ -3499,7 +3499,7 @@
         <v>16.5</v>
       </c>
       <c r="F89" t="n">
-        <v>10.21899223327637</v>
+        <v>10.21899127960205</v>
       </c>
       <c r="G89" t="n">
         <v>25300</v>
@@ -3534,7 +3534,7 @@
         <v>16.82999992370605</v>
       </c>
       <c r="F90" t="n">
-        <v>10.42337131500244</v>
+        <v>10.42336845397949</v>
       </c>
       <c r="G90" t="n">
         <v>5700</v>
@@ -3569,7 +3569,7 @@
         <v>16.8700008392334</v>
       </c>
       <c r="F91" t="n">
-        <v>10.44814491271973</v>
+        <v>10.44814395904541</v>
       </c>
       <c r="G91" t="n">
         <v>96900</v>
@@ -3604,7 +3604,7 @@
         <v>17.04999923706055</v>
       </c>
       <c r="F92" t="n">
-        <v>10.5596227645874</v>
+        <v>10.55962181091309</v>
       </c>
       <c r="G92" t="n">
         <v>80800</v>
@@ -3639,7 +3639,7 @@
         <v>18.04999923706055</v>
       </c>
       <c r="F93" t="n">
-        <v>11.17895793914795</v>
+        <v>11.17895221710205</v>
       </c>
       <c r="G93" t="n">
         <v>13100</v>
@@ -3674,7 +3674,7 @@
         <v>19.04999923706055</v>
       </c>
       <c r="F94" t="n">
-        <v>11.7982873916626</v>
+        <v>11.79828548431396</v>
       </c>
       <c r="G94" t="n">
         <v>2700</v>
@@ -3709,7 +3709,7 @@
         <v>20.38999938964844</v>
       </c>
       <c r="F95" t="n">
-        <v>12.92857360839844</v>
+        <v>12.92857646942139</v>
       </c>
       <c r="G95" t="n">
         <v>1500</v>
@@ -3744,7 +3744,7 @@
         <v>20.70999908447266</v>
       </c>
       <c r="F96" t="n">
-        <v>13.13147449493408</v>
+        <v>13.13147258758545</v>
       </c>
       <c r="G96" t="n">
         <v>4700</v>
@@ -3779,7 +3779,7 @@
         <v>21.20999908447266</v>
       </c>
       <c r="F97" t="n">
-        <v>13.44850921630859</v>
+        <v>13.44850730895996</v>
       </c>
       <c r="G97" t="n">
         <v>15800</v>
@@ -3884,7 +3884,7 @@
         <v>20.64999961853027</v>
       </c>
       <c r="F100" t="n">
-        <v>13.09343147277832</v>
+        <v>13.09343242645264</v>
       </c>
       <c r="G100" t="n">
         <v>68700</v>
@@ -3919,7 +3919,7 @@
         <v>21.17000007629395</v>
       </c>
       <c r="F101" t="n">
-        <v>13.42314529418945</v>
+        <v>13.42314624786377</v>
       </c>
       <c r="G101" t="n">
         <v>9300</v>
@@ -3954,7 +3954,7 @@
         <v>20.43000030517578</v>
       </c>
       <c r="F102" t="n">
-        <v>12.95394134521484</v>
+        <v>12.95393943786621</v>
       </c>
       <c r="G102" t="n">
         <v>10600</v>
@@ -3989,7 +3989,7 @@
         <v>20.48999977111816</v>
       </c>
       <c r="F103" t="n">
-        <v>12.99198246002197</v>
+        <v>12.99198341369629</v>
       </c>
       <c r="G103" t="n">
         <v>5800</v>
@@ -4024,7 +4024,7 @@
         <v>21.13999938964844</v>
       </c>
       <c r="F104" t="n">
-        <v>13.4041223526001</v>
+        <v>13.40412330627441</v>
       </c>
       <c r="G104" t="n">
         <v>28100</v>
@@ -4059,7 +4059,7 @@
         <v>22.19000053405762</v>
       </c>
       <c r="F105" t="n">
-        <v>14.06989669799805</v>
+        <v>14.06989479064941</v>
       </c>
       <c r="G105" t="n">
         <v>2000</v>
@@ -4094,7 +4094,7 @@
         <v>23.3700008392334</v>
       </c>
       <c r="F106" t="n">
-        <v>14.81808853149414</v>
+        <v>14.81809043884277</v>
       </c>
       <c r="G106" t="n">
         <v>10200</v>
@@ -4129,7 +4129,7 @@
         <v>23.8799991607666</v>
       </c>
       <c r="F107" t="n">
-        <v>15.33492660522461</v>
+        <v>15.33492755889893</v>
       </c>
       <c r="G107" t="n">
         <v>14000</v>
@@ -4164,7 +4164,7 @@
         <v>23.51000022888184</v>
       </c>
       <c r="F108" t="n">
-        <v>15.09732818603516</v>
+        <v>15.09732246398926</v>
       </c>
       <c r="G108" t="n">
         <v>16700</v>
@@ -4269,7 +4269,7 @@
         <v>23.3700008392334</v>
       </c>
       <c r="F111" t="n">
-        <v>15.00742435455322</v>
+        <v>15.00742340087891</v>
       </c>
       <c r="G111" t="n">
         <v>39400</v>
@@ -4304,7 +4304,7 @@
         <v>23.81999969482422</v>
       </c>
       <c r="F112" t="n">
-        <v>15.29639530181885</v>
+        <v>15.29639625549316</v>
       </c>
       <c r="G112" t="n">
         <v>54600</v>
@@ -4339,7 +4339,7 @@
         <v>24.04000091552734</v>
       </c>
       <c r="F113" t="n">
-        <v>15.43767261505127</v>
+        <v>15.43767356872559</v>
       </c>
       <c r="G113" t="n">
         <v>9200</v>
@@ -4409,7 +4409,7 @@
         <v>25.56999969482422</v>
       </c>
       <c r="F115" t="n">
-        <v>16.42018890380859</v>
+        <v>16.42018699645996</v>
       </c>
       <c r="G115" t="n">
         <v>19800</v>
@@ -4444,7 +4444,7 @@
         <v>25.95999908447266</v>
       </c>
       <c r="F116" t="n">
-        <v>16.67063331604004</v>
+        <v>16.67063140869141</v>
       </c>
       <c r="G116" t="n">
         <v>21500</v>
@@ -4514,7 +4514,7 @@
         <v>25.29999923706055</v>
       </c>
       <c r="F118" t="n">
-        <v>16.24680137634277</v>
+        <v>16.24679946899414</v>
       </c>
       <c r="G118" t="n">
         <v>423900</v>
@@ -4549,7 +4549,7 @@
         <v>25.97999954223633</v>
       </c>
       <c r="F119" t="n">
-        <v>16.8882942199707</v>
+        <v>16.88829612731934</v>
       </c>
       <c r="G119" t="n">
         <v>17300</v>
@@ -4584,7 +4584,7 @@
         <v>28.04999923706055</v>
       </c>
       <c r="F120" t="n">
-        <v>18.23390197753906</v>
+        <v>18.2338981628418</v>
       </c>
       <c r="G120" t="n">
         <v>26900</v>
@@ -4619,7 +4619,7 @@
         <v>27.6299991607666</v>
       </c>
       <c r="F121" t="n">
-        <v>17.96087837219238</v>
+        <v>17.96088218688965</v>
       </c>
       <c r="G121" t="n">
         <v>49400</v>
@@ -4654,7 +4654,7 @@
         <v>29.20999908447266</v>
       </c>
       <c r="F122" t="n">
-        <v>18.98795890808105</v>
+        <v>18.98796081542969</v>
       </c>
       <c r="G122" t="n">
         <v>30900</v>
@@ -4689,7 +4689,7 @@
         <v>30.29999923706055</v>
       </c>
       <c r="F123" t="n">
-        <v>19.69651412963867</v>
+        <v>19.69651222229004</v>
       </c>
       <c r="G123" t="n">
         <v>53300</v>
@@ -4724,7 +4724,7 @@
         <v>29.68000030517578</v>
       </c>
       <c r="F124" t="n">
-        <v>19.29348373413086</v>
+        <v>19.29349136352539</v>
       </c>
       <c r="G124" t="n">
         <v>46600</v>
@@ -4759,7 +4759,7 @@
         <v>29.95000076293945</v>
       </c>
       <c r="F125" t="n">
-        <v>19.4689998626709</v>
+        <v>19.468994140625</v>
       </c>
       <c r="G125" t="n">
         <v>96800</v>
@@ -4794,7 +4794,7 @@
         <v>30.20000076293945</v>
       </c>
       <c r="F126" t="n">
-        <v>19.63150596618652</v>
+        <v>19.63150978088379</v>
       </c>
       <c r="G126" t="n">
         <v>17800</v>
@@ -4829,7 +4829,7 @@
         <v>31.29000091552734</v>
       </c>
       <c r="F127" t="n">
-        <v>20.34006309509277</v>
+        <v>20.34006500244141</v>
       </c>
       <c r="G127" t="n">
         <v>142500</v>
@@ -4864,7 +4864,7 @@
         <v>31.52000045776367</v>
       </c>
       <c r="F128" t="n">
-        <v>20.48957443237305</v>
+        <v>20.48956871032715</v>
       </c>
       <c r="G128" t="n">
         <v>33700</v>
@@ -4899,7 +4899,7 @@
         <v>32.18999862670898</v>
       </c>
       <c r="F129" t="n">
-        <v>20.92510604858398</v>
+        <v>20.92510795593262</v>
       </c>
       <c r="G129" t="n">
         <v>30500</v>
@@ -4934,7 +4934,7 @@
         <v>33.65000152587891</v>
       </c>
       <c r="F130" t="n">
-        <v>21.87418174743652</v>
+        <v>21.87418365478516</v>
       </c>
       <c r="G130" t="n">
         <v>267100</v>
@@ -4969,7 +4969,7 @@
         <v>34.22999954223633</v>
       </c>
       <c r="F131" t="n">
-        <v>22.55544853210449</v>
+        <v>22.55544090270996</v>
       </c>
       <c r="G131" t="n">
         <v>34000</v>
@@ -5004,7 +5004,7 @@
         <v>34.34999847412109</v>
       </c>
       <c r="F132" t="n">
-        <v>22.634521484375</v>
+        <v>22.63451766967773</v>
       </c>
       <c r="G132" t="n">
         <v>154300</v>
@@ -5039,7 +5039,7 @@
         <v>34.09000015258789</v>
       </c>
       <c r="F133" t="n">
-        <v>22.46319007873535</v>
+        <v>22.46319580078125</v>
       </c>
       <c r="G133" t="n">
         <v>245500</v>
@@ -5074,7 +5074,7 @@
         <v>35.18000030517578</v>
       </c>
       <c r="F134" t="n">
-        <v>23.18143463134766</v>
+        <v>23.18143844604492</v>
       </c>
       <c r="G134" t="n">
         <v>336000</v>
@@ -5109,7 +5109,7 @@
         <v>37.84999847412109</v>
       </c>
       <c r="F135" t="n">
-        <v>24.9408016204834</v>
+        <v>24.94079971313477</v>
       </c>
       <c r="G135" t="n">
         <v>122800</v>
@@ -5144,7 +5144,7 @@
         <v>38.91999816894531</v>
       </c>
       <c r="F136" t="n">
-        <v>25.64586639404297</v>
+        <v>25.64586067199707</v>
       </c>
       <c r="G136" t="n">
         <v>305500</v>
@@ -5179,7 +5179,7 @@
         <v>38.40000152587891</v>
       </c>
       <c r="F137" t="n">
-        <v>25.30321502685547</v>
+        <v>25.30322074890137</v>
       </c>
       <c r="G137" t="n">
         <v>164900</v>
@@ -5249,7 +5249,7 @@
         <v>36.61000061035156</v>
       </c>
       <c r="F139" t="n">
-        <v>24.12371635437012</v>
+        <v>24.12371444702148</v>
       </c>
       <c r="G139" t="n">
         <v>238000</v>
@@ -5319,7 +5319,7 @@
         <v>39.88999938964844</v>
       </c>
       <c r="F141" t="n">
-        <v>26.28504180908203</v>
+        <v>26.28503799438477</v>
       </c>
       <c r="G141" t="n">
         <v>95700</v>
@@ -5354,7 +5354,7 @@
         <v>39.0099983215332</v>
       </c>
       <c r="F142" t="n">
-        <v>25.70517539978027</v>
+        <v>25.70516777038574</v>
       </c>
       <c r="G142" t="n">
         <v>252600</v>
@@ -5424,7 +5424,7 @@
         <v>34</v>
       </c>
       <c r="F144" t="n">
-        <v>22.61394119262695</v>
+        <v>22.61393928527832</v>
       </c>
       <c r="G144" t="n">
         <v>247400</v>
@@ -5459,7 +5459,7 @@
         <v>33.93000030517578</v>
       </c>
       <c r="F145" t="n">
-        <v>22.5673828125</v>
+        <v>22.56737899780273</v>
       </c>
       <c r="G145" t="n">
         <v>294400</v>
@@ -5494,7 +5494,7 @@
         <v>34.93999862670898</v>
       </c>
       <c r="F146" t="n">
-        <v>23.23915672302246</v>
+        <v>23.23915100097656</v>
       </c>
       <c r="G146" t="n">
         <v>256300</v>
@@ -5529,7 +5529,7 @@
         <v>36.45999908447266</v>
       </c>
       <c r="F147" t="n">
-        <v>24.25012588500977</v>
+        <v>24.2501277923584</v>
       </c>
       <c r="G147" t="n">
         <v>128200</v>
@@ -5564,7 +5564,7 @@
         <v>37.5</v>
       </c>
       <c r="F148" t="n">
-        <v>24.94184684753418</v>
+        <v>24.94184875488281</v>
       </c>
       <c r="G148" t="n">
         <v>139200</v>
@@ -5634,7 +5634,7 @@
         <v>31.56999969482422</v>
       </c>
       <c r="F150" t="n">
-        <v>21.80192756652832</v>
+        <v>21.80193138122559</v>
       </c>
       <c r="G150" t="n">
         <v>215500</v>
@@ -5669,7 +5669,7 @@
         <v>30.51000022888184</v>
       </c>
       <c r="F151" t="n">
-        <v>21.06989860534668</v>
+        <v>21.06990623474121</v>
       </c>
       <c r="G151" t="n">
         <v>51300</v>
@@ -5704,7 +5704,7 @@
         <v>26.75</v>
       </c>
       <c r="F152" t="n">
-        <v>18.47328567504883</v>
+        <v>18.47328186035156</v>
       </c>
       <c r="G152" t="n">
         <v>151900</v>
@@ -5739,7 +5739,7 @@
         <v>20.5</v>
       </c>
       <c r="F153" t="n">
-        <v>14.15709209442139</v>
+        <v>14.15709590911865</v>
       </c>
       <c r="G153" t="n">
         <v>195100</v>
@@ -5774,7 +5774,7 @@
         <v>19.35000038146973</v>
       </c>
       <c r="F154" t="n">
-        <v>13.36291980743408</v>
+        <v>13.36291694641113</v>
       </c>
       <c r="G154" t="n">
         <v>139800</v>
@@ -5844,7 +5844,7 @@
         <v>17.44000053405762</v>
       </c>
       <c r="F156" t="n">
-        <v>12.31303119659424</v>
+        <v>12.31303310394287</v>
       </c>
       <c r="G156" t="n">
         <v>229800</v>
@@ -5879,7 +5879,7 @@
         <v>15.72999954223633</v>
       </c>
       <c r="F157" t="n">
-        <v>11.10573196411133</v>
+        <v>11.10573101043701</v>
       </c>
       <c r="G157" t="n">
         <v>53900</v>
@@ -5914,7 +5914,7 @@
         <v>17.20000076293945</v>
       </c>
       <c r="F158" t="n">
-        <v>12.14358520507812</v>
+        <v>12.14358425140381</v>
       </c>
       <c r="G158" t="n">
         <v>75300</v>
@@ -5949,7 +5949,7 @@
         <v>19.14999961853027</v>
       </c>
       <c r="F159" t="n">
-        <v>13.5203275680542</v>
+        <v>13.52032852172852</v>
       </c>
       <c r="G159" t="n">
         <v>83400</v>
@@ -5984,7 +5984,7 @@
         <v>21.94000053405762</v>
       </c>
       <c r="F160" t="n">
-        <v>15.49013423919678</v>
+        <v>15.49013042449951</v>
       </c>
       <c r="G160" t="n">
         <v>264800</v>
@@ -6089,7 +6089,7 @@
         <v>24.36000061035156</v>
       </c>
       <c r="F163" t="n">
-        <v>17.63548851013184</v>
+        <v>17.63549041748047</v>
       </c>
       <c r="G163" t="n">
         <v>166200</v>
@@ -6124,7 +6124,7 @@
         <v>25.96999931335449</v>
       </c>
       <c r="F164" t="n">
-        <v>18.80105018615723</v>
+        <v>18.80104637145996</v>
       </c>
       <c r="G164" t="n">
         <v>203200</v>
@@ -6159,7 +6159,7 @@
         <v>24.5</v>
       </c>
       <c r="F165" t="n">
-        <v>17.73683929443359</v>
+        <v>17.73683738708496</v>
       </c>
       <c r="G165" t="n">
         <v>330300</v>
@@ -6194,7 +6194,7 @@
         <v>25.86000061035156</v>
       </c>
       <c r="F166" t="n">
-        <v>18.72141265869141</v>
+        <v>18.72141647338867</v>
       </c>
       <c r="G166" t="n">
         <v>1474100</v>
@@ -6229,7 +6229,7 @@
         <v>25.85000038146973</v>
       </c>
       <c r="F167" t="n">
-        <v>18.8023567199707</v>
+        <v>18.80236053466797</v>
       </c>
       <c r="G167" t="n">
         <v>44000</v>
@@ -6264,7 +6264,7 @@
         <v>23.82999992370605</v>
       </c>
       <c r="F168" t="n">
-        <v>17.33308219909668</v>
+        <v>17.33308029174805</v>
       </c>
       <c r="G168" t="n">
         <v>255300</v>
@@ -6334,7 +6334,7 @@
         <v>25.05999946594238</v>
       </c>
       <c r="F170" t="n">
-        <v>18.22773742675781</v>
+        <v>18.22773361206055</v>
       </c>
       <c r="G170" t="n">
         <v>239500</v>
@@ -6369,7 +6369,7 @@
         <v>23.55999946594238</v>
       </c>
       <c r="F171" t="n">
-        <v>17.13669204711914</v>
+        <v>17.13669586181641</v>
       </c>
       <c r="G171" t="n">
         <v>145100</v>
@@ -6404,7 +6404,7 @@
         <v>20.55999946594238</v>
       </c>
       <c r="F172" t="n">
-        <v>14.9546012878418</v>
+        <v>14.95459938049316</v>
       </c>
       <c r="G172" t="n">
         <v>916000</v>
@@ -6474,7 +6474,7 @@
         <v>22.39999961853027</v>
       </c>
       <c r="F174" t="n">
-        <v>16.66543388366699</v>
+        <v>16.66543579101562</v>
       </c>
       <c r="G174" t="n">
         <v>164200</v>
@@ -6579,7 +6579,7 @@
         <v>25.31999969482422</v>
       </c>
       <c r="F177" t="n">
-        <v>18.83789253234863</v>
+        <v>18.83789443969727</v>
       </c>
       <c r="G177" t="n">
         <v>110700</v>
@@ -6614,7 +6614,7 @@
         <v>22.48999977111816</v>
       </c>
       <c r="F178" t="n">
-        <v>16.73239707946777</v>
+        <v>16.73239517211914</v>
       </c>
       <c r="G178" t="n">
         <v>337800</v>
@@ -6649,7 +6649,7 @@
         <v>24.45000076293945</v>
       </c>
       <c r="F179" t="n">
-        <v>18.32553100585938</v>
+        <v>18.32552909851074</v>
       </c>
       <c r="G179" t="n">
         <v>138200</v>
@@ -6684,7 +6684,7 @@
         <v>26</v>
       </c>
       <c r="F180" t="n">
-        <v>19.48727607727051</v>
+        <v>19.48727416992188</v>
       </c>
       <c r="G180" t="n">
         <v>876600</v>
@@ -6754,7 +6754,7 @@
         <v>26.93000030517578</v>
       </c>
       <c r="F182" t="n">
-        <v>20.18432235717773</v>
+        <v>20.18431663513184</v>
       </c>
       <c r="G182" t="n">
         <v>230000</v>
@@ -6789,7 +6789,7 @@
         <v>28.90999984741211</v>
       </c>
       <c r="F183" t="n">
-        <v>21.6683521270752</v>
+        <v>21.66834831237793</v>
       </c>
       <c r="G183" t="n">
         <v>62000</v>
@@ -6824,7 +6824,7 @@
         <v>28.07999992370605</v>
       </c>
       <c r="F184" t="n">
-        <v>21.04625129699707</v>
+        <v>21.04625511169434</v>
       </c>
       <c r="G184" t="n">
         <v>205800</v>
@@ -6859,7 +6859,7 @@
         <v>27.63999938964844</v>
       </c>
       <c r="F185" t="n">
-        <v>21.09708786010742</v>
+        <v>21.09708595275879</v>
       </c>
       <c r="G185" t="n">
         <v>240800</v>
@@ -6894,7 +6894,7 @@
         <v>25.15999984741211</v>
       </c>
       <c r="F186" t="n">
-        <v>19.20415496826172</v>
+        <v>19.20415306091309</v>
       </c>
       <c r="G186" t="n">
         <v>444300</v>
@@ -6929,7 +6929,7 @@
         <v>22.57999992370605</v>
       </c>
       <c r="F187" t="n">
-        <v>17.23488998413086</v>
+        <v>17.23488807678223</v>
       </c>
       <c r="G187" t="n">
         <v>400800</v>
@@ -6964,7 +6964,7 @@
         <v>19.04999923706055</v>
       </c>
       <c r="F188" t="n">
-        <v>14.54050636291504</v>
+        <v>14.54050445556641</v>
       </c>
       <c r="G188" t="n">
         <v>227100</v>
@@ -6999,7 +6999,7 @@
         <v>21.5</v>
       </c>
       <c r="F189" t="n">
-        <v>16.41054344177246</v>
+        <v>16.41054153442383</v>
       </c>
       <c r="G189" t="n">
         <v>912400</v>
@@ -7034,7 +7034,7 @@
         <v>20.54000091552734</v>
       </c>
       <c r="F190" t="n">
-        <v>15.67778873443604</v>
+        <v>15.67779636383057</v>
       </c>
       <c r="G190" t="n">
         <v>470000</v>
@@ -7069,7 +7069,7 @@
         <v>19.57999992370605</v>
       </c>
       <c r="F191" t="n">
-        <v>15.08925724029541</v>
+        <v>15.08925819396973</v>
       </c>
       <c r="G191" t="n">
         <v>258100</v>
@@ -7104,7 +7104,7 @@
         <v>20.80999946594238</v>
       </c>
       <c r="F192" t="n">
-        <v>16.03714752197266</v>
+        <v>16.03715133666992</v>
       </c>
       <c r="G192" t="n">
         <v>2335800</v>
@@ -7139,7 +7139,7 @@
         <v>22.11000061035156</v>
       </c>
       <c r="F193" t="n">
-        <v>17.03898811340332</v>
+        <v>17.03899383544922</v>
       </c>
       <c r="G193" t="n">
         <v>1594700</v>
@@ -7174,7 +7174,7 @@
         <v>22.06999969482422</v>
       </c>
       <c r="F194" t="n">
-        <v>17.00816535949707</v>
+        <v>17.0081615447998</v>
       </c>
       <c r="G194" t="n">
         <v>503700</v>
@@ -7209,7 +7209,7 @@
         <v>20.71999931335449</v>
       </c>
       <c r="F195" t="n">
-        <v>15.9677906036377</v>
+        <v>15.96779441833496</v>
       </c>
       <c r="G195" t="n">
         <v>670600</v>
@@ -7279,7 +7279,7 @@
         <v>19.57999992370605</v>
       </c>
       <c r="F197" t="n">
-        <v>15.49473190307617</v>
+        <v>15.4947338104248</v>
       </c>
       <c r="G197" t="n">
         <v>868000</v>
@@ -7349,7 +7349,7 @@
         <v>20.61000061035156</v>
       </c>
       <c r="F199" t="n">
-        <v>16.3098258972168</v>
+        <v>16.30982971191406</v>
       </c>
       <c r="G199" t="n">
         <v>671500</v>
@@ -7384,7 +7384,7 @@
         <v>20.97999954223633</v>
       </c>
       <c r="F200" t="n">
-        <v>16.60263061523438</v>
+        <v>16.60263252258301</v>
       </c>
       <c r="G200" t="n">
         <v>822700</v>
@@ -7489,7 +7489,7 @@
         <v>23.59000015258789</v>
       </c>
       <c r="F203" t="n">
-        <v>18.7591609954834</v>
+        <v>18.75915908813477</v>
       </c>
       <c r="G203" t="n">
         <v>212000</v>
@@ -7524,7 +7524,7 @@
         <v>24.32999992370605</v>
       </c>
       <c r="F204" t="n">
-        <v>19.34762001037598</v>
+        <v>19.34762573242188</v>
       </c>
       <c r="G204" t="n">
         <v>767700</v>
@@ -7594,7 +7594,7 @@
         <v>23.20999908447266</v>
       </c>
       <c r="F206" t="n">
-        <v>18.45697975158691</v>
+        <v>18.45697784423828</v>
       </c>
       <c r="G206" t="n">
         <v>1077100</v>
@@ -7629,7 +7629,7 @@
         <v>24.53000068664551</v>
       </c>
       <c r="F207" t="n">
-        <v>19.50666427612305</v>
+        <v>19.50666809082031</v>
       </c>
       <c r="G207" t="n">
         <v>920300</v>
@@ -7734,7 +7734,7 @@
         <v>25.45999908447266</v>
       </c>
       <c r="F210" t="n">
-        <v>20.74083137512207</v>
+        <v>20.7408332824707</v>
       </c>
       <c r="G210" t="n">
         <v>929300</v>
@@ -7804,7 +7804,7 @@
         <v>26.8799991607666</v>
       </c>
       <c r="F212" t="n">
-        <v>21.89762115478516</v>
+        <v>21.89762878417969</v>
       </c>
       <c r="G212" t="n">
         <v>335600</v>
@@ -7874,7 +7874,7 @@
         <v>27.93000030517578</v>
       </c>
       <c r="F214" t="n">
-        <v>22.75299835205078</v>
+        <v>22.75300025939941</v>
       </c>
       <c r="G214" t="n">
         <v>378600</v>
@@ -7909,7 +7909,7 @@
         <v>28.45000076293945</v>
       </c>
       <c r="F215" t="n">
-        <v>23.28165817260742</v>
+        <v>23.28166198730469</v>
       </c>
       <c r="G215" t="n">
         <v>679700</v>
@@ -7944,7 +7944,7 @@
         <v>26.8799991607666</v>
       </c>
       <c r="F216" t="n">
-        <v>21.99686622619629</v>
+        <v>21.99687576293945</v>
       </c>
       <c r="G216" t="n">
         <v>407500</v>
@@ -7979,7 +7979,7 @@
         <v>29.04999923706055</v>
       </c>
       <c r="F217" t="n">
-        <v>23.77266311645508</v>
+        <v>23.77266502380371</v>
       </c>
       <c r="G217" t="n">
         <v>2088700</v>
@@ -8014,7 +8014,7 @@
         <v>29.20000076293945</v>
       </c>
       <c r="F218" t="n">
-        <v>23.89541244506836</v>
+        <v>23.89541053771973</v>
       </c>
       <c r="G218" t="n">
         <v>176500</v>
@@ -8049,7 +8049,7 @@
         <v>30.04000091552734</v>
       </c>
       <c r="F219" t="n">
-        <v>24.58281898498535</v>
+        <v>24.58281517028809</v>
       </c>
       <c r="G219" t="n">
         <v>383100</v>
@@ -8084,7 +8084,7 @@
         <v>30.20000076293945</v>
       </c>
       <c r="F220" t="n">
-        <v>24.71374893188477</v>
+        <v>24.7137508392334</v>
       </c>
       <c r="G220" t="n">
         <v>255400</v>
@@ -8119,7 +8119,7 @@
         <v>29.14999961853027</v>
       </c>
       <c r="F221" t="n">
-        <v>24.35276794433594</v>
+        <v>24.35276985168457</v>
       </c>
       <c r="G221" t="n">
         <v>544800</v>
@@ -8154,7 +8154,7 @@
         <v>27.22999954223633</v>
       </c>
       <c r="F222" t="n">
-        <v>22.74874496459961</v>
+        <v>22.74874687194824</v>
       </c>
       <c r="G222" t="n">
         <v>1735700</v>
@@ -8189,7 +8189,7 @@
         <v>27.56999969482422</v>
       </c>
       <c r="F223" t="n">
-        <v>23.03278923034668</v>
+        <v>23.03278732299805</v>
       </c>
       <c r="G223" t="n">
         <v>508900</v>
@@ -8224,7 +8224,7 @@
         <v>26.54999923706055</v>
       </c>
       <c r="F224" t="n">
-        <v>22.18065452575684</v>
+        <v>22.1806526184082</v>
       </c>
       <c r="G224" t="n">
         <v>318800</v>
@@ -8259,7 +8259,7 @@
         <v>25.54999923706055</v>
       </c>
       <c r="F225" t="n">
-        <v>21.34522247314453</v>
+        <v>21.3452262878418</v>
       </c>
       <c r="G225" t="n">
         <v>2397900</v>
@@ -8294,7 +8294,7 @@
         <v>26.30999946594238</v>
       </c>
       <c r="F226" t="n">
-        <v>21.98014640808105</v>
+        <v>21.98015022277832</v>
       </c>
       <c r="G226" t="n">
         <v>284400</v>
@@ -8329,7 +8329,7 @@
         <v>24.64999961853027</v>
       </c>
       <c r="F227" t="n">
-        <v>20.77976608276367</v>
+        <v>20.7797679901123</v>
       </c>
       <c r="G227" t="n">
         <v>655300</v>
@@ -8364,7 +8364,7 @@
         <v>24.95000076293945</v>
       </c>
       <c r="F228" t="n">
-        <v>21.03265953063965</v>
+        <v>21.03266716003418</v>
       </c>
       <c r="G228" t="n">
         <v>1078400</v>
@@ -8399,7 +8399,7 @@
         <v>26.5</v>
       </c>
       <c r="F229" t="n">
-        <v>22.33930206298828</v>
+        <v>22.33930015563965</v>
       </c>
       <c r="G229" t="n">
         <v>359800</v>
@@ -8434,7 +8434,7 @@
         <v>25.97999954223633</v>
       </c>
       <c r="F230" t="n">
-        <v>21.90094947814941</v>
+        <v>21.90094566345215</v>
       </c>
       <c r="G230" t="n">
         <v>338200</v>
@@ -8469,7 +8469,7 @@
         <v>27.15999984741211</v>
       </c>
       <c r="F231" t="n">
-        <v>22.89567947387695</v>
+        <v>22.89568138122559</v>
       </c>
       <c r="G231" t="n">
         <v>1074500</v>
@@ -8504,7 +8504,7 @@
         <v>26.93000030517578</v>
       </c>
       <c r="F232" t="n">
-        <v>22.7017879486084</v>
+        <v>22.70178985595703</v>
       </c>
       <c r="G232" t="n">
         <v>608600</v>
@@ -8539,7 +8539,7 @@
         <v>25.72999954223633</v>
       </c>
       <c r="F233" t="n">
-        <v>22.05769538879395</v>
+        <v>22.05769157409668</v>
       </c>
       <c r="G233" t="n">
         <v>2178500</v>
@@ -8574,7 +8574,7 @@
         <v>26.78000068664551</v>
       </c>
       <c r="F234" t="n">
-        <v>22.95783233642578</v>
+        <v>22.95782852172852</v>
       </c>
       <c r="G234" t="n">
         <v>481600</v>
@@ -8609,7 +8609,7 @@
         <v>25.02000045776367</v>
       </c>
       <c r="F235" t="n">
-        <v>21.44902801513672</v>
+        <v>21.44902610778809</v>
       </c>
       <c r="G235" t="n">
         <v>759500</v>
@@ -8644,7 +8644,7 @@
         <v>24.06999969482422</v>
       </c>
       <c r="F236" t="n">
-        <v>20.63461685180664</v>
+        <v>20.63461494445801</v>
       </c>
       <c r="G236" t="n">
         <v>1071200</v>
@@ -8679,7 +8679,7 @@
         <v>25.79000091552734</v>
       </c>
       <c r="F237" t="n">
-        <v>22.109130859375</v>
+        <v>22.10912895202637</v>
       </c>
       <c r="G237" t="n">
         <v>658500</v>
@@ -8749,7 +8749,7 @@
         <v>24.20999908447266</v>
       </c>
       <c r="F239" t="n">
-        <v>20.83052635192871</v>
+        <v>20.83052825927734</v>
       </c>
       <c r="G239" t="n">
         <v>1404700</v>
@@ -8784,7 +8784,7 @@
         <v>23.29000091552734</v>
       </c>
       <c r="F240" t="n">
-        <v>20.03894996643066</v>
+        <v>20.0389518737793</v>
       </c>
       <c r="G240" t="n">
         <v>2301800</v>
@@ -8854,7 +8854,7 @@
         <v>24.18000030517578</v>
       </c>
       <c r="F242" t="n">
-        <v>20.80471420288086</v>
+        <v>20.80471611022949</v>
       </c>
       <c r="G242" t="n">
         <v>737600</v>
@@ -8924,7 +8924,7 @@
         <v>24.70000076293945</v>
       </c>
       <c r="F244" t="n">
-        <v>21.25213050842285</v>
+        <v>21.25212860107422</v>
       </c>
       <c r="G244" t="n">
         <v>653700</v>
@@ -9029,7 +9029,7 @@
         <v>23.8700008392334</v>
       </c>
       <c r="F247" t="n">
-        <v>21.0670337677002</v>
+        <v>21.06703186035156</v>
       </c>
       <c r="G247" t="n">
         <v>380100</v>
@@ -9064,7 +9064,7 @@
         <v>24.15999984741211</v>
       </c>
       <c r="F248" t="n">
-        <v>21.32297897338867</v>
+        <v>21.3229808807373</v>
       </c>
       <c r="G248" t="n">
         <v>580300</v>
@@ -9099,7 +9099,7 @@
         <v>24.04999923706055</v>
       </c>
       <c r="F249" t="n">
-        <v>21.22589874267578</v>
+        <v>21.22589683532715</v>
       </c>
       <c r="G249" t="n">
         <v>199200</v>
@@ -9204,7 +9204,7 @@
         <v>25.01000022888184</v>
       </c>
       <c r="F252" t="n">
-        <v>22.15238380432129</v>
+        <v>22.15237808227539</v>
       </c>
       <c r="G252" t="n">
         <v>1071600</v>
@@ -9344,7 +9344,7 @@
         <v>29.38999938964844</v>
       </c>
       <c r="F256" t="n">
-        <v>26.03192329406738</v>
+        <v>26.03192520141602</v>
       </c>
       <c r="G256" t="n">
         <v>469000</v>
@@ -9379,7 +9379,7 @@
         <v>28.76000022888184</v>
       </c>
       <c r="F257" t="n">
-        <v>25.90998458862305</v>
+        <v>25.90998077392578</v>
       </c>
       <c r="G257" t="n">
         <v>1364400</v>
@@ -9414,7 +9414,7 @@
         <v>29.44000053405762</v>
       </c>
       <c r="F258" t="n">
-        <v>26.52259635925293</v>
+        <v>26.52259826660156</v>
       </c>
       <c r="G258" t="n">
         <v>915800</v>
@@ -9449,7 +9449,7 @@
         <v>29.70000076293945</v>
       </c>
       <c r="F259" t="n">
-        <v>26.75683403015137</v>
+        <v>26.75683212280273</v>
       </c>
       <c r="G259" t="n">
         <v>930400</v>
@@ -9484,7 +9484,7 @@
         <v>30.89999961853027</v>
       </c>
       <c r="F260" t="n">
-        <v>27.83791351318359</v>
+        <v>27.83791732788086</v>
       </c>
       <c r="G260" t="n">
         <v>570800</v>
@@ -9519,7 +9519,7 @@
         <v>31.38999938964844</v>
       </c>
       <c r="F261" t="n">
-        <v>28.27935791015625</v>
+        <v>28.27935981750488</v>
       </c>
       <c r="G261" t="n">
         <v>476700</v>
@@ -9554,7 +9554,7 @@
         <v>31.36000061035156</v>
       </c>
       <c r="F262" t="n">
-        <v>28.25233268737793</v>
+        <v>28.2523307800293</v>
       </c>
       <c r="G262" t="n">
         <v>680200</v>
@@ -9589,7 +9589,7 @@
         <v>31.21999931335449</v>
       </c>
       <c r="F263" t="n">
-        <v>28.21175193786621</v>
+        <v>28.21174812316895</v>
       </c>
       <c r="G263" t="n">
         <v>874500</v>
@@ -9624,7 +9624,7 @@
         <v>33.33000183105469</v>
       </c>
       <c r="F264" t="n">
-        <v>30.11843872070312</v>
+        <v>30.11843681335449</v>
       </c>
       <c r="G264" t="n">
         <v>528700</v>
@@ -9659,7 +9659,7 @@
         <v>31.6299991607666</v>
       </c>
       <c r="F265" t="n">
-        <v>28.58224105834961</v>
+        <v>28.58224296569824</v>
       </c>
       <c r="G265" t="n">
         <v>829200</v>
@@ -9694,7 +9694,7 @@
         <v>31.39999961853027</v>
       </c>
       <c r="F266" t="n">
-        <v>28.37440299987793</v>
+        <v>28.3744068145752</v>
       </c>
       <c r="G266" t="n">
         <v>1235600</v>
@@ -9764,7 +9764,7 @@
         <v>31.81999969482422</v>
       </c>
       <c r="F268" t="n">
-        <v>28.75393486022949</v>
+        <v>28.75393676757812</v>
       </c>
       <c r="G268" t="n">
         <v>1499600</v>
@@ -9799,7 +9799,7 @@
         <v>30.52000045776367</v>
       </c>
       <c r="F269" t="n">
-        <v>28.14888191223145</v>
+        <v>28.14887809753418</v>
       </c>
       <c r="G269" t="n">
         <v>611000</v>
@@ -9834,7 +9834,7 @@
         <v>31.71999931335449</v>
       </c>
       <c r="F270" t="n">
-        <v>29.25564956665039</v>
+        <v>29.25565147399902</v>
       </c>
       <c r="G270" t="n">
         <v>873700</v>
@@ -9869,7 +9869,7 @@
         <v>31.02000045776367</v>
       </c>
       <c r="F271" t="n">
-        <v>28.61003303527832</v>
+        <v>28.61003494262695</v>
       </c>
       <c r="G271" t="n">
         <v>583200</v>
@@ -9974,7 +9974,7 @@
         <v>28.07999992370605</v>
       </c>
       <c r="F274" t="n">
-        <v>25.8984432220459</v>
+        <v>25.89844512939453</v>
       </c>
       <c r="G274" t="n">
         <v>765500</v>
@@ -10114,7 +10114,7 @@
         <v>29.46999931335449</v>
       </c>
       <c r="F278" t="n">
-        <v>27.30591583251953</v>
+        <v>27.30591773986816</v>
       </c>
       <c r="G278" t="n">
         <v>778200</v>
@@ -10149,7 +10149,7 @@
         <v>30.88999938964844</v>
       </c>
       <c r="F279" t="n">
-        <v>28.62164115905762</v>
+        <v>28.62164306640625</v>
       </c>
       <c r="G279" t="n">
         <v>585600</v>
@@ -10219,7 +10219,7 @@
         <v>30.64999961853027</v>
       </c>
       <c r="F281" t="n">
-        <v>29.10633850097656</v>
+        <v>29.1063404083252</v>
       </c>
       <c r="G281" t="n">
         <v>1136300</v>
@@ -10324,7 +10324,7 @@
         <v>30.13999938964844</v>
       </c>
       <c r="F284" t="n">
-        <v>28.62202453613281</v>
+        <v>28.62202644348145</v>
       </c>
       <c r="G284" t="n">
         <v>696200</v>
@@ -10359,7 +10359,7 @@
         <v>31.22999954223633</v>
       </c>
       <c r="F285" t="n">
-        <v>29.65712928771973</v>
+        <v>29.65713119506836</v>
       </c>
       <c r="G285" t="n">
         <v>2269100</v>
@@ -10394,7 +10394,7 @@
         <v>31.65999984741211</v>
       </c>
       <c r="F286" t="n">
-        <v>30.06547355651855</v>
+        <v>30.06547546386719</v>
       </c>
       <c r="G286" t="n">
         <v>494700</v>
@@ -10429,7 +10429,7 @@
         <v>32.70999908447266</v>
       </c>
       <c r="F287" t="n">
-        <v>31.12946510314941</v>
+        <v>31.12946319580078</v>
       </c>
       <c r="G287" t="n">
         <v>675100</v>
@@ -10499,7 +10499,7 @@
         <v>28.93000030517578</v>
       </c>
       <c r="F289" t="n">
-        <v>27.53211402893066</v>
+        <v>27.53211212158203</v>
       </c>
       <c r="G289" t="n">
         <v>2153200</v>
@@ -10534,7 +10534,7 @@
         <v>23.44000053405762</v>
       </c>
       <c r="F290" t="n">
-        <v>22.30738830566406</v>
+        <v>22.3073902130127</v>
       </c>
       <c r="G290" t="n">
         <v>1285800</v>
@@ -10569,7 +10569,7 @@
         <v>24.47999954223633</v>
       </c>
       <c r="F291" t="n">
-        <v>23.2971363067627</v>
+        <v>23.29713249206543</v>
       </c>
       <c r="G291" t="n">
         <v>765400</v>
@@ -10744,7 +10744,7 @@
         <v>27.94000053405762</v>
       </c>
       <c r="F296" t="n">
-        <v>26.76534652709961</v>
+        <v>26.76534461975098</v>
       </c>
       <c r="G296" t="n">
         <v>1243600</v>
@@ -10814,7 +10814,7 @@
         <v>32.4900016784668</v>
       </c>
       <c r="F298" t="n">
-        <v>31.12405395507812</v>
+        <v>31.12405586242676</v>
       </c>
       <c r="G298" t="n">
         <v>1029100</v>
@@ -10884,7 +10884,7 @@
         <v>32.38999938964844</v>
       </c>
       <c r="F300" t="n">
-        <v>31.18166923522949</v>
+        <v>31.18167114257812</v>
       </c>
       <c r="G300" t="n">
         <v>1053700</v>
@@ -10989,7 +10989,7 @@
         <v>36.97999954223633</v>
       </c>
       <c r="F303" t="n">
-        <v>35.60043716430664</v>
+        <v>35.60044097900391</v>
       </c>
       <c r="G303" t="n">
         <v>1070600</v>
@@ -11024,7 +11024,7 @@
         <v>38.97999954223633</v>
       </c>
       <c r="F304" t="n">
-        <v>37.52582931518555</v>
+        <v>37.52582550048828</v>
       </c>
       <c r="G304" t="n">
         <v>1121400</v>
@@ -11301,25 +11301,25 @@
         <v>39.54079818725586</v>
       </c>
       <c r="E312" t="n">
-        <v>39.66999816894531</v>
+        <v>39.59999847412109</v>
       </c>
       <c r="F312" t="n">
-        <v>39.66999816894531</v>
+        <v>39.59999847412109</v>
       </c>
       <c r="G312" t="n">
-        <v>293506</v>
+        <v>333169</v>
       </c>
       <c r="H312" t="n">
-        <v>0.02031885491582308</v>
+        <v>0.0185184512918215</v>
       </c>
       <c r="I312" t="n">
-        <v>0.05027500427988006</v>
+        <v>0.05027115846900541</v>
       </c>
       <c r="J312" t="n">
-        <v>0.2247606951676417</v>
+        <v>0.2225995436967161</v>
       </c>
       <c r="K312" t="n">
-        <v>0.2247606951676417</v>
+        <v>0.2225995436967161</v>
       </c>
     </row>
   </sheetData>
